--- a/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2020/output/LCA_final.xlsx
+++ b/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2020/output/LCA_final.xlsx
@@ -750,52 +750,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.535118296081461e-09</v>
+        <v>2.02809463686517e-09</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.999999999999999e-05</v>
+        <v>-5.6e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006320309105783453</v>
+        <v>0.0005056247284626762</v>
       </c>
       <c r="E6" t="n">
-        <v>9.405402548644224e-11</v>
+        <v>7.52432203891538e-11</v>
       </c>
       <c r="F6" t="n">
-        <v>5.462660743149817e-10</v>
+        <v>4.370128594519853e-10</v>
       </c>
       <c r="G6" t="n">
-        <v>5.272437886128317e-09</v>
+        <v>4.217950308902654e-09</v>
       </c>
       <c r="H6" t="n">
-        <v>7.967688095303643e-16</v>
+        <v>6.374150476242916e-16</v>
       </c>
       <c r="I6" t="n">
-        <v>3.091805794762249e-14</v>
+        <v>2.4734446358098e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>6.311347084540653e-08</v>
+        <v>5.049077667632522e-08</v>
       </c>
       <c r="K6" t="n">
-        <v>7.890699980513418e-06</v>
+        <v>6.312559984410735e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>2.212186796646132e-11</v>
+        <v>1.769749437316905e-11</v>
       </c>
       <c r="M6" t="n">
-        <v>4.929211471200495e-14</v>
+        <v>3.943369176960397e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>1.474795700402909e-09</v>
+        <v>1.179836560322327e-09</v>
       </c>
       <c r="O6" t="n">
-        <v>3.156761585553304e-07</v>
+        <v>2.525409268442643e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>5.371077989789972e-06</v>
+        <v>4.296862391831978e-06</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.436793577117807e-14</v>
+        <v>3.549434861694246e-14</v>
       </c>
     </row>
     <row r="7">
@@ -915,52 +915,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.460360247033662e-07</v>
+        <v>1.768383927555533e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0004159999999999746</v>
+        <v>0.0002989999999999968</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01021004975653574</v>
+        <v>0.007338473262510434</v>
       </c>
       <c r="E9" t="n">
-        <v>4.982112491133451e-09</v>
+        <v>3.580893353002348e-09</v>
       </c>
       <c r="F9" t="n">
-        <v>1.378812349015075e-07</v>
+        <v>9.910213758546349e-08</v>
       </c>
       <c r="G9" t="n">
-        <v>1.106007291485804e-06</v>
+        <v>7.949427407554613e-07</v>
       </c>
       <c r="H9" t="n">
-        <v>3.819315886428809e-14</v>
+        <v>2.745133293370844e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>2.809177913715464e-12</v>
+        <v>2.019096625483091e-12</v>
       </c>
       <c r="J9" t="n">
-        <v>5.162784244730178e-07</v>
+        <v>3.710751175900002e-07</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0005046574986711798</v>
+        <v>0.0003627225771699287</v>
       </c>
       <c r="L9" t="n">
-        <v>5.520665203191449e-10</v>
+        <v>3.967978114794053e-10</v>
       </c>
       <c r="M9" t="n">
-        <v>2.401216410748051e-12</v>
+        <v>1.725874295225249e-12</v>
       </c>
       <c r="N9" t="n">
-        <v>2.443140054197026e-07</v>
+        <v>1.7560069139542e-07</v>
       </c>
       <c r="O9" t="n">
-        <v>4.203339885566472e-05</v>
+        <v>3.021150542751053e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>7.743595253143759e-05</v>
+        <v>5.565709088197356e-05</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.525656149926905e-12</v>
+        <v>1.096565357760018e-12</v>
       </c>
     </row>
     <row r="10">
@@ -970,52 +970,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.685822607664253e-07</v>
+        <v>1.001641354553764e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00153999999999998</v>
+        <v>0.0009149999999999912</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007992463054518298</v>
+        <v>0.004748768633041732</v>
       </c>
       <c r="E10" t="n">
-        <v>2.596404109798256e-09</v>
+        <v>1.542668675626891e-09</v>
       </c>
       <c r="F10" t="n">
-        <v>9.699593976008444e-08</v>
+        <v>5.763070446784258e-08</v>
       </c>
       <c r="G10" t="n">
-        <v>6.491730415933037e-07</v>
+        <v>3.857099565310877e-07</v>
       </c>
       <c r="H10" t="n">
-        <v>4.142676069776389e-14</v>
+        <v>2.461395197302214e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>1.008071124110438e-12</v>
+        <v>5.989513497149699e-13</v>
       </c>
       <c r="J10" t="n">
-        <v>2.674041051157815e-06</v>
+        <v>1.588797118058058e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0005167533356731632</v>
+        <v>0.0003070320143772377</v>
       </c>
       <c r="L10" t="n">
-        <v>1.127280776029195e-10</v>
+        <v>6.697804610822841e-11</v>
       </c>
       <c r="M10" t="n">
-        <v>3.292491895528295e-12</v>
+        <v>1.956253301563897e-12</v>
       </c>
       <c r="N10" t="n">
-        <v>3.014259954886522e-07</v>
+        <v>1.790940168000765e-07</v>
       </c>
       <c r="O10" t="n">
-        <v>1.684738980616296e-05</v>
+        <v>1.000997511210335e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0005187676672458551</v>
+        <v>0.0003082288412532202</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.936243225089575e-12</v>
+        <v>4.715365292829213e-12</v>
       </c>
     </row>
     <row r="11">
@@ -1025,52 +1025,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.031859716107032e-06</v>
+        <v>1.727080758690956e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003719999999999979</v>
+        <v>0.003161999999999943</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09000243210716539</v>
+        <v>0.07650206729108962</v>
       </c>
       <c r="E11" t="n">
-        <v>3.218087447832114e-08</v>
+        <v>2.735374330657263e-08</v>
       </c>
       <c r="F11" t="n">
-        <v>1.188552117282355e-06</v>
+        <v>1.010269299689989e-06</v>
       </c>
       <c r="G11" t="n">
-        <v>9.371972433300471e-06</v>
+        <v>7.966176568305298e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2705433578058e-13</v>
+        <v>2.779961854134895e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>2.47282742053196e-11</v>
+        <v>2.101903307452139e-11</v>
       </c>
       <c r="J11" t="n">
-        <v>4.491779249373882e-06</v>
+        <v>3.818012361967751e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004517821730527793</v>
+        <v>0.003840148470948576</v>
       </c>
       <c r="L11" t="n">
-        <v>3.384893771695148e-09</v>
+        <v>2.877159705940839e-09</v>
       </c>
       <c r="M11" t="n">
-        <v>2.137983633943124e-11</v>
+        <v>1.817286088851633e-11</v>
       </c>
       <c r="N11" t="n">
-        <v>1.943136379814908e-06</v>
+        <v>1.651665922842651e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0002535707694210603</v>
+        <v>0.0002155351540078986</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0006854733035067195</v>
+        <v>0.0005826523079807042</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.349346169265509e-11</v>
+        <v>1.146944243875668e-11</v>
       </c>
     </row>
     <row r="12">
@@ -1080,52 +1080,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.349047001989423</v>
+        <v>4.577209322843363</v>
       </c>
       <c r="C12" t="n">
-        <v>287.505655</v>
+        <v>392.939712</v>
       </c>
       <c r="D12" t="n">
-        <v>13.7589964620293</v>
+        <v>18.80469484051996</v>
       </c>
       <c r="E12" t="n">
-        <v>8.261454048361988e-06</v>
+        <v>1.129109399418454e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>1.716344450481144</v>
+        <v>2.345762187059795</v>
       </c>
       <c r="G12" t="n">
-        <v>18.85277736065472</v>
+        <v>25.76646677261283</v>
       </c>
       <c r="H12" t="n">
-        <v>7.924227356788288e-10</v>
+        <v>1.083019954998419e-09</v>
       </c>
       <c r="I12" t="n">
-        <v>2.771569210960429e-07</v>
+        <v>3.787958910035554e-07</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05399459756249191</v>
+        <v>0.07379549322520794</v>
       </c>
       <c r="K12" t="n">
-        <v>1.897726338704365</v>
+        <v>2.593660430732424</v>
       </c>
       <c r="L12" t="n">
-        <v>1.382789985521287e-06</v>
+        <v>1.889886648202516e-06</v>
       </c>
       <c r="M12" t="n">
-        <v>1.343633287482738e-06</v>
+        <v>1.836370408147555e-06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.51611604616452</v>
+        <v>6.172265858695772</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06815295941172603</v>
+        <v>0.09314600870438988</v>
       </c>
       <c r="P12" t="n">
-        <v>11.4552154820268</v>
+        <v>15.65607143416205</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.960161791304103e-07</v>
+        <v>2.67899220886086e-07</v>
       </c>
     </row>
     <row r="13">
@@ -1135,52 +1135,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.938013970472885</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>423.761216</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>18.97025121703447</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.059756270864354e-05</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.530834682970285</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>27.79937897601275</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.139227847767642e-09</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.080946306037929e-07</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06926276297692814</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.434350389233421</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.773804405212622e-06</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.977675327718831e-06</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>6.659176709104733</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.08742471445309408</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>14.69443075046493</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.514440845501159e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1245,52 +1245,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06135572357248488</v>
+        <v>0.06135574173526962</v>
       </c>
       <c r="C15" t="n">
-        <v>54.049618</v>
+        <v>54.049634</v>
       </c>
       <c r="D15" t="n">
-        <v>21.32435932218464</v>
+        <v>21.32436563471305</v>
       </c>
       <c r="E15" t="n">
-        <v>1.849357653914187e-06</v>
+        <v>1.84935820136898e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03072071740627386</v>
+        <v>0.03072072650035253</v>
       </c>
       <c r="G15" t="n">
-        <v>0.347724072274912</v>
+        <v>0.3477241752096849</v>
       </c>
       <c r="H15" t="n">
-        <v>4.76563585172058e-09</v>
+        <v>4.765637262464567e-09</v>
       </c>
       <c r="I15" t="n">
-        <v>2.357743990982961e-07</v>
+        <v>2.357744688932461e-07</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0009201194836120861</v>
+        <v>0.0009201197559898063</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07051720327785102</v>
+        <v>0.07051722415265631</v>
       </c>
       <c r="L15" t="n">
-        <v>6.569357404962561e-07</v>
+        <v>6.569359349651947e-07</v>
       </c>
       <c r="M15" t="n">
-        <v>1.001987754916983e-06</v>
+        <v>1.001988051529701e-06</v>
       </c>
       <c r="N15" t="n">
-        <v>0.08334478003695367</v>
+        <v>0.08334480470903331</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01282245387340181</v>
+        <v>0.01282245766915966</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1637150067198906</v>
+        <v>0.1637150551835098</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.997103729700563e-06</v>
+        <v>1.997104320891784e-06</v>
       </c>
     </row>
     <row r="16">
@@ -1300,52 +1300,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6218222732469401</v>
+        <v>0.6218222653128663</v>
       </c>
       <c r="C16" t="n">
-        <v>1332.351981</v>
+        <v>1332.351964</v>
       </c>
       <c r="D16" t="n">
-        <v>510.2887621583554</v>
+        <v>510.2887556473814</v>
       </c>
       <c r="E16" t="n">
-        <v>4.509924287583404e-05</v>
+        <v>4.509924230039516e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>0.289788211513724</v>
+        <v>0.2897882078162028</v>
       </c>
       <c r="G16" t="n">
-        <v>3.401099354555202</v>
+        <v>3.401099311159245</v>
       </c>
       <c r="H16" t="n">
-        <v>1.011526044364197e-07</v>
+        <v>1.011526031457741e-07</v>
       </c>
       <c r="I16" t="n">
-        <v>5.048148792122509e-06</v>
+        <v>5.048148727711203e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02243843530124108</v>
+        <v>0.0224384350149403</v>
       </c>
       <c r="K16" t="n">
-        <v>1.719663295426539</v>
+        <v>1.719663273484682</v>
       </c>
       <c r="L16" t="n">
-        <v>1.602032167858392e-05</v>
+        <v>1.602032147417436e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>3.060852816601954e-05</v>
+        <v>3.060852777547335e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7893643695418758</v>
+        <v>0.789364359470067</v>
       </c>
       <c r="O16" t="n">
-        <v>0.312693956345753</v>
+        <v>0.3126939523559685</v>
       </c>
       <c r="P16" t="n">
-        <v>3.992425605102425</v>
+        <v>3.992425554161504</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.870224316176485e-05</v>
+        <v>4.870224254035387e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1520,52 +1520,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02623005364192487</v>
+        <v>0.02623005683975022</v>
       </c>
       <c r="C20" t="n">
-        <v>8.202465999999998</v>
+        <v>8.202467</v>
       </c>
       <c r="D20" t="n">
-        <v>194.0929805748672</v>
+        <v>194.0930042376268</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000769971354894781</v>
+        <v>0.0007699714487654971</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00586778327480023</v>
+        <v>0.005867783990168424</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04586649615234088</v>
+        <v>0.0458665017441344</v>
       </c>
       <c r="H20" t="n">
-        <v>7.389695168646443e-09</v>
+        <v>7.38969606955785e-09</v>
       </c>
       <c r="I20" t="n">
-        <v>4.683055849517029e-07</v>
+        <v>4.683056420449706e-07</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5966615757142125</v>
+        <v>0.5966616484559437</v>
       </c>
       <c r="K20" t="n">
-        <v>70.47184678775592</v>
+        <v>70.47185537929987</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003684100773490143</v>
+        <v>0.0003684101222635654</v>
       </c>
       <c r="M20" t="n">
-        <v>1.350347318679086e-06</v>
+        <v>1.35034748330608e-06</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02064040012581251</v>
+        <v>0.02064040264217774</v>
       </c>
       <c r="O20" t="n">
-        <v>4.057666911228091</v>
+        <v>4.057667405916752</v>
       </c>
       <c r="P20" t="n">
-        <v>104.0103603644645</v>
+        <v>104.0103730448415</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.632193656231316e-06</v>
+        <v>4.632194220963149e-06</v>
       </c>
     </row>
     <row r="21">
@@ -1575,52 +1575,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.903903776365778</v>
+        <v>2.903903783326814</v>
       </c>
       <c r="C21" t="n">
-        <v>5840.316344</v>
+        <v>5840.316358</v>
       </c>
       <c r="D21" t="n">
-        <v>8275.832400903102</v>
+        <v>8275.832420741352</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03159440357038186</v>
+        <v>0.03159440364611777</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7425232056025162</v>
+        <v>0.7425232073824413</v>
       </c>
       <c r="G21" t="n">
-        <v>10.98749105440889</v>
+        <v>10.98749108074734</v>
       </c>
       <c r="H21" t="n">
-        <v>3.437884631191071e-07</v>
+        <v>3.43788463943213e-07</v>
       </c>
       <c r="I21" t="n">
-        <v>2.242002282544541e-05</v>
+        <v>2.242002287918914e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>24.47784193779542</v>
+        <v>24.47784199647201</v>
       </c>
       <c r="K21" t="n">
-        <v>2890.704359543865</v>
+        <v>2890.704366473261</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01511478392753139</v>
+        <v>0.0151147839637635</v>
       </c>
       <c r="M21" t="n">
-        <v>7.807213046731263e-05</v>
+        <v>7.807213065446172e-05</v>
       </c>
       <c r="N21" t="n">
-        <v>2.137740919029828</v>
+        <v>2.137740924154272</v>
       </c>
       <c r="O21" t="n">
-        <v>166.5297443984746</v>
+        <v>166.5297447976681</v>
       </c>
       <c r="P21" t="n">
-        <v>4267.023331003152</v>
+        <v>4267.023341231764</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0002098317595286219</v>
+        <v>0.000209831760031616</v>
       </c>
     </row>
     <row r="22">
@@ -1685,52 +1685,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.130433770855808</v>
+        <v>3.130433693723575</v>
       </c>
       <c r="C23" t="n">
-        <v>5316.672502</v>
+        <v>5316.672371000001</v>
       </c>
       <c r="D23" t="n">
-        <v>6647.416776606515</v>
+        <v>6647.416612817678</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02529505239621147</v>
+        <v>0.02529505177295475</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5367577272282387</v>
+        <v>0.536757714002812</v>
       </c>
       <c r="G23" t="n">
-        <v>12.14857911690035</v>
+        <v>12.14857881756578</v>
       </c>
       <c r="H23" t="n">
-        <v>3.214376287959947e-07</v>
+        <v>3.214376208759414e-07</v>
       </c>
       <c r="I23" t="n">
-        <v>2.402696904092521e-05</v>
+        <v>2.40269684489134e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>19.59692410424453</v>
+        <v>19.59692362138667</v>
       </c>
       <c r="K23" t="n">
-        <v>2314.257927623056</v>
+        <v>2314.257870600964</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01210095680511254</v>
+        <v>0.01210095650695136</v>
       </c>
       <c r="M23" t="n">
-        <v>7.299426714175263e-05</v>
+        <v>7.299426534321248e-05</v>
       </c>
       <c r="N23" t="n">
-        <v>2.303501172539139</v>
+        <v>2.303501115782088</v>
       </c>
       <c r="O23" t="n">
-        <v>133.3296118395551</v>
+        <v>133.329608554384</v>
       </c>
       <c r="P23" t="n">
-        <v>3416.175683475845</v>
+        <v>3416.175599303082</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0001698534517256443</v>
+        <v>0.000169853447540545</v>
       </c>
     </row>
     <row r="24">
@@ -1850,52 +1850,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01416570196014358</v>
+        <v>0.01416575815385294</v>
       </c>
       <c r="C26" t="n">
-        <v>17.141914</v>
+        <v>17.141982</v>
       </c>
       <c r="D26" t="n">
-        <v>30.86425248559273</v>
+        <v>30.86437492053021</v>
       </c>
       <c r="E26" t="n">
-        <v>0.000117445577252569</v>
+        <v>0.0001174460431456573</v>
       </c>
       <c r="F26" t="n">
-        <v>0.002447560827677665</v>
+        <v>0.002447570536869781</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05551623532985688</v>
+        <v>0.05551645555637314</v>
       </c>
       <c r="H26" t="n">
-        <v>1.154741299227677e-09</v>
+        <v>1.154745879953514e-09</v>
       </c>
       <c r="I26" t="n">
-        <v>9.357222674729937e-08</v>
+        <v>9.357259793755376e-08</v>
       </c>
       <c r="J26" t="n">
-        <v>0.09098802413899035</v>
+        <v>0.09098838507801041</v>
       </c>
       <c r="K26" t="n">
-        <v>10.74496696362024</v>
+        <v>10.74500958766756</v>
       </c>
       <c r="L26" t="n">
-        <v>5.618460979596115e-05</v>
+        <v>5.618483267384199e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>3.337781546325707e-07</v>
+        <v>3.33779478692096e-07</v>
       </c>
       <c r="N26" t="n">
-        <v>0.00879011236634388</v>
+        <v>0.008790147235707995</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6190587895421206</v>
+        <v>0.6190612452770921</v>
       </c>
       <c r="P26" t="n">
-        <v>15.86122395461015</v>
+        <v>15.86128687426013</v>
       </c>
       <c r="Q26" t="n">
-        <v>7.924948317693094e-07</v>
+        <v>7.924979755050998e-07</v>
       </c>
     </row>
     <row r="27">
@@ -1960,52 +1960,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.157672113700163e-07</v>
+        <v>2.465139450091401e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001269999999999998</v>
+        <v>0.0007529999999999646</v>
       </c>
       <c r="D28" t="n">
-        <v>1.937583262400707e-05</v>
+        <v>1.148819052431233e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>1.717578876931567e-09</v>
+        <v>1.018375507345993e-09</v>
       </c>
       <c r="F28" t="n">
-        <v>2.18097934328119e-07</v>
+        <v>1.293131846843041e-07</v>
       </c>
       <c r="G28" t="n">
-        <v>2.313302156989086e-06</v>
+        <v>1.371587814340711e-06</v>
       </c>
       <c r="H28" t="n">
-        <v>2.009818343195513e-14</v>
+        <v>1.19164819876075e-14</v>
       </c>
       <c r="I28" t="n">
-        <v>2.321088221320164e-13</v>
+        <v>1.376204276105515e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>9.303720585914342e-08</v>
+        <v>5.516300473380456e-08</v>
       </c>
       <c r="K28" t="n">
-        <v>1.42142736973046e-05</v>
+        <v>8.427833144936908e-06</v>
       </c>
       <c r="L28" t="n">
-        <v>9.182321156469402e-12</v>
+        <v>5.444321126630822e-12</v>
       </c>
       <c r="M28" t="n">
-        <v>3.361554335340337e-12</v>
+        <v>1.993110562607212e-12</v>
       </c>
       <c r="N28" t="n">
-        <v>5.962902486920038e-07</v>
+        <v>3.535484702874475e-07</v>
       </c>
       <c r="O28" t="n">
-        <v>3.262857015304821e-06</v>
+        <v>1.934591600412927e-06</v>
       </c>
       <c r="P28" t="n">
-        <v>5.135134512426179e-06</v>
+        <v>3.044689990438375e-06</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.565083715730597e-14</v>
+        <v>5.671266171610087e-14</v>
       </c>
     </row>
     <row r="29">
@@ -2125,52 +2125,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.872067642087889e-05</v>
+        <v>2.30672380096112e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>0.004749999999999964</v>
+        <v>0.003814999999999978</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0008552340043875955</v>
+        <v>0.0006868879424713017</v>
       </c>
       <c r="E31" t="n">
-        <v>4.169565066049832e-09</v>
+        <v>3.348819100416871e-09</v>
       </c>
       <c r="F31" t="n">
-        <v>3.05748552717586e-06</v>
+        <v>2.455643639194933e-06</v>
       </c>
       <c r="G31" t="n">
-        <v>3.339131558595696e-05</v>
+        <v>2.681849872851074e-05</v>
       </c>
       <c r="H31" t="n">
-        <v>3.400422409580878e-13</v>
+        <v>2.731076103694963e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>3.494170957067369e-11</v>
+        <v>2.80637098972885e-11</v>
       </c>
       <c r="J31" t="n">
-        <v>6.239147603003975e-07</v>
+        <v>5.011020653781096e-07</v>
       </c>
       <c r="K31" t="n">
-        <v>4.429995019363617e-05</v>
+        <v>3.557985473446785e-05</v>
       </c>
       <c r="L31" t="n">
-        <v>3.788018611712509e-11</v>
+        <v>3.042377053407e-11</v>
       </c>
       <c r="M31" t="n">
-        <v>2.237098173730665e-11</v>
+        <v>1.796743059533159e-11</v>
       </c>
       <c r="N31" t="n">
-        <v>9.291041253229241e-06</v>
+        <v>7.462173132856762e-06</v>
       </c>
       <c r="O31" t="n">
-        <v>0.000301557370018795</v>
+        <v>0.0002421981824466747</v>
       </c>
       <c r="P31" t="n">
-        <v>2.692693538875816e-05</v>
+        <v>2.162658073855001e-05</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.461951667501974e-13</v>
+        <v>5.189967497162122e-13</v>
       </c>
     </row>
     <row r="32">
@@ -2180,52 +2180,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>11.06729475047892</v>
+        <v>11.07683471314867</v>
       </c>
       <c r="C32" t="n">
-        <v>1830.376461</v>
+        <v>1831.954238</v>
       </c>
       <c r="D32" t="n">
-        <v>329.5579347953343</v>
+        <v>329.8420123830692</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001606710263053807</v>
+        <v>0.0016080952407088</v>
       </c>
       <c r="F32" t="n">
-        <v>1.178178850271771</v>
+        <v>1.179194435607058</v>
       </c>
       <c r="G32" t="n">
-        <v>12.86709011586495</v>
+        <v>12.87818149475574</v>
       </c>
       <c r="H32" t="n">
-        <v>1.310326975990271e-07</v>
+        <v>1.31145647246777e-07</v>
       </c>
       <c r="I32" t="n">
-        <v>1.346452267479158e-05</v>
+        <v>1.347612903809712e-05</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2404208191419606</v>
+        <v>0.2406280609017001</v>
       </c>
       <c r="K32" t="n">
-        <v>17.07064969640096</v>
+        <v>17.08536452640446</v>
       </c>
       <c r="L32" t="n">
-        <v>1.459684231728115e-05</v>
+        <v>1.460942473547301e-05</v>
       </c>
       <c r="M32" t="n">
-        <v>8.620488080300482e-06</v>
+        <v>8.627918905658913e-06</v>
       </c>
       <c r="N32" t="n">
-        <v>3.580232254334921</v>
+        <v>3.583318399849741</v>
       </c>
       <c r="O32" t="n">
-        <v>116.2028445733629</v>
+        <v>116.3030109486463</v>
       </c>
       <c r="P32" t="n">
-        <v>10.37609025314762</v>
+        <v>10.38503440037644</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.490064047224295e-07</v>
+        <v>2.492210472217158e-07</v>
       </c>
     </row>
     <row r="33">
@@ -2345,28 +2345,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.18616395516418</v>
+        <v>3.186184736504805</v>
       </c>
       <c r="C35" t="n">
-        <v>10083.144416</v>
+        <v>10083.210182</v>
       </c>
       <c r="D35" t="n">
-        <v>8.839692214101474</v>
+        <v>8.839749869845971</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.606866126595305</v>
+        <v>1.60687660717094</v>
       </c>
       <c r="G35" t="n">
-        <v>17.59704393894921</v>
+        <v>17.59715871338306</v>
       </c>
       <c r="H35" t="n">
-        <v>4.984982647714314e-07</v>
+        <v>4.985015161616256e-07</v>
       </c>
       <c r="I35" t="n">
-        <v>3.479727781846721e-06</v>
+        <v>3.479750477919282e-06</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.168281677688375e-05</v>
+        <v>1.168289297653898e-05</v>
       </c>
       <c r="N35" t="n">
-        <v>4.572778774308048</v>
+        <v>4.572808599663758</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2400,28 +2400,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22.67895690563875</v>
+        <v>22.67910483111622</v>
       </c>
       <c r="C36" t="n">
-        <v>17030.971607</v>
+        <v>17031.082693</v>
       </c>
       <c r="D36" t="n">
-        <v>5961.451058794056</v>
+        <v>5961.489942879332</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>4.467194483799554</v>
+        <v>4.467223621465794</v>
       </c>
       <c r="G36" t="n">
-        <v>49.34999569590967</v>
+        <v>49.35031758556742</v>
       </c>
       <c r="H36" t="n">
-        <v>5.364340634238266e-06</v>
+        <v>5.36437562361864e-06</v>
       </c>
       <c r="I36" t="n">
-        <v>2.463974533799169e-05</v>
+        <v>2.463990605288299e-05</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2433,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0001103199337088905</v>
+        <v>0.0001103206532802948</v>
       </c>
       <c r="N36" t="n">
-        <v>12.65807831093514</v>
+        <v>12.65816087435663</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2455,52 +2455,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.100585628917259</v>
+        <v>5.100618872412416</v>
       </c>
       <c r="C37" t="n">
-        <v>5413.662507</v>
+        <v>5413.697791</v>
       </c>
       <c r="D37" t="n">
-        <v>74157.94420844509</v>
+        <v>74158.42753907385</v>
       </c>
       <c r="E37" t="n">
-        <v>0.007753857564438641</v>
+        <v>0.007753908100856444</v>
       </c>
       <c r="F37" t="n">
-        <v>2.455226854507164</v>
+        <v>2.455242856654365</v>
       </c>
       <c r="G37" t="n">
-        <v>28.01578502042372</v>
+        <v>28.01596761565521</v>
       </c>
       <c r="H37" t="n">
-        <v>6.017121002242133e-07</v>
+        <v>6.017160219333551e-07</v>
       </c>
       <c r="I37" t="n">
-        <v>3.455957053657932e-05</v>
+        <v>3.455979578148242e-05</v>
       </c>
       <c r="J37" t="n">
-        <v>0.02342631455381891</v>
+        <v>0.02342646723679123</v>
       </c>
       <c r="K37" t="n">
-        <v>11.63670524195486</v>
+        <v>11.63678108515846</v>
       </c>
       <c r="L37" t="n">
-        <v>5.970378219411427e-06</v>
+        <v>5.970417131852833e-06</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0001263740893884212</v>
+        <v>0.000126374913042161</v>
       </c>
       <c r="N37" t="n">
-        <v>6.652983918836916</v>
+        <v>6.653027280218289</v>
       </c>
       <c r="O37" t="n">
-        <v>180.2803257540917</v>
+        <v>180.2815007462538</v>
       </c>
       <c r="P37" t="n">
-        <v>4.258261585975888</v>
+        <v>4.258289339553361</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.282607455435752e-08</v>
+        <v>6.282648402857422e-08</v>
       </c>
     </row>
     <row r="38">
@@ -2510,52 +2510,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2985674378724902</v>
+        <v>0.2985693831203737</v>
       </c>
       <c r="C38" t="n">
-        <v>340.430946</v>
+        <v>340.433164</v>
       </c>
       <c r="D38" t="n">
-        <v>14.76392354514854</v>
+        <v>14.7640197361171</v>
       </c>
       <c r="E38" t="n">
-        <v>6.293031842205737e-05</v>
+        <v>6.293072843016004e-05</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1549366529111534</v>
+        <v>0.1549376623654942</v>
       </c>
       <c r="G38" t="n">
-        <v>1.688338354908946</v>
+        <v>1.688349354891512</v>
       </c>
       <c r="H38" t="n">
-        <v>2.841489456474058e-10</v>
+        <v>2.841507969548996e-10</v>
       </c>
       <c r="I38" t="n">
-        <v>9.918343741269704e-07</v>
+        <v>9.918408361970837e-07</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0434393806545969</v>
+        <v>0.04343966367395053</v>
       </c>
       <c r="K38" t="n">
-        <v>20.65067911239786</v>
+        <v>20.6508136571765</v>
       </c>
       <c r="L38" t="n">
-        <v>5.289269640525872e-06</v>
+        <v>5.289304101552993e-06</v>
       </c>
       <c r="M38" t="n">
-        <v>8.816927984835177e-07</v>
+        <v>8.816985429513754e-07</v>
       </c>
       <c r="N38" t="n">
-        <v>0.5009930067445852</v>
+        <v>0.5009962708499847</v>
       </c>
       <c r="O38" t="n">
-        <v>0.8342005069395989</v>
+        <v>0.8342059419822886</v>
       </c>
       <c r="P38" t="n">
-        <v>8.272307466705087</v>
+        <v>8.272361363033188</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.055063254136333e-07</v>
+        <v>1.055070128159759e-07</v>
       </c>
     </row>
     <row r="39">
@@ -2675,52 +2675,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0007519139330898799</v>
+        <v>0.000751918827276244</v>
       </c>
       <c r="C41" t="n">
-        <v>23.81328600000001</v>
+        <v>23.813441</v>
       </c>
       <c r="D41" t="n">
-        <v>4.037180510560091</v>
+        <v>4.037206788452992</v>
       </c>
       <c r="E41" t="n">
-        <v>1.316537689663967e-05</v>
+        <v>1.316546258970273e-05</v>
       </c>
       <c r="F41" t="n">
-        <v>9.50021130666178e-05</v>
+        <v>9.500273143266459e-05</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0009915370403257211</v>
+        <v>0.0009915434942120618</v>
       </c>
       <c r="H41" t="n">
-        <v>5.301631037489665e-10</v>
+        <v>5.301665545655015e-10</v>
       </c>
       <c r="I41" t="n">
-        <v>5.197564063704886e-09</v>
+        <v>5.197597894501268e-09</v>
       </c>
       <c r="J41" t="n">
-        <v>0.006550230976715502</v>
+        <v>0.006550273611982275</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5020043347942607</v>
+        <v>0.5020076023261708</v>
       </c>
       <c r="L41" t="n">
-        <v>4.676654406031727e-06</v>
+        <v>4.67668484624199e-06</v>
       </c>
       <c r="M41" t="n">
-        <v>1.048665395834756e-08</v>
+        <v>1.048672221567935e-08</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0005437186931603589</v>
+        <v>0.000543722232209839</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0912816607570843</v>
+        <v>0.09128225490681302</v>
       </c>
       <c r="P41" t="n">
-        <v>1.165469406386265</v>
+        <v>1.165476992393421</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.421716521276682e-05</v>
+        <v>1.421725775189006e-05</v>
       </c>
     </row>
     <row r="42">
@@ -2895,28 +2895,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.05567048359904967</v>
+        <v>0.05566229853281184</v>
       </c>
       <c r="C45" t="n">
-        <v>176.178481</v>
+        <v>176.152578</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1544521711220053</v>
+        <v>0.1544294624769662</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02807608635503596</v>
+        <v>0.02807195841125572</v>
       </c>
       <c r="G45" t="n">
-        <v>0.307465642001009</v>
+        <v>0.3074204362387641</v>
       </c>
       <c r="H45" t="n">
-        <v>8.710047525373714e-09</v>
+        <v>8.708766912896135e-09</v>
       </c>
       <c r="I45" t="n">
-        <v>6.079979911092594e-08</v>
+        <v>6.079085989662785e-08</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2928,10 +2928,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>2.041288737555551e-07</v>
+        <v>2.040988612921323e-07</v>
       </c>
       <c r="N45" t="n">
-        <v>0.07989821281625822</v>
+        <v>0.07988646561878647</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2950,28 +2950,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01636472501236839</v>
+        <v>0.01636232008814465</v>
       </c>
       <c r="C46" t="n">
-        <v>12.289241</v>
+        <v>12.287435</v>
       </c>
       <c r="D46" t="n">
-        <v>4.301675233908182</v>
+        <v>4.301043069116847</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003223446722365457</v>
+        <v>0.003222973011679778</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03561006409092515</v>
+        <v>0.0356048309137299</v>
       </c>
       <c r="H46" t="n">
-        <v>3.870811154024307e-09</v>
+        <v>3.870242308076526e-09</v>
       </c>
       <c r="I46" t="n">
-        <v>1.777959447203524e-08</v>
+        <v>1.777698162168781e-08</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2983,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>7.960486833853591e-08</v>
+        <v>7.95931697810563e-08</v>
       </c>
       <c r="N46" t="n">
-        <v>0.009133840308677284</v>
+        <v>0.009132498019466952</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3115,52 +3115,52 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.291225422699745</v>
+        <v>1.291035642632333</v>
       </c>
       <c r="C49" t="n">
-        <v>1472.274054</v>
+        <v>1472.057664</v>
       </c>
       <c r="D49" t="n">
-        <v>63.85007540049516</v>
+        <v>63.84069092633535</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0002721570295279598</v>
+        <v>0.0002721170287825418</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6700601598501412</v>
+        <v>0.6699616766108312</v>
       </c>
       <c r="G49" t="n">
-        <v>7.301618091750932</v>
+        <v>7.300544923929641</v>
       </c>
       <c r="H49" t="n">
-        <v>1.228869246652247e-09</v>
+        <v>1.228688631490579e-09</v>
       </c>
       <c r="I49" t="n">
-        <v>4.289422075314115e-06</v>
+        <v>4.288791630159997e-06</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1878638643491375</v>
+        <v>0.1878362527360033</v>
       </c>
       <c r="K49" t="n">
-        <v>89.30874061802574</v>
+        <v>89.29561431295377</v>
       </c>
       <c r="L49" t="n">
-        <v>2.287469616923765e-05</v>
+        <v>2.287133412160079e-05</v>
       </c>
       <c r="M49" t="n">
-        <v>3.813088810104631e-06</v>
+        <v>3.812528374847773e-06</v>
       </c>
       <c r="N49" t="n">
-        <v>2.166662619048445</v>
+        <v>2.166344170100125</v>
       </c>
       <c r="O49" t="n">
-        <v>3.607697175099994</v>
+        <v>3.607166927630374</v>
       </c>
       <c r="P49" t="n">
-        <v>35.77554800185636</v>
+        <v>35.7702898294318</v>
       </c>
       <c r="Q49" t="n">
-        <v>4.562870304962616e-07</v>
+        <v>4.562199669286731e-07</v>
       </c>
     </row>
     <row r="50">
@@ -3170,52 +3170,52 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2551077059215521</v>
+        <v>0.2550702102893146</v>
       </c>
       <c r="C50" t="n">
-        <v>1212.63075</v>
+        <v>1212.452518</v>
       </c>
       <c r="D50" t="n">
-        <v>2643.684027418623</v>
+        <v>2643.295459759775</v>
       </c>
       <c r="E50" t="n">
-        <v>0.00204116547394636</v>
+        <v>0.002040865464232148</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1519263127761879</v>
+        <v>0.1519039827053244</v>
       </c>
       <c r="G50" t="n">
-        <v>1.278121430839789</v>
+        <v>1.277933573044775</v>
       </c>
       <c r="H50" t="n">
-        <v>6.216618238194915e-08</v>
+        <v>6.215704522043622e-08</v>
       </c>
       <c r="I50" t="n">
-        <v>3.284548828461938e-06</v>
+        <v>3.284066066741774e-06</v>
       </c>
       <c r="J50" t="n">
-        <v>0.6859296950676271</v>
+        <v>0.6858288773855657</v>
       </c>
       <c r="K50" t="n">
-        <v>42.29605762268969</v>
+        <v>42.28984096445122</v>
       </c>
       <c r="L50" t="n">
-        <v>7.971755170522913e-05</v>
+        <v>7.970583485022152e-05</v>
       </c>
       <c r="M50" t="n">
-        <v>9.704836180529065e-07</v>
+        <v>9.703409767449793e-07</v>
       </c>
       <c r="N50" t="n">
-        <v>0.3036185547025896</v>
+        <v>0.3035739289645059</v>
       </c>
       <c r="O50" t="n">
-        <v>81.86289101465626</v>
+        <v>81.85085883850427</v>
       </c>
       <c r="P50" t="n">
-        <v>100.9073382977072</v>
+        <v>100.8925069760378</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.897400644942756e-06</v>
+        <v>1.89712176572767e-06</v>
       </c>
     </row>
     <row r="51">
@@ -3280,52 +3280,52 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3180683776307358</v>
+        <v>0.3180216116205084</v>
       </c>
       <c r="C52" t="n">
-        <v>268.167372</v>
+        <v>268.127943</v>
       </c>
       <c r="D52" t="n">
-        <v>3433.95411663099</v>
+        <v>3433.449217858798</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0004229704729406664</v>
+        <v>0.0004229082830379456</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09076251775808454</v>
+        <v>0.09074917282620115</v>
       </c>
       <c r="G52" t="n">
-        <v>1.586577152863824</v>
+        <v>1.586343876346649</v>
       </c>
       <c r="H52" t="n">
-        <v>3.082433379053872e-08</v>
+        <v>3.081980164836212e-08</v>
       </c>
       <c r="I52" t="n">
-        <v>1.287942130190426e-06</v>
+        <v>1.287752762371841e-06</v>
       </c>
       <c r="J52" t="n">
-        <v>0.01283502970024228</v>
+        <v>0.01283314254901178</v>
       </c>
       <c r="K52" t="n">
-        <v>2.877977012501236</v>
+        <v>2.877553859770985</v>
       </c>
       <c r="L52" t="n">
-        <v>3.001890695036506e-06</v>
+        <v>3.001449323115187e-06</v>
       </c>
       <c r="M52" t="n">
-        <v>4.395602352554507e-06</v>
+        <v>4.394956061382443e-06</v>
       </c>
       <c r="N52" t="n">
-        <v>0.2335348954383093</v>
+        <v>0.2335005584967061</v>
       </c>
       <c r="O52" t="n">
-        <v>7.209918614298004</v>
+        <v>7.208858530519268</v>
       </c>
       <c r="P52" t="n">
-        <v>4.560761058216683</v>
+        <v>4.560090483543772</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.971337782681485e-08</v>
+        <v>2.970900902994894e-08</v>
       </c>
     </row>
     <row r="53">
@@ -3390,52 +3390,52 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0001386192402593947</v>
+        <v>0.0001385988425536444</v>
       </c>
       <c r="C54" t="n">
-        <v>4.390103</v>
+        <v>4.389457</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7442752029665823</v>
+        <v>0.7441656834903612</v>
       </c>
       <c r="E54" t="n">
-        <v>2.427105633807463e-06</v>
+        <v>2.426748487234947e-06</v>
       </c>
       <c r="F54" t="n">
-        <v>1.751413314315763e-05</v>
+        <v>1.751155595305287e-05</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00018279500508015</v>
+        <v>0.0001827681069473996</v>
       </c>
       <c r="H54" t="n">
-        <v>9.773832272697049e-11</v>
+        <v>9.772394061418597e-11</v>
       </c>
       <c r="I54" t="n">
-        <v>9.581979399551579e-10</v>
+        <v>9.580569419263619e-10</v>
       </c>
       <c r="J54" t="n">
-        <v>0.001207569113375269</v>
+        <v>0.001207391420586002</v>
       </c>
       <c r="K54" t="n">
-        <v>0.09254710736658846</v>
+        <v>0.09253348913682054</v>
       </c>
       <c r="L54" t="n">
-        <v>8.62165538090089e-07</v>
+        <v>8.620386711492436e-07</v>
       </c>
       <c r="M54" t="n">
-        <v>1.93326914238142e-09</v>
+        <v>1.932984663437309e-09</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0001002373660652867</v>
+        <v>0.0001002226162203564</v>
       </c>
       <c r="O54" t="n">
-        <v>0.01682824842966475</v>
+        <v>0.01682577216692431</v>
       </c>
       <c r="P54" t="n">
-        <v>0.2148603404580351</v>
+        <v>0.2148287239378906</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.621008274627162e-06</v>
+        <v>2.620622595442549e-06</v>
       </c>
     </row>
     <row r="55">
@@ -3610,52 +3610,52 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.119707639252504e-07</v>
+        <v>9.776959386643864e-08</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0002049999999999938</v>
+        <v>0.0001789999999999955</v>
       </c>
       <c r="D58" t="n">
-        <v>0.004959811446765714</v>
+        <v>0.004330762190102768</v>
       </c>
       <c r="E58" t="n">
-        <v>1.77340840539131e-09</v>
+        <v>1.548488314951444e-09</v>
       </c>
       <c r="F58" t="n">
-        <v>6.549816775346147e-08</v>
+        <v>5.719108306277886e-08</v>
       </c>
       <c r="G58" t="n">
-        <v>5.164662228028356e-07</v>
+        <v>4.509631896668686e-07</v>
       </c>
       <c r="H58" t="n">
-        <v>1.802315560081109e-14</v>
+        <v>1.573729196363513e-14</v>
       </c>
       <c r="I58" t="n">
-        <v>1.362714035508171e-12</v>
+        <v>1.189882011492506e-12</v>
       </c>
       <c r="J58" t="n">
-        <v>2.475308457316191e-07</v>
+        <v>2.1613668968761e-07</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0002489659824618749</v>
+        <v>0.0002173898090764675</v>
       </c>
       <c r="L58" t="n">
-        <v>1.865331245154539e-10</v>
+        <v>1.628752648208118e-10</v>
       </c>
       <c r="M58" t="n">
-        <v>1.178189905801961e-12</v>
+        <v>1.028760942139279e-12</v>
       </c>
       <c r="N58" t="n">
-        <v>1.070814402854963e-07</v>
+        <v>9.350037956636065e-08</v>
       </c>
       <c r="O58" t="n">
-        <v>1.397365799228926e-05</v>
+        <v>1.220138917375508e-05</v>
       </c>
       <c r="P58" t="n">
-        <v>3.77747384996973e-05</v>
+        <v>3.298379605583342e-05</v>
       </c>
       <c r="Q58" t="n">
-        <v>7.435913029554368e-13</v>
+        <v>6.492821620927995e-13</v>
       </c>
     </row>
     <row r="59">
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.001325999999999998</v>
+        <v>0.0008219999999999744</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -4105,52 +4105,52 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.762864201175091</v>
+        <v>2.762864402946531</v>
       </c>
       <c r="C67" t="n">
-        <v>13.693039</v>
+        <v>13.69304</v>
       </c>
       <c r="D67" t="n">
-        <v>1824.835737329914</v>
+        <v>1824.835870597316</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0104240285214204</v>
+        <v>0.01042402928268519</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9300062580669409</v>
+        <v>0.9300063259851187</v>
       </c>
       <c r="G67" t="n">
-        <v>7.123234280722333</v>
+        <v>7.12323480093076</v>
       </c>
       <c r="H67" t="n">
-        <v>1.54990480694701e-07</v>
+        <v>1.54990492013626e-07</v>
       </c>
       <c r="I67" t="n">
-        <v>6.517898129959185e-07</v>
+        <v>6.517898605960029e-07</v>
       </c>
       <c r="J67" t="n">
-        <v>3.312497259435434</v>
+        <v>3.31249750134647</v>
       </c>
       <c r="K67" t="n">
-        <v>137.9887607287498</v>
+        <v>137.9887708060425</v>
       </c>
       <c r="L67" t="n">
-        <v>0.001856263769987083</v>
+        <v>0.001856263905549668</v>
       </c>
       <c r="M67" t="n">
-        <v>5.328461618814168e-06</v>
+        <v>5.328462007950693e-06</v>
       </c>
       <c r="N67" t="n">
-        <v>1.78669525175367</v>
+        <v>1.78669538223568</v>
       </c>
       <c r="O67" t="n">
-        <v>5435.168836697903</v>
+        <v>5435.169233627235</v>
       </c>
       <c r="P67" t="n">
-        <v>178.0659723464329</v>
+        <v>178.0659853505565</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.280963298125096e-06</v>
+        <v>1.280963391673599e-06</v>
       </c>
     </row>
     <row r="68">
@@ -4160,52 +4160,52 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>7.898149956701293e-05</v>
+        <v>8.09917636889679e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>0.011551</v>
+        <v>0.011845</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4152697794888305</v>
+        <v>0.4258393678508525</v>
       </c>
       <c r="E68" t="n">
-        <v>1.788423981810588e-06</v>
+        <v>1.833943560258542e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>4.509333601651273e-05</v>
+        <v>4.624106701719273e-05</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0002456655915008622</v>
+        <v>0.0002519183561014382</v>
       </c>
       <c r="H68" t="n">
-        <v>8.299479961339162e-12</v>
+        <v>8.510721161982717e-12</v>
       </c>
       <c r="I68" t="n">
-        <v>2.600386250049592e-10</v>
+        <v>2.666572169668203e-10</v>
       </c>
       <c r="J68" t="n">
-        <v>0.001282220274694283</v>
+        <v>0.001314855783374062</v>
       </c>
       <c r="K68" t="n">
-        <v>-10.65260483140133</v>
+        <v>-10.92373857050894</v>
       </c>
       <c r="L68" t="n">
-        <v>1.561537099525374e-07</v>
+        <v>1.601281875498057e-07</v>
       </c>
       <c r="M68" t="n">
-        <v>7.152982162550084e-10</v>
+        <v>7.335042309358994e-10</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0001292617081951687</v>
+        <v>0.0001325517213723291</v>
       </c>
       <c r="O68" t="n">
-        <v>0.02463032458208093</v>
+        <v>0.02525722402170796</v>
       </c>
       <c r="P68" t="n">
-        <v>0.244473073882721</v>
+        <v>0.2506954861172912</v>
       </c>
       <c r="Q68" t="n">
-        <v>3.117644955854217e-09</v>
+        <v>3.196996320846091e-09</v>
       </c>
     </row>
     <row r="69">
@@ -4215,52 +4215,52 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1.055588186271643e-07</v>
+        <v>6.852063665270511e-08</v>
       </c>
       <c r="C69" t="n">
-        <v>5.69999999999916e-05</v>
+        <v>3.699999999998613e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>6.198660251445947e-05</v>
+        <v>4.023691742165752e-05</v>
       </c>
       <c r="E69" t="n">
-        <v>3.917552128545866e-10</v>
+        <v>2.542972434318668e-10</v>
       </c>
       <c r="F69" t="n">
-        <v>1.628943595707222e-08</v>
+        <v>1.057384439318482e-08</v>
       </c>
       <c r="G69" t="n">
-        <v>4.453077872866641e-07</v>
+        <v>2.89059440870225e-07</v>
       </c>
       <c r="H69" t="n">
-        <v>1.087516980797446e-14</v>
+        <v>7.059320752543221e-15</v>
       </c>
       <c r="I69" t="n">
-        <v>3.548584492673013e-14</v>
+        <v>2.303467126822309e-14</v>
       </c>
       <c r="J69" t="n">
-        <v>1.606177349360238e-07</v>
+        <v>1.042606349584479e-07</v>
       </c>
       <c r="K69" t="n">
-        <v>1.101356435562324e-05</v>
+        <v>7.1491558097889e-06</v>
       </c>
       <c r="L69" t="n">
-        <v>4.039124346388418e-11</v>
+        <v>2.621887733619956e-11</v>
       </c>
       <c r="M69" t="n">
-        <v>7.803825712879958e-13</v>
+        <v>5.065641252219172e-13</v>
       </c>
       <c r="N69" t="n">
-        <v>8.341399684741458e-09</v>
+        <v>5.4145927778134e-09</v>
       </c>
       <c r="O69" t="n">
-        <v>2.021870867657667e-06</v>
+        <v>1.312442493040644e-06</v>
       </c>
       <c r="P69" t="n">
-        <v>7.049992104042137e-05</v>
+        <v>4.576310664026312e-05</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.570821890687188e-13</v>
+        <v>1.019656315007241e-13</v>
       </c>
     </row>
     <row r="70">
@@ -4270,52 +4270,52 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>63.60193279116596</v>
+        <v>63.60193265221641</v>
       </c>
       <c r="C70" t="n">
-        <v>7323.744944000002</v>
+        <v>7323.744928</v>
       </c>
       <c r="D70" t="n">
-        <v>163116.3515507448</v>
+        <v>163116.3511943886</v>
       </c>
       <c r="E70" t="n">
-        <v>0.03738396731825663</v>
+        <v>0.03738396723658481</v>
       </c>
       <c r="F70" t="n">
-        <v>6.167609292934721</v>
+        <v>6.1676092794605</v>
       </c>
       <c r="G70" t="n">
-        <v>67.52948785402172</v>
+        <v>67.52948770649175</v>
       </c>
       <c r="H70" t="n">
-        <v>1.136382254351148e-06</v>
+        <v>1.136382251868522e-06</v>
       </c>
       <c r="I70" t="n">
-        <v>7.007989898921708e-05</v>
+        <v>7.00798988361153e-05</v>
       </c>
       <c r="J70" t="n">
-        <v>1.406623533913334</v>
+        <v>1.406623530840318</v>
       </c>
       <c r="K70" t="n">
-        <v>243.1306719732059</v>
+        <v>243.1306714420445</v>
       </c>
       <c r="L70" t="n">
-        <v>5.66117403231445e-05</v>
+        <v>5.661174019946625e-05</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0008071520697786725</v>
+        <v>0.0008071520680153077</v>
       </c>
       <c r="N70" t="n">
-        <v>20.12964830975263</v>
+        <v>20.1296482657759</v>
       </c>
       <c r="O70" t="n">
-        <v>5.850168095310535</v>
+        <v>5.850168082529819</v>
       </c>
       <c r="P70" t="n">
-        <v>59.13995744841527</v>
+        <v>59.13995731921369</v>
       </c>
       <c r="Q70" t="n">
-        <v>9.897027426431496e-07</v>
+        <v>9.897027404809709e-07</v>
       </c>
     </row>
     <row r="71">
@@ -4325,28 +4325,28 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1.380322371168346</v>
+        <v>1.380322363900596</v>
       </c>
       <c r="C71" t="n">
-        <v>4368.259137</v>
+        <v>4368.259114</v>
       </c>
       <c r="D71" t="n">
-        <v>3.829565926006522</v>
+        <v>3.82956590584288</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6961328083625993</v>
+        <v>0.6961328046972823</v>
       </c>
       <c r="G71" t="n">
-        <v>7.623459984221787</v>
+        <v>7.623459944082325</v>
       </c>
       <c r="H71" t="n">
-        <v>2.159613618556398e-07</v>
+        <v>2.159613607185482e-07</v>
       </c>
       <c r="I71" t="n">
-        <v>1.507501236737685e-06</v>
+        <v>1.507501228800306e-06</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -4358,10 +4358,10 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>5.061275434133315e-06</v>
+        <v>5.061275407484408e-06</v>
       </c>
       <c r="N71" t="n">
-        <v>1.981037049380568</v>
+        <v>1.981037038949903</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -4380,28 +4380,28 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4.501196212728967</v>
+        <v>4.501196182101472</v>
       </c>
       <c r="C72" t="n">
-        <v>3380.214761</v>
+        <v>3380.214738</v>
       </c>
       <c r="D72" t="n">
-        <v>1183.196433586465</v>
+        <v>1183.19642553564</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8866245028669214</v>
+        <v>0.8866244968340611</v>
       </c>
       <c r="G72" t="n">
-        <v>9.794719159653656</v>
+        <v>9.794719093007435</v>
       </c>
       <c r="H72" t="n">
-        <v>1.064685199018915e-06</v>
+        <v>1.064685191774476e-06</v>
       </c>
       <c r="I72" t="n">
-        <v>4.890362853081611e-06</v>
+        <v>4.890362819806109e-06</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -4413,10 +4413,10 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>2.189570137044107e-05</v>
+        <v>2.189570122145612e-05</v>
       </c>
       <c r="N72" t="n">
-        <v>2.512306645789415</v>
+        <v>2.512306628694923</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4545,52 +4545,52 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.799705621766827</v>
+        <v>1.799705606857353</v>
       </c>
       <c r="C75" t="n">
-        <v>2052.050591</v>
+        <v>2052.050574</v>
       </c>
       <c r="D75" t="n">
-        <v>88.9940188818818</v>
+        <v>88.99401814462007</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0003793315461685467</v>
+        <v>0.0003793315430260138</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9339275818182943</v>
+        <v>0.933927574081268</v>
       </c>
       <c r="G75" t="n">
-        <v>10.17697057129134</v>
+        <v>10.17697048698128</v>
       </c>
       <c r="H75" t="n">
-        <v>1.712793794744459e-09</v>
+        <v>1.712793780554996e-09</v>
       </c>
       <c r="I75" t="n">
-        <v>5.978581963583783e-06</v>
+        <v>5.97858191405484e-06</v>
       </c>
       <c r="J75" t="n">
-        <v>0.2618440179787285</v>
+        <v>0.2618440158095088</v>
       </c>
       <c r="K75" t="n">
-        <v>124.4782202530654</v>
+        <v>124.4782192218384</v>
       </c>
       <c r="L75" t="n">
-        <v>3.188267406159802e-05</v>
+        <v>3.188267379746931e-05</v>
       </c>
       <c r="M75" t="n">
-        <v>5.314670271510942e-06</v>
+        <v>5.314670227482106e-06</v>
       </c>
       <c r="N75" t="n">
-        <v>3.019887021602006</v>
+        <v>3.019886996584065</v>
       </c>
       <c r="O75" t="n">
-        <v>5.02839610614572</v>
+        <v>5.028396064488493</v>
       </c>
       <c r="P75" t="n">
-        <v>49.86383766059237</v>
+        <v>49.86383724750058</v>
       </c>
       <c r="Q75" t="n">
-        <v>6.359713180108033e-07</v>
+        <v>6.359713127421648e-07</v>
       </c>
     </row>
     <row r="76">
@@ -4600,52 +4600,52 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9753935512840997</v>
+        <v>0.9753935466558404</v>
       </c>
       <c r="C76" t="n">
-        <v>4636.442515</v>
+        <v>4636.442493</v>
       </c>
       <c r="D76" t="n">
-        <v>10108.01434892701</v>
+        <v>10108.01430096431</v>
       </c>
       <c r="E76" t="n">
-        <v>0.007804310078360643</v>
+        <v>0.007804310041329057</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5808838475378469</v>
+        <v>0.5808838447815431</v>
       </c>
       <c r="G76" t="n">
-        <v>4.886843370315516</v>
+        <v>4.88684334712736</v>
       </c>
       <c r="H76" t="n">
-        <v>2.376897757135987e-07</v>
+        <v>2.376897745857566e-07</v>
       </c>
       <c r="I76" t="n">
-        <v>1.255833387935641e-05</v>
+        <v>1.25583338197669e-05</v>
       </c>
       <c r="J76" t="n">
-        <v>2.622623251564857</v>
+        <v>2.622623239120465</v>
       </c>
       <c r="K76" t="n">
-        <v>161.7171919636116</v>
+        <v>161.7171911962607</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0003047966958761643</v>
+        <v>0.0003047966944298988</v>
       </c>
       <c r="M76" t="n">
-        <v>3.710603171535537e-06</v>
+        <v>3.710603153928661e-06</v>
       </c>
       <c r="N76" t="n">
-        <v>1.160872735056355</v>
+        <v>1.160872729547994</v>
       </c>
       <c r="O76" t="n">
-        <v>312.9993102196722</v>
+        <v>312.9993087344851</v>
       </c>
       <c r="P76" t="n">
-        <v>385.8149509724847</v>
+        <v>385.8149491417861</v>
       </c>
       <c r="Q76" t="n">
-        <v>7.254631319716254e-06</v>
+        <v>7.254631285292904e-06</v>
       </c>
     </row>
     <row r="77">
@@ -4985,52 +4985,52 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.254266701632771</v>
+        <v>0.254252079756753</v>
       </c>
       <c r="C83" t="n">
-        <v>39.248038</v>
+        <v>39.245781</v>
       </c>
       <c r="D83" t="n">
-        <v>1498.139462319091</v>
+        <v>1498.053310222355</v>
       </c>
       <c r="E83" t="n">
-        <v>0.03973513656315118</v>
+        <v>0.03973285155203232</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1232558466484443</v>
+        <v>0.1232487586904198</v>
       </c>
       <c r="G83" t="n">
-        <v>0.437426769590239</v>
+        <v>0.4374016149004946</v>
       </c>
       <c r="H83" t="n">
-        <v>2.19161186218135e-07</v>
+        <v>2.191485831219677e-07</v>
       </c>
       <c r="I83" t="n">
-        <v>2.179669378376901e-06</v>
+        <v>2.179544034180409e-06</v>
       </c>
       <c r="J83" t="n">
-        <v>6089.867946388367</v>
+        <v>6089.517742081212</v>
       </c>
       <c r="K83" t="n">
-        <v>328.8810835751332</v>
+        <v>328.8621709200439</v>
       </c>
       <c r="L83" t="n">
-        <v>0.001468105258718744</v>
+        <v>0.001468020833770701</v>
       </c>
       <c r="M83" t="n">
-        <v>2.50737219362652e-06</v>
+        <v>2.507228004532507e-06</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1313020995387324</v>
+        <v>0.1312945488724122</v>
       </c>
       <c r="O83" t="n">
-        <v>4754.570602832658</v>
+        <v>4754.297186213702</v>
       </c>
       <c r="P83" t="n">
-        <v>549.9705039085632</v>
+        <v>549.938877272161</v>
       </c>
       <c r="Q83" t="n">
-        <v>3.930281677183323e-06</v>
+        <v>3.930055662172193e-06</v>
       </c>
     </row>
     <row r="84">
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>18783.889208</v>
+        <v>18783.889634</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -5260,52 +5260,52 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7.862681660585375e-08</v>
+        <v>8.250526944293312e-08</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0002229999999999399</v>
+        <v>0.0002339999999999918</v>
       </c>
       <c r="D88" t="n">
-        <v>0.003533514923171321</v>
+        <v>0.003707813865570775</v>
       </c>
       <c r="E88" t="n">
-        <v>1.930542308559433e-09</v>
+        <v>2.02577085292831e-09</v>
       </c>
       <c r="F88" t="n">
-        <v>1.234366426046562e-08</v>
+        <v>1.295254456031225e-08</v>
       </c>
       <c r="G88" t="n">
-        <v>1.235048143917004e-07</v>
+        <v>1.295969801240568e-07</v>
       </c>
       <c r="H88" t="n">
-        <v>5.515434924962202e-15</v>
+        <v>5.787496737405639e-15</v>
       </c>
       <c r="I88" t="n">
-        <v>1.423004531460367e-13</v>
+        <v>1.493197580097775e-13</v>
       </c>
       <c r="J88" t="n">
-        <v>2.158193199819168e-06</v>
+        <v>2.264651160348895e-06</v>
       </c>
       <c r="K88" t="n">
-        <v>8.849536898278435e-05</v>
+        <v>9.286061139899726e-05</v>
       </c>
       <c r="L88" t="n">
-        <v>1.778323206523812e-10</v>
+        <v>1.866043185321388e-10</v>
       </c>
       <c r="M88" t="n">
-        <v>5.696930736890688e-13</v>
+        <v>5.977945257545889e-13</v>
       </c>
       <c r="N88" t="n">
-        <v>2.96478563570688e-08</v>
+        <v>3.111030667065347e-08</v>
       </c>
       <c r="O88" t="n">
-        <v>2.852829529889208e-05</v>
+        <v>2.993552062754399e-05</v>
       </c>
       <c r="P88" t="n">
-        <v>7.368801936305356e-05</v>
+        <v>7.732285439891735e-05</v>
       </c>
       <c r="Q88" t="n">
-        <v>5.991386579369273e-13</v>
+        <v>6.28692582768044e-13</v>
       </c>
     </row>
     <row r="89">
@@ -5315,52 +5315,52 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.3338723614690554</v>
+        <v>0.3338745057597223</v>
       </c>
       <c r="C89" t="n">
-        <v>2876.923226</v>
+        <v>2876.941703</v>
       </c>
       <c r="D89" t="n">
-        <v>4993.111846115153</v>
+        <v>4993.14391430757</v>
       </c>
       <c r="E89" t="n">
-        <v>0.005995521729608723</v>
+        <v>0.005995560235764882</v>
       </c>
       <c r="F89" t="n">
-        <v>0.07610413604965791</v>
+        <v>0.07610462482742891</v>
       </c>
       <c r="G89" t="n">
-        <v>0.8369572903239894</v>
+        <v>0.8369626656707186</v>
       </c>
       <c r="H89" t="n">
-        <v>4.682731933846671e-08</v>
+        <v>4.682762008628355e-08</v>
       </c>
       <c r="I89" t="n">
-        <v>9.431510447602714e-07</v>
+        <v>9.431571021349335e-07</v>
       </c>
       <c r="J89" t="n">
-        <v>0.5384498362947645</v>
+        <v>0.5384532944814604</v>
       </c>
       <c r="K89" t="n">
-        <v>48.65838446854894</v>
+        <v>48.65869697635647</v>
       </c>
       <c r="L89" t="n">
-        <v>0.001747387887176199</v>
+        <v>0.001747399109750962</v>
       </c>
       <c r="M89" t="n">
-        <v>1.336795858197712e-06</v>
+        <v>1.336804443750795e-06</v>
       </c>
       <c r="N89" t="n">
-        <v>0.2272151447530429</v>
+        <v>0.2272166040391968</v>
       </c>
       <c r="O89" t="n">
-        <v>135.5892977672222</v>
+        <v>135.5901685876293</v>
       </c>
       <c r="P89" t="n">
-        <v>47.36289605001689</v>
+        <v>47.36320023756781</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.114388663376335e-06</v>
+        <v>1.114395820522256e-06</v>
       </c>
     </row>
     <row r="90">
@@ -5425,52 +5425,52 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3.706095392449734e-08</v>
+        <v>2.7795715443373e-08</v>
       </c>
       <c r="C91" t="n">
-        <v>3.999999999999849e-06</v>
+        <v>2.999999999999886e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>0.002619468445583113</v>
+        <v>0.001964601334187335</v>
       </c>
       <c r="E91" t="n">
-        <v>6.718594570947846e-09</v>
+        <v>5.038945928210884e-09</v>
       </c>
       <c r="F91" t="n">
-        <v>1.358276108078764e-07</v>
+        <v>1.018707081059073e-07</v>
       </c>
       <c r="G91" t="n">
-        <v>1.064145268963918e-07</v>
+        <v>7.981089517229384e-08</v>
       </c>
       <c r="H91" t="n">
-        <v>3.294171132767407e-14</v>
+        <v>2.470628349575555e-14</v>
       </c>
       <c r="I91" t="n">
-        <v>7.707118001482621e-13</v>
+        <v>5.780338501111965e-13</v>
       </c>
       <c r="J91" t="n">
-        <v>3.831304864289023e-07</v>
+        <v>2.873478648216767e-07</v>
       </c>
       <c r="K91" t="n">
-        <v>6.730514013697207e-05</v>
+        <v>5.047885510272905e-05</v>
       </c>
       <c r="L91" t="n">
-        <v>9.653177923308938e-11</v>
+        <v>7.239883442481702e-11</v>
       </c>
       <c r="M91" t="n">
-        <v>7.00047331475469e-13</v>
+        <v>5.250354986066017e-13</v>
       </c>
       <c r="N91" t="n">
-        <v>1.641872895469025e-08</v>
+        <v>1.231404671601769e-08</v>
       </c>
       <c r="O91" t="n">
-        <v>3.000287428654791e-05</v>
+        <v>2.250215571491093e-05</v>
       </c>
       <c r="P91" t="n">
-        <v>3.206501741978564e-05</v>
+        <v>2.404876306483922e-05</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.94206355682153e-13</v>
+        <v>2.206547667616147e-13</v>
       </c>
     </row>
     <row r="92">
@@ -5645,52 +5645,52 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>8.992072210560206</v>
+        <v>11.67489726687844</v>
       </c>
       <c r="C95" t="n">
-        <v>4506.52556</v>
+        <v>5851.067664000001</v>
       </c>
       <c r="D95" t="n">
-        <v>14856.90140878862</v>
+        <v>19289.52454897407</v>
       </c>
       <c r="E95" t="n">
-        <v>1.320509705599845e-05</v>
+        <v>1.714489696233613e-05</v>
       </c>
       <c r="F95" t="n">
-        <v>4.4989873363039</v>
+        <v>5.84128037746961</v>
       </c>
       <c r="G95" t="n">
-        <v>50.22311081154293</v>
+        <v>65.2074010770523</v>
       </c>
       <c r="H95" t="n">
-        <v>3.123021383565132e-07</v>
+        <v>4.054788814147653e-07</v>
       </c>
       <c r="I95" t="n">
-        <v>9.906784852143356e-05</v>
+        <v>0.0001286251852581993</v>
       </c>
       <c r="J95" t="n">
-        <v>0.006569993131667421</v>
+        <v>0.008530180036391794</v>
       </c>
       <c r="K95" t="n">
-        <v>0.5035188901566584</v>
+        <v>0.6537460083569996</v>
       </c>
       <c r="L95" t="n">
-        <v>4.69076394955121e-06</v>
+        <v>6.090274403031682e-06</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0005994423310455813</v>
+        <v>0.0007782886378688563</v>
       </c>
       <c r="N95" t="n">
-        <v>11.83518252306185</v>
+        <v>15.3662622870434</v>
       </c>
       <c r="O95" t="n">
-        <v>0.09155705903396406</v>
+        <v>0.1188735180555741</v>
       </c>
       <c r="P95" t="n">
-        <v>1.168985646818486</v>
+        <v>1.517757755218361</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.426005863483242e-05</v>
+        <v>1.851461105770627e-05</v>
       </c>
     </row>
     <row r="96">
@@ -5865,52 +5865,52 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.3348853835486196</v>
+        <v>0.3326778856971792</v>
       </c>
       <c r="C99" t="n">
-        <v>412.2680500000001</v>
+        <v>409.550461</v>
       </c>
       <c r="D99" t="n">
-        <v>1286.879447861216</v>
+        <v>1278.396594455928</v>
       </c>
       <c r="E99" t="n">
-        <v>1.126156743894268e-06</v>
+        <v>1.118733342591443e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>0.085032798806554</v>
+        <v>0.08447227950685102</v>
       </c>
       <c r="G99" t="n">
-        <v>1.62173640178268</v>
+        <v>1.6110462379284</v>
       </c>
       <c r="H99" t="n">
-        <v>2.136870856646883e-08</v>
+        <v>2.122785028908245e-08</v>
       </c>
       <c r="I99" t="n">
-        <v>8.535906406997944e-06</v>
+        <v>8.479639409454264e-06</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0005603019834833658</v>
+        <v>0.0005566085842325807</v>
       </c>
       <c r="K99" t="n">
-        <v>0.04294108490255268</v>
+        <v>0.04265802581034495</v>
       </c>
       <c r="L99" t="n">
-        <v>4.000376092202669e-07</v>
+        <v>3.974006408536828e-07</v>
       </c>
       <c r="M99" t="n">
-        <v>5.049582984438938e-05</v>
+        <v>5.016297137589785e-05</v>
       </c>
       <c r="N99" t="n">
-        <v>0.2325462940597364</v>
+        <v>0.231013395134565</v>
       </c>
       <c r="O99" t="n">
-        <v>0.007808166728724445</v>
+        <v>0.007756696846418144</v>
       </c>
       <c r="P99" t="n">
-        <v>0.09969340354694588</v>
+        <v>0.09903624445627235</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.216125949839145e-06</v>
+        <v>1.208109489422439e-06</v>
       </c>
     </row>
     <row r="100">
@@ -6690,52 +6690,52 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.01574783477021752</v>
+        <v>0.01572639879054974</v>
       </c>
       <c r="C114" t="n">
-        <v>2.303112</v>
+        <v>2.299977</v>
       </c>
       <c r="D114" t="n">
-        <v>82.79913534569143</v>
+        <v>82.68642902081069</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0003565873719674282</v>
+        <v>0.0003561019846258149</v>
       </c>
       <c r="F114" t="n">
-        <v>0.00899099673618413</v>
+        <v>0.008978758176023819</v>
       </c>
       <c r="G114" t="n">
-        <v>0.048982371376741</v>
+        <v>0.04891569648890833</v>
       </c>
       <c r="H114" t="n">
-        <v>1.654803211212854e-09</v>
+        <v>1.652550690246808e-09</v>
       </c>
       <c r="I114" t="n">
-        <v>5.184815840294558e-08</v>
+        <v>5.177758260090329e-08</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2556572505663323</v>
+        <v>0.2553092494788796</v>
       </c>
       <c r="K114" t="n">
-        <v>121.6474102081662</v>
+        <v>121.4818235449893</v>
       </c>
       <c r="L114" t="n">
-        <v>3.11349219319724e-05</v>
+        <v>3.109254102289949e-05</v>
       </c>
       <c r="M114" t="n">
-        <v>1.426207172916202e-07</v>
+        <v>1.424265817269107e-07</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02577302322610961</v>
+        <v>0.02573794094274091</v>
       </c>
       <c r="O114" t="n">
-        <v>4.910951095912534</v>
+        <v>4.904266300867532</v>
       </c>
       <c r="P114" t="n">
-        <v>48.7445996135557</v>
+        <v>48.67824838105442</v>
       </c>
       <c r="Q114" t="n">
-        <v>6.216159215277746e-07</v>
+        <v>6.207697768704634e-07</v>
       </c>
     </row>
   </sheetData>
@@ -6961,52 +6961,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.04705871905982</v>
+        <v>45.04694806613423</v>
       </c>
       <c r="C4" t="n">
-        <v>5920.895616</v>
+        <v>5920.881072</v>
       </c>
       <c r="D4" t="n">
-        <v>151749.8564228977</v>
+        <v>151749.4836668056</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7862920266164717</v>
+        <v>0.7862900951804227</v>
       </c>
       <c r="F4" t="n">
-        <v>12.62481082907934</v>
+        <v>12.62477981768164</v>
       </c>
       <c r="G4" t="n">
-        <v>154.5662260035979</v>
+        <v>154.5658463294174</v>
       </c>
       <c r="H4" t="n">
-        <v>5.984388910830049e-06</v>
+        <v>5.984374210866063e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>7.145610263672956e-05</v>
+        <v>7.145592711302097e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>646.4120508754759</v>
+        <v>646.4104630385206</v>
       </c>
       <c r="K4" t="n">
-        <v>23604.53949164423</v>
+        <v>23604.48150980422</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09416462215846819</v>
+        <v>0.09416439085388972</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0003315904943555273</v>
+        <v>0.0003315896798415647</v>
       </c>
       <c r="N4" t="n">
-        <v>26.13092769781387</v>
+        <v>26.13086351019141</v>
       </c>
       <c r="O4" t="n">
-        <v>3200.688254517289</v>
+        <v>3200.680392394228</v>
       </c>
       <c r="P4" t="n">
-        <v>107621.5121443639</v>
+        <v>107621.2477844809</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0005998605214390001</v>
+        <v>0.0005998590479505298</v>
       </c>
     </row>
     <row r="5">
@@ -7016,52 +7016,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.307470254867939e-07</v>
+        <v>1.258620139018876e-07</v>
       </c>
       <c r="C5" t="n">
-        <v>1.1e-05</v>
+        <v>5.999999999999999e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002097839989686341</v>
+        <v>0.001144276358010731</v>
       </c>
       <c r="E5" t="n">
-        <v>1.765175836558566e-08</v>
+        <v>9.628231835773999e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220526791989974e-08</v>
+        <v>1.211196431994531e-08</v>
       </c>
       <c r="G5" t="n">
-        <v>2.615899213066997e-07</v>
+        <v>1.426854116218362e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>1.225647278715575e-13</v>
+        <v>6.685348792994045e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.635696540370202e-12</v>
+        <v>1.437652658383747e-12</v>
       </c>
       <c r="J5" t="n">
-        <v>1.656715340150515e-06</v>
+        <v>9.036629128093718e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0004311592743203602</v>
+        <v>0.0002351777859929238</v>
       </c>
       <c r="L5" t="n">
-        <v>5.254129810928955e-09</v>
+        <v>2.865888987779431e-09</v>
       </c>
       <c r="M5" t="n">
-        <v>1.839638491939016e-12</v>
+        <v>1.003439177421281e-12</v>
       </c>
       <c r="N5" t="n">
-        <v>7.382919905533106e-08</v>
+        <v>4.027047221199876e-08</v>
       </c>
       <c r="O5" t="n">
-        <v>9.020868218033941e-06</v>
+        <v>4.920473573473058e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0001412965656907175</v>
+        <v>7.707085401311865e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.042861902861422e-12</v>
+        <v>5.688337651971394e-13</v>
       </c>
     </row>
     <row r="6">
@@ -7071,52 +7071,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.577394863436326e-08</v>
+        <v>1.341523073788623e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>8e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0002026928889889952</v>
+        <v>7.600983337087322e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>1.271096966318881e-09</v>
+        <v>4.766613623695806e-10</v>
       </c>
       <c r="F6" t="n">
-        <v>1.043862038050073e-08</v>
+        <v>3.914482642687773e-09</v>
       </c>
       <c r="G6" t="n">
-        <v>1.023515632501124e-07</v>
+        <v>3.838183621879216e-08</v>
       </c>
       <c r="H6" t="n">
-        <v>2.038800940234473e-14</v>
+        <v>7.645503525879276e-15</v>
       </c>
       <c r="I6" t="n">
-        <v>1.787602457309402e-13</v>
+        <v>6.703509214910258e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>4.128833684111461e-07</v>
+        <v>1.548312631541798e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001080907929933121</v>
+        <v>4.053404737249203e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>1.614768123189253e-10</v>
+        <v>6.055380461959701e-11</v>
       </c>
       <c r="M6" t="n">
-        <v>6.854471433798963e-13</v>
+        <v>2.570426787674612e-13</v>
       </c>
       <c r="N6" t="n">
-        <v>2.909639248785893e-08</v>
+        <v>1.09111471829471e-08</v>
       </c>
       <c r="O6" t="n">
-        <v>3.789068055526203e-06</v>
+        <v>1.420900520822326e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>9.36601807751651e-05</v>
+        <v>3.512256779068692e-05</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.687316353818844e-12</v>
+        <v>6.327436326820664e-13</v>
       </c>
     </row>
     <row r="7">
@@ -7126,52 +7126,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.21741354135376e-07</v>
+        <v>4.263369285499722e-07</v>
       </c>
       <c r="C7" t="n">
-        <v>3.5e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004148503092836602</v>
+        <v>0.002844687835087956</v>
       </c>
       <c r="E7" t="n">
-        <v>3.368107917416743e-08</v>
+        <v>2.309559714800053e-08</v>
       </c>
       <c r="F7" t="n">
-        <v>6.370118048336932e-08</v>
+        <v>4.36808094743104e-08</v>
       </c>
       <c r="G7" t="n">
-        <v>6.166013888786422e-07</v>
+        <v>4.228123809453547e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>4.346274091743472e-13</v>
+        <v>2.980302234338381e-13</v>
       </c>
       <c r="I7" t="n">
-        <v>5.749505194533756e-12</v>
+        <v>3.942517847680291e-12</v>
       </c>
       <c r="J7" t="n">
-        <v>9.725667244612817e-06</v>
+        <v>6.669028967734504e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0004536497431960965</v>
+        <v>0.0003110741096201806</v>
       </c>
       <c r="L7" t="n">
-        <v>1.277317463281116e-08</v>
+        <v>8.758748319641943e-09</v>
       </c>
       <c r="M7" t="n">
-        <v>4.62965332223976e-12</v>
+        <v>3.174619420964408e-12</v>
       </c>
       <c r="N7" t="n">
-        <v>1.744183281900543e-07</v>
+        <v>1.19601139330323e-07</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001552276077361584</v>
+        <v>0.0001064417881619372</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0005769060518283361</v>
+        <v>0.0003955927212537163</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.300256677214708e-12</v>
+        <v>3.634461721518658e-12</v>
       </c>
     </row>
     <row r="8">
@@ -7236,52 +7236,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.873560648754753e-07</v>
+        <v>4.195400463396253e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>2.8e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005339956337383409</v>
+        <v>0.003814254526702436</v>
       </c>
       <c r="E9" t="n">
-        <v>4.493174856694536e-08</v>
+        <v>3.209410611924668e-08</v>
       </c>
       <c r="F9" t="n">
-        <v>5.652250015974488e-08</v>
+        <v>4.037321439981778e-08</v>
       </c>
       <c r="G9" t="n">
-        <v>6.658652542352341e-07</v>
+        <v>4.75618038739453e-07</v>
       </c>
       <c r="H9" t="n">
-        <v>3.119829436730488e-13</v>
+        <v>2.228449597664634e-13</v>
       </c>
       <c r="I9" t="n">
-        <v>6.709045739123393e-12</v>
+        <v>4.792175527945282e-12</v>
       </c>
       <c r="J9" t="n">
-        <v>4.217093593110398e-06</v>
+        <v>3.012209709364571e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001097496334633643</v>
+        <v>0.0007839259533097454</v>
       </c>
       <c r="L9" t="n">
-        <v>1.337414860963733e-08</v>
+        <v>9.552963292598096e-09</v>
       </c>
       <c r="M9" t="n">
-        <v>4.682716161299309e-12</v>
+        <v>3.344797258070936e-12</v>
       </c>
       <c r="N9" t="n">
-        <v>1.879288703226608e-07</v>
+        <v>1.342349073733291e-07</v>
       </c>
       <c r="O9" t="n">
-        <v>2.296221000954095e-05</v>
+        <v>1.640157857824354e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0003596639853945536</v>
+        <v>0.0002569028467103955</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.654557570919983e-12</v>
+        <v>1.896112550657131e-12</v>
       </c>
     </row>
     <row r="10">
@@ -7291,52 +7291,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.264508637130829e-07</v>
+        <v>1.423405429053664e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>3.5e-05</v>
+        <v>2.2e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001582460648118434</v>
+        <v>0.0009946895502458727</v>
       </c>
       <c r="E10" t="n">
-        <v>1.276840934991635e-08</v>
+        <v>8.025857305661703e-09</v>
       </c>
       <c r="F10" t="n">
-        <v>5.525176549285724e-08</v>
+        <v>3.472968116693883e-08</v>
       </c>
       <c r="G10" t="n">
-        <v>5.396531590603687e-07</v>
+        <v>3.392105571236603e-07</v>
       </c>
       <c r="H10" t="n">
-        <v>2.61473302691238e-13</v>
+        <v>1.64354647405921e-13</v>
       </c>
       <c r="I10" t="n">
-        <v>3.701772468431491e-12</v>
+        <v>2.326828408728366e-12</v>
       </c>
       <c r="J10" t="n">
-        <v>1.748972717192986e-06</v>
+        <v>1.099354279378448e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00123883598355644</v>
+        <v>0.0007786969039497621</v>
       </c>
       <c r="L10" t="n">
-        <v>1.936254584426726e-09</v>
+        <v>1.217074310211084e-09</v>
       </c>
       <c r="M10" t="n">
-        <v>5.946254449220818e-12</v>
+        <v>3.737645653795943e-12</v>
       </c>
       <c r="N10" t="n">
-        <v>1.758585287623802e-07</v>
+        <v>1.10539646650639e-07</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57842575738736e-05</v>
+        <v>9.921533332149122e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0003576368796461473</v>
+        <v>0.0002248003243490069</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.38182001510626e-12</v>
+        <v>2.125715438066792e-12</v>
       </c>
     </row>
     <row r="11">
@@ -7346,52 +7346,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.713596884065507e-08</v>
+        <v>4.795426345761077e-08</v>
       </c>
       <c r="C11" t="n">
-        <v>7.000000000000001e-06</v>
+        <v>5.000000000000001e-06</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0003512639521933168</v>
+        <v>0.0002509028229952263</v>
       </c>
       <c r="E11" t="n">
-        <v>2.853030209032493e-09</v>
+        <v>2.037878720737495e-09</v>
       </c>
       <c r="F11" t="n">
-        <v>1.633506324440924e-08</v>
+        <v>1.166790231743517e-08</v>
       </c>
       <c r="G11" t="n">
-        <v>1.669976973719003e-07</v>
+        <v>1.192840695513574e-07</v>
       </c>
       <c r="H11" t="n">
-        <v>2.491125944233926e-14</v>
+        <v>1.779375674452804e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>4.080273328549889e-13</v>
+        <v>2.914480948964206e-13</v>
       </c>
       <c r="J11" t="n">
-        <v>3.813695391361729e-07</v>
+        <v>2.724068136686949e-07</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0008917209979087204</v>
+        <v>0.0006369435699348004</v>
       </c>
       <c r="L11" t="n">
-        <v>4.607034377926156e-10</v>
+        <v>3.290738841375826e-10</v>
       </c>
       <c r="M11" t="n">
-        <v>1.294613409224351e-12</v>
+        <v>9.247238637316797e-13</v>
       </c>
       <c r="N11" t="n">
-        <v>4.895880215656469e-08</v>
+        <v>3.497057296897478e-08</v>
       </c>
       <c r="O11" t="n">
-        <v>2.776160428846742e-06</v>
+        <v>1.98297173489053e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>7.198970805108939e-05</v>
+        <v>5.142122003649243e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.418425554330654e-13</v>
+        <v>4.584589681664753e-13</v>
       </c>
     </row>
     <row r="12">
@@ -7401,52 +7401,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07625170589019131</v>
+        <v>0.1042147330129903</v>
       </c>
       <c r="C12" t="n">
-        <v>9.229007999999999</v>
+        <v>12.61347</v>
       </c>
       <c r="D12" t="n">
-        <v>456.8260680012647</v>
+        <v>624.3533328773703</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004178354869275049</v>
+        <v>0.005710641251254173</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01289784488384445</v>
+        <v>0.01762774281992447</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1101739945645929</v>
+        <v>0.1505770040746151</v>
       </c>
       <c r="H12" t="n">
-        <v>4.693848642890069e-08</v>
+        <v>6.415176911931879e-08</v>
       </c>
       <c r="I12" t="n">
-        <v>5.02315717884726e-07</v>
+        <v>6.865249480840689e-07</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4269090245603616</v>
+        <v>0.5834651106620977</v>
       </c>
       <c r="K12" t="n">
-        <v>106.3692671129905</v>
+        <v>145.3770068951822</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000405786913733729</v>
+        <v>0.0005545970989268813</v>
       </c>
       <c r="M12" t="n">
-        <v>1.111823162452983e-06</v>
+        <v>1.519550975024166e-06</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1915869147237583</v>
+        <v>0.2618456719574502</v>
       </c>
       <c r="O12" t="n">
-        <v>4.883343507681827</v>
+        <v>6.674163337364049</v>
       </c>
       <c r="P12" t="n">
-        <v>96.8622214104161</v>
+        <v>132.383537200709</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.617845563223042e-07</v>
+        <v>7.678022001535481e-07</v>
       </c>
     </row>
     <row r="13">
@@ -7456,52 +7456,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1010778484559591</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>12.233802</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>605.5601711869803</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005538749793742389</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01709714419314254</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1460446057747816</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>6.222078788433798e-08</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>6.658604081922562e-07</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5659026927362726</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>141.001129562943</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005379036139972489</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.473812183114765e-06</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.253964064233268</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>6.473269670040915</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>128.3987659361864</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.446911985237114e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7566,52 +7566,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04856009804248039</v>
+        <v>0.04856012687139592</v>
       </c>
       <c r="C15" t="n">
-        <v>5.053269999999993</v>
+        <v>5.053272999999991</v>
       </c>
       <c r="D15" t="n">
-        <v>505.1341386527057</v>
+        <v>505.1344385382084</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003397420013233942</v>
+        <v>0.003397422030197221</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008225002916203924</v>
+        <v>0.008225007799182416</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07409983744949987</v>
+        <v>0.07409988144071984</v>
       </c>
       <c r="H15" t="n">
-        <v>2.328780910374051e-08</v>
+        <v>2.328782292913026e-08</v>
       </c>
       <c r="I15" t="n">
-        <v>3.76019907616178e-07</v>
+        <v>3.760201308497914e-07</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4190735629571019</v>
+        <v>0.4190738117505936</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6497522875767</v>
+        <v>121.6498245079918</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0009814862449113889</v>
+        <v>0.0009814868275952219</v>
       </c>
       <c r="M15" t="n">
-        <v>4.518371328651864e-07</v>
+        <v>4.5183740110959e-07</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02424467545452662</v>
+        <v>0.02424468984798399</v>
       </c>
       <c r="O15" t="n">
-        <v>6.427782310166042</v>
+        <v>6.427786126179616</v>
       </c>
       <c r="P15" t="n">
-        <v>59.54104808730122</v>
+        <v>59.54108343533212</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.035488054896436e-07</v>
+        <v>4.035490450664752e-07</v>
       </c>
     </row>
     <row r="16">
@@ -7621,52 +7621,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.198865617469956</v>
+        <v>1.198865607796932</v>
       </c>
       <c r="C16" t="n">
-        <v>123.939059</v>
+        <v>123.939058</v>
       </c>
       <c r="D16" t="n">
-        <v>12553.2622500342</v>
+        <v>12553.26214874844</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08451283174615519</v>
+        <v>0.08451283106426498</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2027533643878683</v>
+        <v>0.2027533627519566</v>
       </c>
       <c r="G16" t="n">
-        <v>1.825344626199571</v>
+        <v>1.825344611471812</v>
       </c>
       <c r="H16" t="n">
-        <v>5.357164310668474e-07</v>
+        <v>5.357164267444294e-07</v>
       </c>
       <c r="I16" t="n">
-        <v>9.2740448456054e-06</v>
+        <v>9.274044770777942e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>10.31976680726677</v>
+        <v>10.31976672400193</v>
       </c>
       <c r="K16" t="n">
-        <v>2987.72225619359</v>
+        <v>2987.722232087208</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02447827980509327</v>
+        <v>0.02447827960759073</v>
       </c>
       <c r="M16" t="n">
-        <v>1.112707660198511e-05</v>
+        <v>1.112707651220651e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5960667321059633</v>
+        <v>0.5960667272966099</v>
       </c>
       <c r="O16" t="n">
-        <v>159.3662559881838</v>
+        <v>159.3662547023401</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.525354173207</v>
+        <v>1460.525342388985</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.935481765860406e-06</v>
+        <v>9.935481685696156e-06</v>
       </c>
     </row>
     <row r="17">
@@ -7676,52 +7676,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.559737517892692e-08</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1e-06</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0003374418764665639</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.201769615937332e-10</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.686793388363699e-09</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.323985982920337e-08</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.558839203876484e-15</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.126184597908047e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>9.501996577123182e-08</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>2.177941208224938e-05</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.872053213494345e-10</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.384687136574769e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>8.955993767240631e-09</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.197306911746902e-06</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.260419615421541e-05</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.496187754372581e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7841,52 +7841,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6876434537782832</v>
+        <v>0.6876434649761991</v>
       </c>
       <c r="C20" t="n">
-        <v>61.40816399999999</v>
+        <v>61.40816499999999</v>
       </c>
       <c r="D20" t="n">
-        <v>6572.177051581431</v>
+        <v>6572.177158605915</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05200324586510163</v>
+        <v>0.05200324671194743</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0987582441193771</v>
+        <v>0.09875824572760374</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8996371089935504</v>
+        <v>0.8996371236436728</v>
       </c>
       <c r="H20" t="n">
-        <v>3.406160131590891e-07</v>
+        <v>3.406160187058437e-07</v>
       </c>
       <c r="I20" t="n">
-        <v>6.766912275421767e-06</v>
+        <v>6.766912385617412e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>8.029529425429496</v>
+        <v>8.029529556186207</v>
       </c>
       <c r="K20" t="n">
-        <v>712.3437817130152</v>
+        <v>712.3437933131631</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01646507504338086</v>
+        <v>0.01646507531150605</v>
       </c>
       <c r="M20" t="n">
-        <v>7.876400557389426e-06</v>
+        <v>7.876400685652511e-06</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3210180548793209</v>
+        <v>0.3210180601069329</v>
       </c>
       <c r="O20" t="n">
-        <v>74.08287997747001</v>
+        <v>74.08288118387118</v>
       </c>
       <c r="P20" t="n">
-        <v>775.4449102657732</v>
+        <v>775.4449228934901</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.449929781447516e-06</v>
+        <v>6.449929886481266e-06</v>
       </c>
     </row>
     <row r="21">
@@ -7896,52 +7896,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.25642455787745</v>
+        <v>17.25642472530814</v>
       </c>
       <c r="C21" t="n">
-        <v>2267.453755</v>
+        <v>2267.453777</v>
       </c>
       <c r="D21" t="n">
-        <v>190118.4184601646</v>
+        <v>190118.4203047911</v>
       </c>
       <c r="E21" t="n">
-        <v>1.293971830615198</v>
+        <v>1.293971843169977</v>
       </c>
       <c r="F21" t="n">
-        <v>3.048937417921661</v>
+        <v>3.048937447504017</v>
       </c>
       <c r="G21" t="n">
-        <v>27.71645361059146</v>
+        <v>27.71645387951072</v>
       </c>
       <c r="H21" t="n">
-        <v>9.484635075102627e-06</v>
+        <v>9.484635167127425e-06</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001380505223391627</v>
+        <v>0.0001380505236785998</v>
       </c>
       <c r="J21" t="n">
-        <v>197.4295958270142</v>
+        <v>197.4295977425775</v>
       </c>
       <c r="K21" t="n">
-        <v>19742.94466023635</v>
+        <v>19742.94485179253</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3502000244210005</v>
+        <v>0.3502000278188209</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0002573916035458273</v>
+        <v>0.0002573916060431728</v>
       </c>
       <c r="N21" t="n">
-        <v>11.73324852322652</v>
+        <v>11.73324863706852</v>
       </c>
       <c r="O21" t="n">
-        <v>1438.819136622974</v>
+        <v>1438.819150583136</v>
       </c>
       <c r="P21" t="n">
-        <v>26611.34007213504</v>
+        <v>26611.34033033192</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0001831907895018391</v>
+        <v>0.0001831907912792502</v>
       </c>
     </row>
     <row r="22">
@@ -8006,52 +8006,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.41024367168978</v>
+        <v>13.41024334648077</v>
       </c>
       <c r="C23" t="n">
-        <v>1773.13809</v>
+        <v>1773.138047</v>
       </c>
       <c r="D23" t="n">
-        <v>147478.691111975</v>
+        <v>147478.6875355002</v>
       </c>
       <c r="E23" t="n">
-        <v>1.01695796860167</v>
+        <v>1.016957943939635</v>
       </c>
       <c r="F23" t="n">
-        <v>2.384954306937875</v>
+        <v>2.384954249100848</v>
       </c>
       <c r="G23" t="n">
-        <v>21.6241633963939</v>
+        <v>21.62416287199085</v>
       </c>
       <c r="H23" t="n">
-        <v>7.42525780316744e-06</v>
+        <v>7.425257623099071e-06</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001080853109521563</v>
+        <v>0.0001080853083310021</v>
       </c>
       <c r="J23" t="n">
-        <v>154.8931051137724</v>
+        <v>154.8931013574922</v>
       </c>
       <c r="K23" t="n">
-        <v>15479.47892225464</v>
+        <v>15479.47854686504</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2766979199215987</v>
+        <v>0.2766979132114555</v>
       </c>
       <c r="M23" t="n">
-        <v>0.000201372241212386</v>
+        <v>0.00020137223632895</v>
       </c>
       <c r="N23" t="n">
-        <v>9.169902970594338</v>
+        <v>9.169902748216945</v>
       </c>
       <c r="O23" t="n">
-        <v>1128.012876744739</v>
+        <v>1128.012849389536</v>
       </c>
       <c r="P23" t="n">
-        <v>20828.4801853177</v>
+        <v>20828.4796802106</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0001431188206980838</v>
+        <v>0.0001431188172273393</v>
       </c>
     </row>
     <row r="24">
@@ -8171,52 +8171,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.06441639960137922</v>
+        <v>0.06441665574560157</v>
       </c>
       <c r="C26" t="n">
-        <v>8.55048599999999</v>
+        <v>8.550520000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>705.7974600152762</v>
+        <v>705.8002665357064</v>
       </c>
       <c r="E26" t="n">
-        <v>0.004845538105743171</v>
+        <v>0.004845557373454463</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01148777962266133</v>
+        <v>0.0114878253024633</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1042693582922569</v>
+        <v>0.1042697729070733</v>
       </c>
       <c r="H26" t="n">
-        <v>4.350365709212587e-08</v>
+        <v>4.350383007929193e-08</v>
       </c>
       <c r="I26" t="n">
-        <v>5.185265182000389e-07</v>
+        <v>5.185285800596367e-07</v>
       </c>
       <c r="J26" t="n">
-        <v>0.757745255473064</v>
+        <v>0.7577482685577817</v>
       </c>
       <c r="K26" t="n">
-        <v>75.66381901805539</v>
+        <v>75.66411988631567</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001314966616857401</v>
+        <v>0.001314971845667201</v>
       </c>
       <c r="M26" t="n">
-        <v>9.741326341643756e-07</v>
+        <v>9.74136507688006e-07</v>
       </c>
       <c r="N26" t="n">
-        <v>0.04390194331664083</v>
+        <v>0.04390211788754513</v>
       </c>
       <c r="O26" t="n">
-        <v>5.411311959629425</v>
+        <v>5.411333477073777</v>
       </c>
       <c r="P26" t="n">
-        <v>98.54656350469433</v>
+        <v>98.54695536349163</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.951388104984833e-07</v>
+        <v>6.951415746360498e-07</v>
       </c>
     </row>
     <row r="27">
@@ -8226,52 +8226,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.220479279397166e-06</v>
+        <v>4.382533170871217e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>0.000776</v>
+        <v>0.000471</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07675909967351069</v>
+        <v>0.04658960817812311</v>
       </c>
       <c r="E27" t="n">
-        <v>5.679978461248002e-07</v>
+        <v>3.447512700061609e-07</v>
       </c>
       <c r="F27" t="n">
-        <v>1.167646551346725e-06</v>
+        <v>7.087133062942106e-07</v>
       </c>
       <c r="G27" t="n">
-        <v>1.041360047747919e-05</v>
+        <v>6.320626063006054e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>3.615801356455782e-12</v>
+        <v>2.194642318158084e-12</v>
       </c>
       <c r="I27" t="n">
-        <v>6.491521318925301e-11</v>
+        <v>3.940085748986877e-11</v>
       </c>
       <c r="J27" t="n">
-        <v>8.130560290905484e-05</v>
+        <v>4.93491481574289e-05</v>
       </c>
       <c r="K27" t="n">
-        <v>0.007820132700803612</v>
+        <v>0.00474649806968879</v>
       </c>
       <c r="L27" t="n">
-        <v>1.684130027829799e-07</v>
+        <v>1.022197478231746e-07</v>
       </c>
       <c r="M27" t="n">
-        <v>9.140314649574053e-11</v>
+        <v>5.547794072099715e-11</v>
       </c>
       <c r="N27" t="n">
-        <v>4.050864181594486e-06</v>
+        <v>2.45870751228222e-06</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0006451691333688811</v>
+        <v>0.0003915910590421945</v>
       </c>
       <c r="P27" t="n">
-        <v>0.009355798360382247</v>
+        <v>0.005678583798634069</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.027716671005818e-11</v>
+        <v>4.265534216551211e-11</v>
       </c>
     </row>
     <row r="28">
@@ -8281,52 +8281,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.15371870541164e-07</v>
+        <v>6.592678316637943e-08</v>
       </c>
       <c r="C28" t="n">
-        <v>7.000000000000001e-06</v>
+        <v>4e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0004696269820159992</v>
+        <v>0.0002683582754377138</v>
       </c>
       <c r="E28" t="n">
-        <v>3.482833811234597e-09</v>
+        <v>1.990190749276912e-09</v>
       </c>
       <c r="F28" t="n">
-        <v>1.674001447145516e-08</v>
+        <v>9.565722555117235e-09</v>
       </c>
       <c r="G28" t="n">
-        <v>1.7808542002342e-07</v>
+        <v>1.0176309715624e-07</v>
       </c>
       <c r="H28" t="n">
-        <v>5.767117178926722e-14</v>
+        <v>3.295495530815269e-14</v>
       </c>
       <c r="I28" t="n">
-        <v>9.031585927805299e-13</v>
+        <v>5.16090624446017e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>4.914061763025505e-07</v>
+        <v>2.808035293157431e-07</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0001170274326322953</v>
+        <v>6.687281864702584e-05</v>
       </c>
       <c r="L28" t="n">
-        <v>1.428402531014188e-09</v>
+        <v>8.162300177223931e-10</v>
       </c>
       <c r="M28" t="n">
-        <v>1.329541189107936e-12</v>
+        <v>7.59737822347392e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>5.644980147704121e-08</v>
+        <v>3.225702941545211e-08</v>
       </c>
       <c r="O28" t="n">
-        <v>3.363949349593044e-06</v>
+        <v>1.922256771196025e-06</v>
       </c>
       <c r="P28" t="n">
-        <v>9.581764420627812e-05</v>
+        <v>5.475293954644463e-05</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.872708278514317e-13</v>
+        <v>5.641547587722466e-13</v>
       </c>
     </row>
     <row r="29">
@@ -8336,52 +8336,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.94450873747846e-08</v>
+        <v>3.296339158318973e-08</v>
       </c>
       <c r="C29" t="n">
-        <v>3e-06</v>
+        <v>2e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0002012687065782855</v>
+        <v>0.000134179137718857</v>
       </c>
       <c r="E29" t="n">
-        <v>1.492643061957686e-09</v>
+        <v>9.950953746384567e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>7.174291916337922e-09</v>
+        <v>4.782861277558614e-09</v>
       </c>
       <c r="G29" t="n">
-        <v>7.632232286717997e-08</v>
+        <v>5.088154857811997e-08</v>
       </c>
       <c r="H29" t="n">
-        <v>2.471621648111667e-14</v>
+        <v>1.647747765407777e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>3.870679683347617e-13</v>
+        <v>2.580453122231744e-13</v>
       </c>
       <c r="J29" t="n">
-        <v>2.106026469868073e-07</v>
+        <v>1.404017646578715e-07</v>
       </c>
       <c r="K29" t="n">
-        <v>5.015461398526941e-05</v>
+        <v>3.343640932351293e-05</v>
       </c>
       <c r="L29" t="n">
-        <v>6.121725132917965e-10</v>
+        <v>4.081150088611975e-10</v>
       </c>
       <c r="M29" t="n">
-        <v>5.698033667605447e-13</v>
+        <v>3.798689111736964e-13</v>
       </c>
       <c r="N29" t="n">
-        <v>2.419277206158908e-08</v>
+        <v>1.612851470772605e-08</v>
       </c>
       <c r="O29" t="n">
-        <v>1.441692578397015e-06</v>
+        <v>9.611283855980099e-07</v>
       </c>
       <c r="P29" t="n">
-        <v>4.106470465983347e-05</v>
+        <v>2.737646977322231e-05</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.231160690791852e-13</v>
+        <v>2.820773793861234e-13</v>
       </c>
     </row>
     <row r="30">
@@ -8391,52 +8391,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.3475857576048e-06</v>
+        <v>2.662852307185636e-06</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00044</v>
+        <v>0.00035</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01127699948731452</v>
+        <v>0.008970340501272914</v>
       </c>
       <c r="E30" t="n">
-        <v>5.843178366062329e-08</v>
+        <v>4.647982791185943e-08</v>
       </c>
       <c r="F30" t="n">
-        <v>9.381885993368786e-07</v>
+        <v>7.462863858361533e-07</v>
       </c>
       <c r="G30" t="n">
-        <v>1.148629259022946e-05</v>
+        <v>9.136823651318888e-06</v>
       </c>
       <c r="H30" t="n">
-        <v>4.447183824098595e-13</v>
+        <v>3.537532587351155e-13</v>
       </c>
       <c r="I30" t="n">
-        <v>5.310123197441722e-12</v>
+        <v>4.223961634328643e-12</v>
       </c>
       <c r="J30" t="n">
-        <v>4.80368715868963e-05</v>
+        <v>3.821114785321296e-05</v>
       </c>
       <c r="K30" t="n">
-        <v>0.00175412607313283</v>
+        <v>0.001395327558173842</v>
       </c>
       <c r="L30" t="n">
-        <v>6.997663265294307e-09</v>
+        <v>5.566323051938653e-09</v>
       </c>
       <c r="M30" t="n">
-        <v>2.464151151764402e-11</v>
+        <v>1.960120234358047e-11</v>
       </c>
       <c r="N30" t="n">
-        <v>1.941869766453606e-06</v>
+        <v>1.544669132406278e-06</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0002378530079439261</v>
+        <v>0.0001892012563190321</v>
       </c>
       <c r="P30" t="n">
-        <v>0.007997686231042</v>
+        <v>0.00636179586560159</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.457748397386508e-11</v>
+        <v>3.545936225193813e-11</v>
       </c>
     </row>
     <row r="31">
@@ -8446,52 +8446,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.794598131489843e-07</v>
+        <v>1.380460101146033e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>1.3e-05</v>
+        <v>1e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001115055868676497</v>
+        <v>0.0008577352835973053</v>
       </c>
       <c r="E31" t="n">
-        <v>8.835767966797271e-09</v>
+        <v>6.796744589844054e-09</v>
       </c>
       <c r="F31" t="n">
-        <v>1.750236737564212e-08</v>
+        <v>1.346335951972471e-08</v>
       </c>
       <c r="G31" t="n">
-        <v>1.920119132326659e-07</v>
+        <v>1.477014717174353e-07</v>
       </c>
       <c r="H31" t="n">
-        <v>1.153410236338466e-13</v>
+        <v>8.872386433372812e-14</v>
       </c>
       <c r="I31" t="n">
-        <v>2.133542732654678e-12</v>
+        <v>1.641186717426675e-12</v>
       </c>
       <c r="J31" t="n">
-        <v>8.556151745502235e-07</v>
+        <v>6.581655188847873e-07</v>
       </c>
       <c r="K31" t="n">
-        <v>0.000260639190780209</v>
+        <v>0.0002004916852155453</v>
       </c>
       <c r="L31" t="n">
-        <v>3.443389534185195e-09</v>
+        <v>2.648761180142458e-09</v>
       </c>
       <c r="M31" t="n">
-        <v>1.578794188705579e-12</v>
+        <v>1.21445706823506e-12</v>
       </c>
       <c r="N31" t="n">
-        <v>6.864616776974956e-08</v>
+        <v>5.280474443826889e-08</v>
       </c>
       <c r="O31" t="n">
-        <v>6.261930227408695e-06</v>
+        <v>4.816869405698996e-06</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0001409909480058137</v>
+        <v>0.0001084545753890874</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.282508800121654e-12</v>
+        <v>9.865452308628104e-13</v>
       </c>
     </row>
     <row r="32">
@@ -8501,52 +8501,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.03265979380234709</v>
+        <v>0.03268871523490006</v>
       </c>
       <c r="C32" t="n">
-        <v>3.559424999999997</v>
+        <v>3.562576999999993</v>
       </c>
       <c r="D32" t="n">
-        <v>237.4848751431568</v>
+        <v>237.6951766178192</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002250940997822759</v>
+        <v>0.002252934287757265</v>
       </c>
       <c r="F32" t="n">
-        <v>0.006321638593405129</v>
+        <v>0.006327236633775804</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06266020195504769</v>
+        <v>0.06271568983765853</v>
       </c>
       <c r="H32" t="n">
-        <v>2.499788929265151e-08</v>
+        <v>2.502002583073009e-08</v>
       </c>
       <c r="I32" t="n">
-        <v>2.91310023829364e-07</v>
+        <v>2.915679894263661e-07</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1927396072207625</v>
+        <v>0.1929102851369875</v>
       </c>
       <c r="K32" t="n">
-        <v>71.99277103217443</v>
+        <v>72.0565232433583</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0003583334590055425</v>
+        <v>0.0003586507762865034</v>
       </c>
       <c r="M32" t="n">
-        <v>5.207827339520801e-07</v>
+        <v>5.212439059608779e-07</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0223563603405555</v>
+        <v>0.02237615770889262</v>
       </c>
       <c r="O32" t="n">
-        <v>2.299442346794022</v>
+        <v>2.301478586433033</v>
       </c>
       <c r="P32" t="n">
-        <v>39.03063401977347</v>
+        <v>39.06519706252059</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.848361607486798e-07</v>
+        <v>2.850883935050038e-07</v>
       </c>
     </row>
     <row r="33">
@@ -8666,52 +8666,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.6645021090908151</v>
+        <v>0.6645209568992154</v>
       </c>
       <c r="C35" t="n">
-        <v>40.474118</v>
+        <v>40.475266</v>
       </c>
       <c r="D35" t="n">
-        <v>5814.825547875538</v>
+        <v>5814.990478454853</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05015141234101116</v>
+        <v>0.05015283482590304</v>
       </c>
       <c r="F35" t="n">
-        <v>0.06982185749365376</v>
+        <v>0.06982383790722084</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7021959634600978</v>
+        <v>0.7022158804096421</v>
       </c>
       <c r="H35" t="n">
-        <v>4.690440271326864e-07</v>
+        <v>4.690573310061185e-07</v>
       </c>
       <c r="I35" t="n">
-        <v>8.10307916974989e-06</v>
+        <v>8.103309003909262e-06</v>
       </c>
       <c r="J35" t="n">
-        <v>3.477644874839158</v>
+        <v>3.477743514081063</v>
       </c>
       <c r="K35" t="n">
-        <v>516.6873635418171</v>
+        <v>516.7020187615639</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01234134356379964</v>
+        <v>0.01234169361126482</v>
       </c>
       <c r="M35" t="n">
-        <v>5.279586787371532e-06</v>
+        <v>5.279736536542889e-06</v>
       </c>
       <c r="N35" t="n">
-        <v>0.245266602103839</v>
+        <v>0.2452735587979717</v>
       </c>
       <c r="O35" t="n">
-        <v>32.5801532849996</v>
+        <v>32.5810773821219</v>
       </c>
       <c r="P35" t="n">
-        <v>482.6453822136316</v>
+        <v>482.6590718732501</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.908172509137634e-06</v>
+        <v>2.908254995976272e-06</v>
       </c>
     </row>
     <row r="36">
@@ -8721,52 +8721,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.8081443599025593</v>
+        <v>0.8081491375264657</v>
       </c>
       <c r="C36" t="n">
-        <v>49.223215</v>
+        <v>49.22350600000001</v>
       </c>
       <c r="D36" t="n">
-        <v>7071.788646032273</v>
+        <v>7071.83045334811</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06099240389167333</v>
+        <v>0.06099276446928967</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08491491533205198</v>
+        <v>0.08491541733583946</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8539863149464689</v>
+        <v>0.8539913635808918</v>
       </c>
       <c r="H36" t="n">
-        <v>5.704350368306496e-07</v>
+        <v>5.704384091539675e-07</v>
       </c>
       <c r="I36" t="n">
-        <v>9.854683136878248e-06</v>
+        <v>9.854741396233979e-06</v>
       </c>
       <c r="J36" t="n">
-        <v>4.229390776788662</v>
+        <v>4.229415780289878</v>
       </c>
       <c r="K36" t="n">
-        <v>628.3772059814133</v>
+        <v>628.3809208498336</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01500911292569182</v>
+        <v>0.01500920165723569</v>
       </c>
       <c r="M36" t="n">
-        <v>6.420849876109672e-06</v>
+        <v>6.420887835176628e-06</v>
       </c>
       <c r="N36" t="n">
-        <v>0.2982847133982443</v>
+        <v>0.2982864768111299</v>
       </c>
       <c r="O36" t="n">
-        <v>39.6228495919415</v>
+        <v>39.62308383607268</v>
       </c>
       <c r="P36" t="n">
-        <v>586.9765319520678</v>
+        <v>586.9800020661351</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.536818286549721e-06</v>
+        <v>3.536839195669968e-06</v>
       </c>
     </row>
     <row r="37">
@@ -8776,52 +8776,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3140144512247569</v>
+        <v>0.3140165043603603</v>
       </c>
       <c r="C37" t="n">
-        <v>62.70697599999998</v>
+        <v>62.707386</v>
       </c>
       <c r="D37" t="n">
-        <v>1795.675201606654</v>
+        <v>1795.686942355127</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01021540875646034</v>
+        <v>0.01021547554835268</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09885132857633028</v>
+        <v>0.09885197490066776</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9522480851701906</v>
+        <v>0.9522543112990814</v>
       </c>
       <c r="H37" t="n">
-        <v>9.316138246012379e-08</v>
+        <v>9.316199158161628e-08</v>
       </c>
       <c r="I37" t="n">
-        <v>1.714578820047928e-06</v>
+        <v>1.714590030560077e-06</v>
       </c>
       <c r="J37" t="n">
-        <v>3.106496734577212</v>
+        <v>3.106517045932383</v>
       </c>
       <c r="K37" t="n">
-        <v>3449.487441228454</v>
+        <v>3449.509995176056</v>
       </c>
       <c r="L37" t="n">
-        <v>0.001535783607197887</v>
+        <v>0.001535793648684802</v>
       </c>
       <c r="M37" t="n">
-        <v>6.151780446682498e-06</v>
+        <v>6.151820669160828e-06</v>
       </c>
       <c r="N37" t="n">
-        <v>0.2505082624449857</v>
+        <v>0.2505099003550582</v>
       </c>
       <c r="O37" t="n">
-        <v>24.97194079705443</v>
+        <v>24.97210407228121</v>
       </c>
       <c r="P37" t="n">
-        <v>507.6341215972546</v>
+        <v>507.6374406855466</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.955655826295476e-06</v>
+        <v>5.955694766442883e-06</v>
       </c>
     </row>
     <row r="38">
@@ -8831,52 +8831,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.08093163231602428</v>
+        <v>0.08093177963185112</v>
       </c>
       <c r="C38" t="n">
-        <v>9.339374999999979</v>
+        <v>9.339391999999989</v>
       </c>
       <c r="D38" t="n">
-        <v>493.4797897486381</v>
+        <v>493.4806880053663</v>
       </c>
       <c r="E38" t="n">
-        <v>0.004371353827841979</v>
+        <v>0.004371361784800032</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0115887278037966</v>
+        <v>0.0115887488981817</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1194694343910963</v>
+        <v>0.1194696518553684</v>
       </c>
       <c r="H38" t="n">
-        <v>3.493895797477141e-08</v>
+        <v>3.493902157241965e-08</v>
       </c>
       <c r="I38" t="n">
-        <v>5.034383920994215e-07</v>
+        <v>5.034393084832985e-07</v>
       </c>
       <c r="J38" t="n">
-        <v>0.7267559001016959</v>
+        <v>0.7267572229793305</v>
       </c>
       <c r="K38" t="n">
-        <v>74.68473408452242</v>
+        <v>74.68487002943097</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0005376634145263508</v>
+        <v>0.0005376643932083347</v>
       </c>
       <c r="M38" t="n">
-        <v>9.188025640369211e-07</v>
+        <v>9.188042364875507e-07</v>
       </c>
       <c r="N38" t="n">
-        <v>0.03965614280385665</v>
+        <v>0.03965621498796192</v>
       </c>
       <c r="O38" t="n">
-        <v>3.687203273855224</v>
+        <v>3.687209985488036</v>
       </c>
       <c r="P38" t="n">
-        <v>108.5583174306103</v>
+        <v>108.5585150339186</v>
       </c>
       <c r="Q38" t="n">
-        <v>6.716898337079276e-07</v>
+        <v>6.716910563515392e-07</v>
       </c>
     </row>
     <row r="39">
@@ -8996,52 +8996,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.03449294601827922</v>
+        <v>0.03449319505090546</v>
       </c>
       <c r="C41" t="n">
-        <v>3.185677999999989</v>
+        <v>3.185700999999997</v>
       </c>
       <c r="D41" t="n">
-        <v>308.4284384510582</v>
+        <v>308.4306652467629</v>
       </c>
       <c r="E41" t="n">
-        <v>0.002642149251674453</v>
+        <v>0.002642168327498441</v>
       </c>
       <c r="F41" t="n">
-        <v>0.002060599125789004</v>
+        <v>0.002060614002929729</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02550591639765467</v>
+        <v>0.02550610054560601</v>
       </c>
       <c r="H41" t="n">
-        <v>9.582884585089419e-09</v>
+        <v>9.582953771725839e-09</v>
       </c>
       <c r="I41" t="n">
-        <v>4.580781078508298e-07</v>
+        <v>4.580814150891897e-07</v>
       </c>
       <c r="J41" t="n">
-        <v>0.09653596379878641</v>
+        <v>0.09653666077041008</v>
       </c>
       <c r="K41" t="n">
-        <v>16.46885824666304</v>
+        <v>16.46897714874285</v>
       </c>
       <c r="L41" t="n">
-        <v>0.000804515917487578</v>
+        <v>0.0008045217259422016</v>
       </c>
       <c r="M41" t="n">
-        <v>1.351706414500483e-07</v>
+        <v>1.351716173568268e-07</v>
       </c>
       <c r="N41" t="n">
-        <v>0.008300012739431992</v>
+        <v>0.008300072663973352</v>
       </c>
       <c r="O41" t="n">
-        <v>0.798270866196204</v>
+        <v>0.7982766295627242</v>
       </c>
       <c r="P41" t="n">
-        <v>11.50413798406746</v>
+        <v>11.50422104179449</v>
       </c>
       <c r="Q41" t="n">
-        <v>6.57944142508412e-06</v>
+        <v>6.57948892742203e-06</v>
       </c>
     </row>
     <row r="42">
@@ -9051,52 +9051,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.260170209411218</v>
+        <v>1.260178109219996</v>
       </c>
       <c r="C42" t="n">
-        <v>51.36514299999986</v>
+        <v>51.36546499999995</v>
       </c>
       <c r="D42" t="n">
-        <v>10333.77082789273</v>
+        <v>10333.83560867622</v>
       </c>
       <c r="E42" t="n">
-        <v>0.08604792985676156</v>
+        <v>0.08604846927769576</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09237963638972575</v>
+        <v>0.09238021550313202</v>
       </c>
       <c r="G42" t="n">
-        <v>1.102277500218406</v>
+        <v>1.102284410222631</v>
       </c>
       <c r="H42" t="n">
-        <v>5.195996041768058e-07</v>
+        <v>5.196028614649748e-07</v>
       </c>
       <c r="I42" t="n">
-        <v>1.439771009086168e-05</v>
+        <v>1.439780034784102e-05</v>
       </c>
       <c r="J42" t="n">
-        <v>3.737136861123327</v>
+        <v>3.737160288646339</v>
       </c>
       <c r="K42" t="n">
-        <v>725.6224838635761</v>
+        <v>725.627032676764</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02512379685244672</v>
+        <v>0.02512395434957642</v>
       </c>
       <c r="M42" t="n">
-        <v>6.505137237749368e-06</v>
+        <v>6.505178017431246e-06</v>
       </c>
       <c r="N42" t="n">
-        <v>0.3212409577980687</v>
+        <v>0.3212429716070916</v>
       </c>
       <c r="O42" t="n">
-        <v>32.51962826541531</v>
+        <v>32.51983212584853</v>
       </c>
       <c r="P42" t="n">
-        <v>571.8815848693306</v>
+        <v>571.8851699050109</v>
       </c>
       <c r="Q42" t="n">
-        <v>4.305033246116897e-06</v>
+        <v>4.305060233692998e-06</v>
       </c>
     </row>
     <row r="43">
@@ -9216,52 +9216,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0009619802282504061</v>
+        <v>0.0009618591117107029</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1985649999999998</v>
+        <v>0.1985399999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>7.037457863527753</v>
+        <v>7.036571823960923</v>
       </c>
       <c r="E45" t="n">
-        <v>6.299424215009139e-05</v>
+        <v>6.298631096355929e-05</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0002124324116498446</v>
+        <v>0.0002124056656961708</v>
       </c>
       <c r="G45" t="n">
-        <v>0.002118973910926608</v>
+        <v>0.00211870712499871</v>
       </c>
       <c r="H45" t="n">
-        <v>3.270789834897208e-09</v>
+        <v>3.270378031478316e-09</v>
       </c>
       <c r="I45" t="n">
-        <v>3.530256331750338e-08</v>
+        <v>3.529811860628572e-08</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01350838220309371</v>
+        <v>0.01350668145243233</v>
       </c>
       <c r="K45" t="n">
-        <v>1.48028717653389</v>
+        <v>1.480100803409657</v>
       </c>
       <c r="L45" t="n">
-        <v>2.116385514589727e-06</v>
+        <v>2.116119054549616e-06</v>
       </c>
       <c r="M45" t="n">
-        <v>2.37007964534667e-08</v>
+        <v>2.369781244363951e-08</v>
       </c>
       <c r="N45" t="n">
-        <v>0.000935651197736903</v>
+        <v>0.000935533396110517</v>
       </c>
       <c r="O45" t="n">
-        <v>0.06578807568942123</v>
+        <v>0.0657797927498688</v>
       </c>
       <c r="P45" t="n">
-        <v>2.331565138143143</v>
+        <v>2.331271586266159</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.24548397887497e-08</v>
+        <v>1.24532716826146e-08</v>
       </c>
     </row>
     <row r="46">
@@ -9271,52 +9271,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.00986454830265e-05</v>
+        <v>5.008895615985165e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01034099999999969</v>
+        <v>0.01033899999999998</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3665014064247896</v>
+        <v>0.3664305232594536</v>
       </c>
       <c r="E46" t="n">
-        <v>3.28065599714993e-06</v>
+        <v>3.280021502227455e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>1.106319627764701e-05</v>
+        <v>1.106105660135342e-05</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0001103533312159314</v>
+        <v>0.0001103319883417027</v>
       </c>
       <c r="H46" t="n">
-        <v>1.70338366190774e-10</v>
+        <v>1.703054219172674e-10</v>
       </c>
       <c r="I46" t="n">
-        <v>1.838510348078925e-09</v>
+        <v>1.838154771181564e-09</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0007034985035740838</v>
+        <v>0.0007033624435211935</v>
       </c>
       <c r="K46" t="n">
-        <v>0.07709137910778086</v>
+        <v>0.07707646925784443</v>
       </c>
       <c r="L46" t="n">
-        <v>1.102185309917242e-07</v>
+        <v>1.101972141885185e-07</v>
       </c>
       <c r="M46" t="n">
-        <v>1.234305824920262e-09</v>
+        <v>1.234067104134123e-09</v>
       </c>
       <c r="N46" t="n">
-        <v>4.872746473848378e-05</v>
+        <v>4.871804060837426e-05</v>
       </c>
       <c r="O46" t="n">
-        <v>0.003426155116482185</v>
+        <v>0.003425492481318086</v>
       </c>
       <c r="P46" t="n">
-        <v>0.1214247983961803</v>
+        <v>0.1214013142460249</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.486314217281842e-10</v>
+        <v>6.485059732373938e-10</v>
       </c>
     </row>
     <row r="47">
@@ -9436,52 +9436,52 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.07998181295979456</v>
+        <v>0.07996963298660445</v>
       </c>
       <c r="C49" t="n">
-        <v>4.852765999999995</v>
+        <v>4.852026999999987</v>
       </c>
       <c r="D49" t="n">
-        <v>325.5699787156927</v>
+        <v>325.520399524305</v>
       </c>
       <c r="E49" t="n">
-        <v>0.00241448250040138</v>
+        <v>0.002414114812660447</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01160505329522649</v>
+        <v>0.01160328602798442</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1234581244836242</v>
+        <v>0.1234393237514244</v>
       </c>
       <c r="H49" t="n">
-        <v>3.998067166273113e-08</v>
+        <v>3.997458323473789e-08</v>
       </c>
       <c r="I49" t="n">
-        <v>6.261167588076464e-07</v>
+        <v>6.260214110647789e-07</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3406684549358599</v>
+        <v>0.3406165764838183</v>
       </c>
       <c r="K49" t="n">
-        <v>81.12953516361311</v>
+        <v>81.11718041036794</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0009902433195456556</v>
+        <v>0.0009900925210498798</v>
       </c>
       <c r="M49" t="n">
-        <v>9.217074683003655e-07</v>
+        <v>9.215671067376853e-07</v>
       </c>
       <c r="N49" t="n">
-        <v>0.03913395390207641</v>
+        <v>0.03912799441589185</v>
       </c>
       <c r="O49" t="n">
-        <v>2.332065575632447</v>
+        <v>2.331710438693965</v>
       </c>
       <c r="P49" t="n">
-        <v>66.42580085776036</v>
+        <v>66.41568525217906</v>
       </c>
       <c r="Q49" t="n">
-        <v>6.844277580270401e-07</v>
+        <v>6.843235304353558e-07</v>
       </c>
     </row>
     <row r="50">
@@ -9491,52 +9491,52 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01730631567270501</v>
+        <v>0.01730376869945514</v>
       </c>
       <c r="C50" t="n">
-        <v>4.002169999999994</v>
+        <v>4.001580999999982</v>
       </c>
       <c r="D50" t="n">
-        <v>107.953216080526</v>
+        <v>107.9373285884223</v>
       </c>
       <c r="E50" t="n">
-        <v>0.000999439553870987</v>
+        <v>0.0009992924661917425</v>
       </c>
       <c r="F50" t="n">
-        <v>0.005103651833326567</v>
+        <v>0.005102900728068696</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04841134374243674</v>
+        <v>0.04840421903722309</v>
       </c>
       <c r="H50" t="n">
-        <v>1.923365844320175e-08</v>
+        <v>1.92308278226076e-08</v>
       </c>
       <c r="I50" t="n">
-        <v>9.974100730167096e-08</v>
+        <v>9.972632840164873e-08</v>
       </c>
       <c r="J50" t="n">
-        <v>0.211250833856855</v>
+        <v>0.2112197440377957</v>
       </c>
       <c r="K50" t="n">
-        <v>47.64079455157792</v>
+        <v>47.63378324821213</v>
       </c>
       <c r="L50" t="n">
-        <v>4.153240589260937e-05</v>
+        <v>4.152629356178103e-05</v>
       </c>
       <c r="M50" t="n">
-        <v>4.840242284217602e-07</v>
+        <v>4.83952994498527e-07</v>
       </c>
       <c r="N50" t="n">
-        <v>0.01721483597581368</v>
+        <v>0.01721230246564545</v>
       </c>
       <c r="O50" t="n">
-        <v>1.886961376241807</v>
+        <v>1.886683671833791</v>
       </c>
       <c r="P50" t="n">
-        <v>43.11503479758274</v>
+        <v>43.10868955100493</v>
       </c>
       <c r="Q50" t="n">
-        <v>4.631491435690875e-07</v>
+        <v>4.63080981835436e-07</v>
       </c>
     </row>
     <row r="51">
@@ -9601,52 +9601,52 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.003512850743251127</v>
+        <v>0.003512425310896908</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5036849999999943</v>
+        <v>0.5036239999999953</v>
       </c>
       <c r="D52" t="n">
-        <v>22.14294520648368</v>
+        <v>22.14026353111599</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0002018190724848548</v>
+        <v>0.0002017946306940106</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0007578986802256053</v>
+        <v>0.0007578068930580443</v>
       </c>
       <c r="G52" t="n">
-        <v>0.006537369182362101</v>
+        <v>0.006536577458327997</v>
       </c>
       <c r="H52" t="n">
-        <v>6.636160598592205e-09</v>
+        <v>6.635356910182768e-09</v>
       </c>
       <c r="I52" t="n">
-        <v>2.92633676037841e-08</v>
+        <v>2.925982359230113e-08</v>
       </c>
       <c r="J52" t="n">
-        <v>0.03875696429306912</v>
+        <v>0.03875227053641201</v>
       </c>
       <c r="K52" t="n">
-        <v>10.3027080312105</v>
+        <v>10.30146029663454</v>
       </c>
       <c r="L52" t="n">
-        <v>1.659672727429317e-05</v>
+        <v>1.659471728717083e-05</v>
       </c>
       <c r="M52" t="n">
-        <v>6.200881417540661e-08</v>
+        <v>6.200130444677734e-08</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0026361273897664</v>
+        <v>0.002635808135131513</v>
       </c>
       <c r="O52" t="n">
-        <v>0.4156375430376986</v>
+        <v>0.4155872062396505</v>
       </c>
       <c r="P52" t="n">
-        <v>5.965922003500145</v>
+        <v>5.965199485969928</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.057906525749296e-06</v>
+        <v>2.057657297961952e-06</v>
       </c>
     </row>
     <row r="53">
@@ -9711,52 +9711,52 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.005392173524042625</v>
+        <v>0.005391383116142222</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4980069999999948</v>
+        <v>0.4979339999999947</v>
       </c>
       <c r="D54" t="n">
-        <v>48.2156455698583</v>
+        <v>48.20857791392856</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0004130388640592772</v>
+        <v>0.0004129783190527283</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0003221269660137646</v>
+        <v>0.0003220797472627851</v>
       </c>
       <c r="G54" t="n">
-        <v>0.003987259511930182</v>
+        <v>0.003986675042345675</v>
       </c>
       <c r="H54" t="n">
-        <v>1.498062140482055e-09</v>
+        <v>1.497842548114367e-09</v>
       </c>
       <c r="I54" t="n">
-        <v>7.160990666867982e-08</v>
+        <v>7.159940978171472e-08</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01509116292467157</v>
+        <v>0.01508895079734504</v>
       </c>
       <c r="K54" t="n">
-        <v>2.574524697362967</v>
+        <v>2.574147312501092</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0001257674374246969</v>
+        <v>0.0001257490018948107</v>
       </c>
       <c r="M54" t="n">
-        <v>2.113080029953238e-08</v>
+        <v>2.112770285627984e-08</v>
       </c>
       <c r="N54" t="n">
-        <v>0.00129751482865697</v>
+        <v>0.001297324633373586</v>
       </c>
       <c r="O54" t="n">
-        <v>0.1247911682416648</v>
+        <v>0.1247728758174987</v>
       </c>
       <c r="P54" t="n">
-        <v>1.798405628262318</v>
+        <v>1.798142010259231</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.028543338586588e-06</v>
+        <v>1.028392570296751e-06</v>
       </c>
     </row>
     <row r="55">
@@ -9766,52 +9766,52 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6.378727582767904e-07</v>
+        <v>5.642720553986991e-07</v>
       </c>
       <c r="C55" t="n">
-        <v>2.6e-05</v>
+        <v>2.3e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>0.005230746491355272</v>
+        <v>0.004627198819275818</v>
       </c>
       <c r="E55" t="n">
-        <v>4.35557275928504e-08</v>
+        <v>3.853006671675228e-08</v>
       </c>
       <c r="F55" t="n">
-        <v>4.676070980923534e-08</v>
+        <v>4.136524329278511e-08</v>
       </c>
       <c r="G55" t="n">
-        <v>5.579506515864003e-07</v>
+        <v>4.93571730249508e-07</v>
       </c>
       <c r="H55" t="n">
-        <v>2.630108458687049e-13</v>
+        <v>2.32663440576162e-13</v>
       </c>
       <c r="I55" t="n">
-        <v>7.287830627910539e-12</v>
+        <v>6.446927093920862e-12</v>
       </c>
       <c r="J55" t="n">
-        <v>1.891663348220539e-06</v>
+        <v>1.673394500348938e-06</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0003672954746850998</v>
+        <v>0.0003249152276060498</v>
       </c>
       <c r="L55" t="n">
-        <v>1.271715953684032e-08</v>
+        <v>1.12497949748972e-08</v>
       </c>
       <c r="M55" t="n">
-        <v>3.292769343238936e-12</v>
+        <v>2.912834419019058e-12</v>
       </c>
       <c r="N55" t="n">
-        <v>1.626056974619891e-07</v>
+        <v>1.438435016009904e-07</v>
       </c>
       <c r="O55" t="n">
-        <v>1.646078031751611e-05</v>
+        <v>1.456145951164886e-05</v>
       </c>
       <c r="P55" t="n">
-        <v>0.0002894749306276171</v>
+        <v>0.0002560739770936614</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.179121051002226e-12</v>
+        <v>1.927684006655816e-12</v>
       </c>
     </row>
     <row r="56">
@@ -9821,52 +9821,52 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6.275112397953818e-05</v>
+        <v>4.137294223108371e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>0.002902999999999998</v>
+        <v>0.001913999999999998</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5643841869020597</v>
+        <v>0.3721086234001177</v>
       </c>
       <c r="E56" t="n">
-        <v>5.029341310335988e-06</v>
+        <v>3.315934987248735e-06</v>
       </c>
       <c r="F56" t="n">
-        <v>6.24709739339087e-06</v>
+        <v>4.118823427816094e-06</v>
       </c>
       <c r="G56" t="n">
-        <v>6.229130721161718e-05</v>
+        <v>4.106977678368421e-05</v>
       </c>
       <c r="H56" t="n">
-        <v>4.076969509145664e-11</v>
+        <v>2.688019166553496e-11</v>
       </c>
       <c r="I56" t="n">
-        <v>8.512197453309153e-10</v>
+        <v>5.612244548960976e-10</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0002299577472148132</v>
+        <v>0.0001516152697792464</v>
       </c>
       <c r="K56" t="n">
-        <v>0.04673334844190168</v>
+        <v>0.03081213534888039</v>
       </c>
       <c r="L56" t="n">
-        <v>1.286396730651887e-06</v>
+        <v>8.48144451418433e-07</v>
       </c>
       <c r="M56" t="n">
-        <v>4.390918904842356e-10</v>
+        <v>2.895011637570881e-10</v>
       </c>
       <c r="N56" t="n">
-        <v>2.22580084702871e-05</v>
+        <v>1.467510444785721e-05</v>
       </c>
       <c r="O56" t="n">
-        <v>0.002986780515336944</v>
+        <v>0.001969237997366486</v>
       </c>
       <c r="P56" t="n">
-        <v>0.03372386880299016</v>
+        <v>0.02223475194244683</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.285965558118122e-10</v>
+        <v>1.507178118580118e-10</v>
       </c>
     </row>
     <row r="57">
@@ -9986,52 +9986,52 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>6.502079949378254e-05</v>
+        <v>4.299413902697254e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>0.003008</v>
+        <v>0.001988999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5847976693769882</v>
+        <v>0.3866896823107809</v>
       </c>
       <c r="E59" t="n">
-        <v>5.211249969511082e-06</v>
+        <v>3.445869743802373e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>6.473051656672325e-06</v>
+        <v>4.280219330159989e-06</v>
       </c>
       <c r="G59" t="n">
-        <v>6.454435139254039e-05</v>
+        <v>4.267909405577219e-05</v>
       </c>
       <c r="H59" t="n">
-        <v>4.224431375649372e-11</v>
+        <v>2.793349071199001e-11</v>
       </c>
       <c r="I59" t="n">
-        <v>8.820079207562409e-10</v>
+        <v>5.832160087713305e-10</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0002382751993186906</v>
+        <v>0.0001575563069963016</v>
       </c>
       <c r="K59" t="n">
-        <v>0.04842366934662085</v>
+        <v>0.0320195074236798</v>
       </c>
       <c r="L59" t="n">
-        <v>1.332925031278291e-06</v>
+        <v>8.81378951865864e-07</v>
       </c>
       <c r="M59" t="n">
-        <v>4.549736157687159e-10</v>
+        <v>3.008452532460024e-10</v>
       </c>
       <c r="N59" t="n">
-        <v>2.306306905911942e-05</v>
+        <v>1.525014772559458e-05</v>
       </c>
       <c r="O59" t="n">
-        <v>0.003094810812998119</v>
+        <v>0.002046402495695896</v>
       </c>
       <c r="P59" t="n">
-        <v>0.03494364359607115</v>
+        <v>0.02310601965179039</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.368647743306687e-10</v>
+        <v>1.566236822286236e-10</v>
       </c>
     </row>
     <row r="60">
@@ -10096,52 +10096,52 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.51034416682265e-06</v>
+        <v>9.859191088981186e-07</v>
       </c>
       <c r="C61" t="n">
-        <v>7.2e-05</v>
+        <v>4.699999999999999e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01373131629612877</v>
+        <v>0.008963498137750724</v>
       </c>
       <c r="E61" t="n">
-        <v>1.155387820292881e-07</v>
+        <v>7.54211493802297e-08</v>
       </c>
       <c r="F61" t="n">
-        <v>1.453435718393439e-07</v>
+        <v>9.487705383957172e-08</v>
       </c>
       <c r="G61" t="n">
-        <v>1.712224939462033e-06</v>
+        <v>1.117702391037715e-06</v>
       </c>
       <c r="H61" t="n">
-        <v>8.02241855159253e-13</v>
+        <v>5.236856554511789e-13</v>
       </c>
       <c r="I61" t="n">
-        <v>1.725183190060126e-11</v>
+        <v>1.126161249067026e-11</v>
       </c>
       <c r="J61" t="n">
-        <v>1.084395495371246e-05</v>
+        <v>7.078692817006743e-06</v>
       </c>
       <c r="K61" t="n">
-        <v>0.002822133431915085</v>
+        <v>0.001842225990277902</v>
       </c>
       <c r="L61" t="n">
-        <v>3.439066785335315e-08</v>
+        <v>2.244946373760553e-08</v>
       </c>
       <c r="M61" t="n">
-        <v>1.204127012905537e-11</v>
+        <v>7.860273556466697e-12</v>
       </c>
       <c r="N61" t="n">
-        <v>4.832456665439852e-07</v>
+        <v>3.154520323273236e-07</v>
       </c>
       <c r="O61" t="n">
-        <v>5.904568288167664e-05</v>
+        <v>3.854370965887224e-05</v>
       </c>
       <c r="P61" t="n">
-        <v>0.0009248502481574237</v>
+        <v>0.0006037216897694292</v>
       </c>
       <c r="Q61" t="n">
-        <v>6.826005182365677e-12</v>
+        <v>4.455864494044261e-12</v>
       </c>
     </row>
     <row r="62">
@@ -10151,52 +10151,52 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3.219766345575611e-07</v>
+        <v>2.52627820960548e-07</v>
       </c>
       <c r="C62" t="n">
-        <v>6.499999999999999e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>0.06745588771923057</v>
+        <v>0.0529269272873963</v>
       </c>
       <c r="E62" t="n">
-        <v>2.44156531400093e-08</v>
+        <v>1.915689707908422e-08</v>
       </c>
       <c r="F62" t="n">
-        <v>8.387805420057304e-08</v>
+        <v>6.58120117573727e-08</v>
       </c>
       <c r="G62" t="n">
-        <v>8.03136632528595e-07</v>
+        <v>6.301533578301284e-07</v>
       </c>
       <c r="H62" t="n">
-        <v>4.046500732564536e-13</v>
+        <v>3.174946728627559e-13</v>
       </c>
       <c r="I62" t="n">
-        <v>3.264183365754115e-12</v>
+        <v>2.561128486976305e-12</v>
       </c>
       <c r="J62" t="n">
-        <v>2.099298232265991e-05</v>
+        <v>1.647141689931778e-05</v>
       </c>
       <c r="K62" t="n">
-        <v>0.001603797865658028</v>
+        <v>0.001258364479208607</v>
       </c>
       <c r="L62" t="n">
-        <v>1.437120745301872e-09</v>
+        <v>1.127587046313777e-09</v>
       </c>
       <c r="M62" t="n">
-        <v>5.609017583776826e-12</v>
+        <v>4.40092148880951e-12</v>
       </c>
       <c r="N62" t="n">
-        <v>2.992452680495583e-07</v>
+        <v>2.347924410850381e-07</v>
       </c>
       <c r="O62" t="n">
-        <v>8.003734398202045e-05</v>
+        <v>6.279853143204681e-05</v>
       </c>
       <c r="P62" t="n">
-        <v>0.0009987937495061793</v>
+        <v>0.0007836689419202332</v>
       </c>
       <c r="Q62" t="n">
-        <v>4.994505097807134e-12</v>
+        <v>3.918765538279444e-12</v>
       </c>
     </row>
     <row r="63">
@@ -10206,52 +10206,52 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.359144008824988</v>
+        <v>2.359146864645591</v>
       </c>
       <c r="C63" t="n">
-        <v>28.08681199999995</v>
+        <v>28.08684599999998</v>
       </c>
       <c r="D63" t="n">
-        <v>22008.39289516421</v>
+        <v>22008.41953704008</v>
       </c>
       <c r="E63" t="n">
-        <v>0.183912002744579</v>
+        <v>0.1839122253760439</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1123600080103309</v>
+        <v>0.1123601440257774</v>
       </c>
       <c r="G63" t="n">
-        <v>1.566712967070106</v>
+        <v>1.566714863627142</v>
       </c>
       <c r="H63" t="n">
-        <v>9.704534918690383e-07</v>
+        <v>9.704546666345742e-07</v>
       </c>
       <c r="I63" t="n">
-        <v>3.270054105503728e-05</v>
+        <v>3.270058064010649e-05</v>
       </c>
       <c r="J63" t="n">
-        <v>3.183214638376191</v>
+        <v>3.183218491761111</v>
       </c>
       <c r="K63" t="n">
-        <v>1177.804323094867</v>
+        <v>1177.805748865332</v>
       </c>
       <c r="L63" t="n">
-        <v>0.05871724409774536</v>
+        <v>0.05871731517688033</v>
       </c>
       <c r="M63" t="n">
-        <v>5.925277185275195e-06</v>
+        <v>5.92528435801607e-06</v>
       </c>
       <c r="N63" t="n">
-        <v>0.4526179697410969</v>
+        <v>0.45261851764988</v>
       </c>
       <c r="O63" t="n">
-        <v>36.4692785280897</v>
+        <v>36.46932267533827</v>
       </c>
       <c r="P63" t="n">
-        <v>344.0221249254078</v>
+        <v>344.0225413753864</v>
       </c>
       <c r="Q63" t="n">
-        <v>3.851234428177743e-06</v>
+        <v>3.851239090222359e-06</v>
       </c>
     </row>
     <row r="64">
@@ -10316,52 +10316,52 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.078346354569883e-08</v>
+        <v>1.039173177284942e-08</v>
       </c>
       <c r="C65" t="n">
-        <v>2e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0001433035510162817</v>
+        <v>7.165177550814087e-05</v>
       </c>
       <c r="E65" t="n">
-        <v>1.012512492709547e-09</v>
+        <v>5.062562463547735e-10</v>
       </c>
       <c r="F65" t="n">
-        <v>4.132692292856537e-09</v>
+        <v>2.066346146428268e-09</v>
       </c>
       <c r="G65" t="n">
-        <v>2.821453197967696e-08</v>
+        <v>1.410726598983848e-08</v>
       </c>
       <c r="H65" t="n">
-        <v>5.527117837199538e-14</v>
+        <v>2.763558918599769e-14</v>
       </c>
       <c r="I65" t="n">
-        <v>1.564433537827787e-13</v>
+        <v>7.822167689138935e-14</v>
       </c>
       <c r="J65" t="n">
-        <v>4.106322412445448e-07</v>
+        <v>2.053161206222724e-07</v>
       </c>
       <c r="K65" t="n">
-        <v>2.765549772330596e-05</v>
+        <v>1.382774886165298e-05</v>
       </c>
       <c r="L65" t="n">
-        <v>2.074056357485605e-10</v>
+        <v>1.037028178742803e-10</v>
       </c>
       <c r="M65" t="n">
-        <v>2.505513896164201e-13</v>
+        <v>1.252756948082101e-13</v>
       </c>
       <c r="N65" t="n">
-        <v>1.027722660686884e-08</v>
+        <v>5.13861330343442e-09</v>
       </c>
       <c r="O65" t="n">
-        <v>1.752464955639863e-06</v>
+        <v>8.762324778199313e-07</v>
       </c>
       <c r="P65" t="n">
-        <v>2.774085051978286e-05</v>
+        <v>1.387042525989143e-05</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.536748469419062e-13</v>
+        <v>7.683742347095312e-14</v>
       </c>
     </row>
     <row r="66">
@@ -10371,52 +10371,52 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.237845915368429e-05</v>
+        <v>8.475478486297507e-06</v>
       </c>
       <c r="C66" t="n">
-        <v>0.001626999999999427</v>
+        <v>0.001113999999999749</v>
       </c>
       <c r="D66" t="n">
-        <v>0.04169926855875961</v>
+        <v>0.02855131233833073</v>
       </c>
       <c r="E66" t="n">
-        <v>2.1606480003591e-07</v>
+        <v>1.479386522679989e-07</v>
       </c>
       <c r="F66" t="n">
-        <v>3.469165570728547e-06</v>
+        <v>2.375322953775102e-06</v>
       </c>
       <c r="G66" t="n">
-        <v>4.247317737340171e-05</v>
+        <v>2.908120442161985e-05</v>
       </c>
       <c r="H66" t="n">
-        <v>1.644447291319515e-12</v>
+        <v>1.125946086373799e-12</v>
       </c>
       <c r="I66" t="n">
-        <v>1.963538736871606e-11</v>
+        <v>1.344426645897508e-11</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0001776272501633013</v>
+        <v>0.0001216206248813416</v>
       </c>
       <c r="K66" t="n">
-        <v>0.00648627982042294</v>
+        <v>0.004441128285158003</v>
       </c>
       <c r="L66" t="n">
-        <v>2.587545030143137e-08</v>
+        <v>1.771681108530928e-08</v>
       </c>
       <c r="M66" t="n">
-        <v>9.111758917998371e-11</v>
+        <v>6.23878268878394e-11</v>
       </c>
       <c r="N66" t="n">
-        <v>7.180504795497501e-06</v>
+        <v>4.916461181429152e-06</v>
       </c>
       <c r="O66" t="n">
-        <v>0.0008795155543741594</v>
+        <v>0.0006022005701124386</v>
       </c>
       <c r="P66" t="n">
-        <v>0.02957326249522893</v>
+        <v>0.02024868741222446</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.64835378239711e-10</v>
+        <v>1.128620844247458e-10</v>
       </c>
     </row>
     <row r="67">
@@ -10426,52 +10426,52 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5.731423900306287</v>
+        <v>5.731430403177003</v>
       </c>
       <c r="C67" t="n">
-        <v>273.224163</v>
+        <v>273.2244729999999</v>
       </c>
       <c r="D67" t="n">
-        <v>52107.32502636188</v>
+        <v>52107.38414730703</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4384442640832184</v>
+        <v>0.4384447615418631</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5515468856004885</v>
+        <v>0.5515475113853116</v>
       </c>
       <c r="G67" t="n">
-        <v>6.497517027114454</v>
+        <v>6.497524399194052</v>
       </c>
       <c r="H67" t="n">
-        <v>3.044331380548024e-06</v>
+        <v>3.044334834644899e-06</v>
       </c>
       <c r="I67" t="n">
-        <v>6.5466907378595e-05</v>
+        <v>6.546698165731566e-05</v>
       </c>
       <c r="J67" t="n">
-        <v>41.1504238310805</v>
+        <v>41.15047052033098</v>
       </c>
       <c r="K67" t="n">
-        <v>10709.37562235163</v>
+        <v>10709.3877732039</v>
       </c>
       <c r="L67" t="n">
-        <v>0.1305050199894923</v>
+        <v>0.1305051680604233</v>
       </c>
       <c r="M67" t="n">
-        <v>4.569397156205646e-05</v>
+        <v>4.569402340641394e-05</v>
       </c>
       <c r="N67" t="n">
-        <v>1.833811010623025</v>
+        <v>1.833813091264088</v>
       </c>
       <c r="O67" t="n">
-        <v>224.0653789459661</v>
+        <v>224.065633170434</v>
       </c>
       <c r="P67" t="n">
-        <v>3509.603263238261</v>
+        <v>3509.607245232384</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.590318823035453e-05</v>
+        <v>2.590321762009905e-05</v>
       </c>
     </row>
     <row r="68">
@@ -10591,52 +10591,52 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1917054601211161</v>
+        <v>0.1916977606916121</v>
       </c>
       <c r="C70" t="n">
-        <v>18.624196</v>
+        <v>18.62344799999999</v>
       </c>
       <c r="D70" t="n">
-        <v>998.8005379063854</v>
+        <v>998.7604232725856</v>
       </c>
       <c r="E70" t="n">
-        <v>0.008353547645744686</v>
+        <v>0.008353212143818104</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04847385688245539</v>
+        <v>0.04847191003626948</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4790455779878082</v>
+        <v>0.4790263381724445</v>
       </c>
       <c r="H70" t="n">
-        <v>6.24854844157125e-08</v>
+        <v>6.248297482322629e-08</v>
       </c>
       <c r="I70" t="n">
-        <v>1.089649757914602e-06</v>
+        <v>1.089605994521061e-06</v>
       </c>
       <c r="J70" t="n">
-        <v>1.020530804831128</v>
+        <v>1.020489817448799</v>
       </c>
       <c r="K70" t="n">
-        <v>773.9194230017566</v>
+        <v>773.8883402248997</v>
       </c>
       <c r="L70" t="n">
-        <v>0.001392613358319966</v>
+        <v>0.001392557427057643</v>
       </c>
       <c r="M70" t="n">
-        <v>3.14109019957343e-06</v>
+        <v>3.1409640445722e-06</v>
       </c>
       <c r="N70" t="n">
-        <v>0.1356275288139003</v>
+        <v>0.13562208163156</v>
       </c>
       <c r="O70" t="n">
-        <v>9.729526729965064</v>
+        <v>9.729135964855308</v>
       </c>
       <c r="P70" t="n">
-        <v>190.5618397800049</v>
+        <v>190.5541862815046</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.711603324078423e-06</v>
+        <v>1.71153458128349e-06</v>
       </c>
     </row>
     <row r="71">
@@ -10646,52 +10646,52 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02189631039739301</v>
+        <v>0.02189636853333207</v>
       </c>
       <c r="C71" t="n">
-        <v>4.519678</v>
+        <v>4.51969</v>
       </c>
       <c r="D71" t="n">
-        <v>160.184541493785</v>
+        <v>160.1849667927771</v>
       </c>
       <c r="E71" t="n">
-        <v>0.001433856371326473</v>
+        <v>0.001433860178296008</v>
       </c>
       <c r="F71" t="n">
-        <v>0.004835323936347025</v>
+        <v>0.004835336774404789</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0482314595612971</v>
+        <v>0.04823158761854249</v>
       </c>
       <c r="H71" t="n">
-        <v>7.444875410776599e-08</v>
+        <v>7.444895177340707e-08</v>
       </c>
       <c r="I71" t="n">
-        <v>8.0354654027511e-07</v>
+        <v>8.035486737364946e-07</v>
       </c>
       <c r="J71" t="n">
-        <v>0.3074738139093709</v>
+        <v>0.3074746302696884</v>
       </c>
       <c r="K71" t="n">
-        <v>33.69386037550598</v>
+        <v>33.69394983460561</v>
       </c>
       <c r="L71" t="n">
-        <v>4.81725432468455e-05</v>
+        <v>4.817267114766475e-05</v>
       </c>
       <c r="M71" t="n">
-        <v>5.39470542710002e-07</v>
+        <v>5.394719750347191e-07</v>
       </c>
       <c r="N71" t="n">
-        <v>0.02129701676571971</v>
+        <v>0.02129707331050038</v>
       </c>
       <c r="O71" t="n">
-        <v>1.497448786824527</v>
+        <v>1.497452762635513</v>
       </c>
       <c r="P71" t="n">
-        <v>53.07039841075987</v>
+        <v>53.07053931566083</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.834933920214375e-07</v>
+        <v>2.834941447123823e-07</v>
       </c>
     </row>
     <row r="72">
@@ -10701,52 +10701,52 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01300634184915852</v>
+        <v>0.01300676817937827</v>
       </c>
       <c r="C72" t="n">
-        <v>2.684675</v>
+        <v>2.684762999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>95.14913096349503</v>
+        <v>95.15224982277026</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0008517063281257865</v>
+        <v>0.0008517342459023794</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002872167727172699</v>
+        <v>0.002872261872929631</v>
       </c>
       <c r="G72" t="n">
-        <v>0.028649340439236</v>
+        <v>0.0286502795257022</v>
       </c>
       <c r="H72" t="n">
-        <v>4.422233374463108e-08</v>
+        <v>4.422378329266557e-08</v>
       </c>
       <c r="I72" t="n">
-        <v>4.773042035324377e-07</v>
+        <v>4.773198489159239e-07</v>
       </c>
       <c r="J72" t="n">
-        <v>0.182638511273843</v>
+        <v>0.1826444979161711</v>
       </c>
       <c r="K72" t="n">
-        <v>20.01405069202087</v>
+        <v>20.01470672541817</v>
       </c>
       <c r="L72" t="n">
-        <v>2.861434432745539e-05</v>
+        <v>2.861528226679658e-05</v>
       </c>
       <c r="M72" t="n">
-        <v>3.204438633128234e-07</v>
+        <v>3.20454367027415e-07</v>
       </c>
       <c r="N72" t="n">
-        <v>0.01265036325276017</v>
+        <v>0.01265077791448505</v>
       </c>
       <c r="O72" t="n">
-        <v>0.8894800297207319</v>
+        <v>0.8895091856679564</v>
       </c>
       <c r="P72" t="n">
-        <v>31.52365541381637</v>
+        <v>31.52468871642336</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.68394213531396e-07</v>
+        <v>1.683997332649915e-07</v>
       </c>
     </row>
     <row r="73">
@@ -10866,52 +10866,52 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1617197976957787</v>
+        <v>0.1617168739414164</v>
       </c>
       <c r="C75" t="n">
-        <v>17.25746099999999</v>
+        <v>17.25714899999999</v>
       </c>
       <c r="D75" t="n">
-        <v>1029.547803640032</v>
+        <v>1029.529190304343</v>
       </c>
       <c r="E75" t="n">
-        <v>0.009109372050602051</v>
+        <v>0.00910920736101766</v>
       </c>
       <c r="F75" t="n">
-        <v>0.02184466657938107</v>
+        <v>0.02184427164666341</v>
       </c>
       <c r="G75" t="n">
-        <v>0.2276020584954667</v>
+        <v>0.227597943646692</v>
       </c>
       <c r="H75" t="n">
-        <v>7.119401278374987e-08</v>
+        <v>7.119272565744618e-08</v>
       </c>
       <c r="I75" t="n">
-        <v>1.162708250977528e-06</v>
+        <v>1.162687230215882e-06</v>
       </c>
       <c r="J75" t="n">
-        <v>1.337404689990332</v>
+        <v>1.337380510867848</v>
       </c>
       <c r="K75" t="n">
-        <v>141.1016739257601</v>
+        <v>141.0991229292802</v>
       </c>
       <c r="L75" t="n">
-        <v>0.001330805514074768</v>
+        <v>0.00133078145425969</v>
       </c>
       <c r="M75" t="n">
-        <v>1.721926508082066e-06</v>
+        <v>1.721895377136992e-06</v>
       </c>
       <c r="N75" t="n">
-        <v>0.07546756100339928</v>
+        <v>0.07546619661503227</v>
       </c>
       <c r="O75" t="n">
-        <v>6.88362928191887</v>
+        <v>6.883504831842702</v>
       </c>
       <c r="P75" t="n">
-        <v>200.6470999352735</v>
+        <v>200.6434724088849</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.239957593349716e-06</v>
+        <v>1.239935175986633e-06</v>
       </c>
     </row>
     <row r="76">
@@ -11086,52 +11086,52 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>5.202960916939312e-05</v>
+        <v>3.436937207284382e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>0.002406999999999998</v>
+        <v>0.001589999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4679547839728759</v>
+        <v>0.3091184489060544</v>
       </c>
       <c r="E79" t="n">
-        <v>4.170039453661294e-06</v>
+        <v>2.754616838937042e-06</v>
       </c>
       <c r="F79" t="n">
-        <v>5.179732492556613e-06</v>
+        <v>3.421593129690493e-06</v>
       </c>
       <c r="G79" t="n">
-        <v>5.164835565220898e-05</v>
+        <v>3.411752616826436e-05</v>
       </c>
       <c r="H79" t="n">
-        <v>3.380387739756732e-11</v>
+        <v>2.232993978484922e-11</v>
       </c>
       <c r="I79" t="n">
-        <v>7.05782269036069e-10</v>
+        <v>4.662209421551101e-10</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0001906676877526888</v>
+        <v>0.0001259499890015685</v>
       </c>
       <c r="K79" t="n">
-        <v>0.03874859445389507</v>
+        <v>0.02559628798574706</v>
       </c>
       <c r="L79" t="n">
-        <v>1.066605901026212e-06</v>
+        <v>7.045714094855331e-07</v>
       </c>
       <c r="M79" t="n">
-        <v>3.640696453308839e-10</v>
+        <v>2.404946971649795e-10</v>
       </c>
       <c r="N79" t="n">
-        <v>1.845505559351743e-05</v>
+        <v>1.219091748803187e-05</v>
       </c>
       <c r="O79" t="n">
-        <v>0.002476465966385123</v>
+        <v>0.001635887364583443</v>
       </c>
       <c r="P79" t="n">
-        <v>0.02796188501853164</v>
+        <v>0.01847087543808281</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.895390664275e-10</v>
+        <v>1.252044518569693e-10</v>
       </c>
     </row>
     <row r="80">
@@ -11196,52 +11196,52 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2.308211871823979</v>
+        <v>2.00664573485627</v>
       </c>
       <c r="C81" t="n">
-        <v>303.386768</v>
+        <v>263.7495160000001</v>
       </c>
       <c r="D81" t="n">
-        <v>7775.664607259095</v>
+        <v>6759.779901616927</v>
       </c>
       <c r="E81" t="n">
-        <v>0.04028961362107206</v>
+        <v>0.03502580604433205</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6468954702892323</v>
+        <v>0.5623790658904988</v>
       </c>
       <c r="G81" t="n">
-        <v>7.91997542102742</v>
+        <v>6.885236616607745</v>
       </c>
       <c r="H81" t="n">
-        <v>3.066401652488971e-07</v>
+        <v>2.665778593565974e-07</v>
       </c>
       <c r="I81" t="n">
-        <v>3.661411623985539e-06</v>
+        <v>3.183050961876361e-06</v>
       </c>
       <c r="J81" t="n">
-        <v>33.12216185358977</v>
+        <v>28.79477643454103</v>
       </c>
       <c r="K81" t="n">
-        <v>1209.496909073405</v>
+        <v>1051.47705179946</v>
       </c>
       <c r="L81" t="n">
-        <v>0.004824996458204435</v>
+        <v>0.004194614316709866</v>
       </c>
       <c r="M81" t="n">
-        <v>1.699070122266537e-05</v>
+        <v>1.477087894610684e-05</v>
       </c>
       <c r="N81" t="n">
-        <v>1.33894907345744</v>
+        <v>1.164016388720844</v>
       </c>
       <c r="O81" t="n">
-        <v>164.0033075890592</v>
+        <v>142.5763993735333</v>
       </c>
       <c r="P81" t="n">
-        <v>5514.527675258937</v>
+        <v>4794.058801266344</v>
       </c>
       <c r="Q81" t="n">
-        <v>3.073686088272616e-05</v>
+        <v>2.67211132331861e-05</v>
       </c>
     </row>
     <row r="82">
@@ -11306,52 +11306,52 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.4815466485660505</v>
+        <v>0.4815189592974071</v>
       </c>
       <c r="C83" t="n">
-        <v>48.57332299999999</v>
+        <v>48.57052999999998</v>
       </c>
       <c r="D83" t="n">
-        <v>3459.461297435505</v>
+        <v>3459.262375994537</v>
       </c>
       <c r="E83" t="n">
-        <v>0.02661341310176302</v>
+        <v>0.02661188281192073</v>
       </c>
       <c r="F83" t="n">
-        <v>0.08896631180393057</v>
+        <v>0.08896119617886064</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9087828444035749</v>
+        <v>0.9087305887552548</v>
       </c>
       <c r="H83" t="n">
-        <v>7.104764051463948e-07</v>
+        <v>7.104355522568452e-07</v>
       </c>
       <c r="I83" t="n">
-        <v>3.91708717816489e-06</v>
+        <v>3.916861942916138e-06</v>
       </c>
       <c r="J83" t="n">
-        <v>8.59881240301959</v>
+        <v>8.598317965300318</v>
       </c>
       <c r="K83" t="n">
-        <v>1337.142472471109</v>
+        <v>1337.065585844975</v>
       </c>
       <c r="L83" t="n">
-        <v>0.005597135372273548</v>
+        <v>0.005596813533080154</v>
       </c>
       <c r="M83" t="n">
-        <v>6.226077979553286e-06</v>
+        <v>6.225719975720671e-06</v>
       </c>
       <c r="N83" t="n">
-        <v>0.2863532086932273</v>
+        <v>0.2863367431837154</v>
       </c>
       <c r="O83" t="n">
-        <v>46.02763676948312</v>
+        <v>46.02499014821949</v>
       </c>
       <c r="P83" t="n">
-        <v>651.8005772430658</v>
+        <v>651.7630982546046</v>
       </c>
       <c r="Q83" t="n">
-        <v>4.7231502018682e-06</v>
+        <v>4.722878617432566e-06</v>
       </c>
     </row>
     <row r="84">
@@ -11361,52 +11361,52 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7.665288562589192</v>
+        <v>7.665288352819169</v>
       </c>
       <c r="C84" t="n">
-        <v>365.413916</v>
+        <v>365.413906</v>
       </c>
       <c r="D84" t="n">
-        <v>69689.08416115318</v>
+        <v>69689.08225402593</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5863816498776746</v>
+        <v>0.5863816338306217</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7376467187672497</v>
+        <v>0.7376466985806426</v>
       </c>
       <c r="G84" t="n">
-        <v>8.689872502801169</v>
+        <v>8.68987226499215</v>
       </c>
       <c r="H84" t="n">
-        <v>4.071532470456213e-06</v>
+        <v>4.071532359033734e-06</v>
       </c>
       <c r="I84" t="n">
-        <v>8.75563812912837e-05</v>
+        <v>8.755637889519594e-05</v>
       </c>
       <c r="J84" t="n">
-        <v>55.0351672856065</v>
+        <v>55.03516577950165</v>
       </c>
       <c r="K84" t="n">
-        <v>14322.87262264736</v>
+        <v>14322.87223068439</v>
       </c>
       <c r="L84" t="n">
-        <v>0.1745392863076262</v>
+        <v>0.1745392815311446</v>
       </c>
       <c r="M84" t="n">
-        <v>6.111177321488814e-05</v>
+        <v>6.111177154248952e-05</v>
       </c>
       <c r="N84" t="n">
-        <v>2.452565158359275</v>
+        <v>2.452565091241822</v>
       </c>
       <c r="O84" t="n">
-        <v>299.6682528428836</v>
+        <v>299.6682446420944</v>
       </c>
       <c r="P84" t="n">
-        <v>4693.793762399665</v>
+        <v>4693.793633948242</v>
       </c>
       <c r="Q84" t="n">
-        <v>3.464329561561855e-05</v>
+        <v>3.464329466756228e-05</v>
       </c>
     </row>
     <row r="85">
@@ -11416,52 +11416,52 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1.0161030130441e-05</v>
+        <v>6.164121425285014e-06</v>
       </c>
       <c r="C85" t="n">
-        <v>0.000572</v>
+        <v>0.000347</v>
       </c>
       <c r="D85" t="n">
-        <v>0.06779839340292962</v>
+        <v>0.04112944494898002</v>
       </c>
       <c r="E85" t="n">
-        <v>5.504450653606792e-07</v>
+        <v>3.339238420981742e-07</v>
       </c>
       <c r="F85" t="n">
-        <v>1.041059292471064e-06</v>
+        <v>6.315517036494043e-07</v>
       </c>
       <c r="G85" t="n">
-        <v>1.007702841253095e-05</v>
+        <v>6.113162341168253e-06</v>
       </c>
       <c r="H85" t="n">
-        <v>7.103053658506475e-12</v>
+        <v>4.309020313814242e-12</v>
       </c>
       <c r="I85" t="n">
-        <v>9.396334203638025e-11</v>
+        <v>5.700223721437753e-11</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0001589451903976723</v>
+        <v>9.642304382516135e-05</v>
       </c>
       <c r="K85" t="n">
-        <v>0.007413932945947635</v>
+        <v>0.004497613168258442</v>
       </c>
       <c r="L85" t="n">
-        <v>2.087501682847996e-07</v>
+        <v>1.266369027881564e-07</v>
       </c>
       <c r="M85" t="n">
-        <v>7.566176286631839e-11</v>
+        <v>4.589970579477705e-11</v>
       </c>
       <c r="N85" t="n">
-        <v>2.85049382070603e-06</v>
+        <v>1.729233139484252e-06</v>
       </c>
       <c r="O85" t="n">
-        <v>0.002536862617859504</v>
+        <v>0.001538970853841342</v>
       </c>
       <c r="P85" t="n">
-        <v>0.009428293189880237</v>
+        <v>0.005719611428126646</v>
       </c>
       <c r="Q85" t="n">
-        <v>8.662133769619467e-11</v>
+        <v>5.254825905695725e-11</v>
       </c>
     </row>
     <row r="86">
@@ -11471,52 +11471,52 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4.906538948255139</v>
+        <v>4.906538933276436</v>
       </c>
       <c r="C86" t="n">
-        <v>982.7031309999998</v>
+        <v>982.7031279999997</v>
       </c>
       <c r="D86" t="n">
-        <v>22419.28010003127</v>
+        <v>22419.2800315896</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1441452480592444</v>
+        <v>0.1441452476191972</v>
       </c>
       <c r="F86" t="n">
-        <v>1.724435071239676</v>
+        <v>1.724435065975314</v>
       </c>
       <c r="G86" t="n">
-        <v>16.87788166087583</v>
+        <v>16.87788160935096</v>
       </c>
       <c r="H86" t="n">
-        <v>3.78092259827435e-06</v>
+        <v>3.780922586731934e-06</v>
       </c>
       <c r="I86" t="n">
-        <v>2.110057290564399e-05</v>
+        <v>2.110057284122807e-05</v>
       </c>
       <c r="J86" t="n">
-        <v>61.6520264481366</v>
+        <v>61.65202625992504</v>
       </c>
       <c r="K86" t="n">
-        <v>12102.33424182777</v>
+        <v>12102.33420488171</v>
       </c>
       <c r="L86" t="n">
-        <v>0.01406846463731514</v>
+        <v>0.01406846459436687</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0001634212777555385</v>
+        <v>0.0001634212772566453</v>
       </c>
       <c r="N86" t="n">
-        <v>4.491230420545316</v>
+        <v>4.491230406834469</v>
       </c>
       <c r="O86" t="n">
-        <v>405.2064597143016</v>
+        <v>405.2064584772857</v>
       </c>
       <c r="P86" t="n">
-        <v>7947.869849983216</v>
+        <v>7947.869825719927</v>
       </c>
       <c r="Q86" t="n">
-        <v>8.548718102996915e-05</v>
+        <v>8.548718076899354e-05</v>
       </c>
     </row>
     <row r="87">
@@ -11581,52 +11581,52 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>9.549067628634092e-08</v>
+        <v>7.639254102907273e-08</v>
       </c>
       <c r="C88" t="n">
-        <v>5e-06</v>
+        <v>4e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0008376133799976745</v>
+        <v>0.0006700907039981394</v>
       </c>
       <c r="E88" t="n">
-        <v>7.035797619710456e-09</v>
+        <v>5.628638095768364e-09</v>
       </c>
       <c r="F88" t="n">
-        <v>1.035319121736809e-08</v>
+        <v>8.282552973894475e-09</v>
       </c>
       <c r="G88" t="n">
-        <v>1.189676893639408e-07</v>
+        <v>9.51741514911526e-08</v>
       </c>
       <c r="H88" t="n">
-        <v>4.945368226673347e-14</v>
+        <v>3.956294581338676e-14</v>
       </c>
       <c r="I88" t="n">
-        <v>1.048435368039072e-12</v>
+        <v>8.387482944312578e-13</v>
       </c>
       <c r="J88" t="n">
-        <v>6.737372490201749e-07</v>
+        <v>5.389897992161398e-07</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0002687526204745308</v>
+        <v>0.0002150020963796246</v>
       </c>
       <c r="L88" t="n">
-        <v>2.048445898150851e-09</v>
+        <v>1.63875671852068e-09</v>
       </c>
       <c r="M88" t="n">
-        <v>8.508100707239333e-13</v>
+        <v>6.806480565791465e-13</v>
       </c>
       <c r="N88" t="n">
-        <v>3.379179970412205e-08</v>
+        <v>2.703343976329763e-08</v>
       </c>
       <c r="O88" t="n">
-        <v>3.750986922744343e-06</v>
+        <v>3.000789538195475e-06</v>
       </c>
       <c r="P88" t="n">
-        <v>6.211269464972532e-05</v>
+        <v>4.969015571978024e-05</v>
       </c>
       <c r="Q88" t="n">
-        <v>4.714601619461132e-13</v>
+        <v>3.771681295568906e-13</v>
       </c>
     </row>
     <row r="89">
@@ -11691,52 +11691,52 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>9.78160445172081e-09</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1e-06</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>5.077293154859112e-05</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>4.112060823653289e-10</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>2.384370890182003e-09</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>2.438674070369804e-08</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>3.039756023428834e-15</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>5.348690210258633e-14</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>5.393683525961629e-08</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0001322089120919499</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>6.803153873845044e-11</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>1.875806412962806e-13</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>7.085831289734335e-09</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>3.992178523384298e-07</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.022565305783589e-05</v>
+        <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>9.285601367688916e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -11746,52 +11746,52 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>5.244250579245317e-07</v>
+        <v>3.98563044022644e-07</v>
       </c>
       <c r="C91" t="n">
-        <v>2.5e-05</v>
+        <v>1.9e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>0.004767818158378045</v>
+        <v>0.003623541800367314</v>
       </c>
       <c r="E91" t="n">
-        <v>4.011763264905836e-08</v>
+        <v>3.048940081328435e-08</v>
       </c>
       <c r="F91" t="n">
-        <v>5.046651799977222e-08</v>
+        <v>3.835455367982688e-08</v>
       </c>
       <c r="G91" t="n">
-        <v>5.945225484243163e-07</v>
+        <v>4.518371368024803e-07</v>
       </c>
       <c r="H91" t="n">
-        <v>2.785561997080793e-13</v>
+        <v>2.117027117781402e-13</v>
       </c>
       <c r="I91" t="n">
-        <v>5.990219409931602e-12</v>
+        <v>4.552566751548017e-12</v>
       </c>
       <c r="J91" t="n">
-        <v>3.765262136705714e-06</v>
+        <v>2.861599223896342e-06</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0009799074416371818</v>
+        <v>0.000744729655644258</v>
       </c>
       <c r="L91" t="n">
-        <v>1.194120411574762e-08</v>
+        <v>9.075315127968191e-09</v>
       </c>
       <c r="M91" t="n">
-        <v>4.18099657258867e-12</v>
+        <v>3.177557395167389e-12</v>
       </c>
       <c r="N91" t="n">
-        <v>1.677936342166614e-07</v>
+        <v>1.275231620046627e-07</v>
       </c>
       <c r="O91" t="n">
-        <v>2.050197322280442e-05</v>
+        <v>1.558149964933136e-05</v>
       </c>
       <c r="P91" t="n">
-        <v>0.0003211285583879944</v>
+        <v>0.0002440577043748757</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.370140688321414e-12</v>
+        <v>1.801306923124275e-12</v>
       </c>
     </row>
     <row r="92">
@@ -11966,52 +11966,52 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5.507960344860502</v>
+        <v>7.151285011212679</v>
       </c>
       <c r="C95" t="n">
-        <v>454.059323</v>
+        <v>589.529958</v>
       </c>
       <c r="D95" t="n">
-        <v>59419.56070712068</v>
+        <v>77147.65307890683</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3268893166800109</v>
+        <v>0.4244182100694704</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7584929900419026</v>
+        <v>0.9847927746716418</v>
       </c>
       <c r="G95" t="n">
-        <v>8.024049552711704</v>
+        <v>10.41806071626471</v>
       </c>
       <c r="H95" t="n">
-        <v>1.892248802986798e-06</v>
+        <v>2.456809718122134e-06</v>
       </c>
       <c r="I95" t="n">
-        <v>3.50818508044698e-05</v>
+        <v>4.554867829753017e-05</v>
       </c>
       <c r="J95" t="n">
-        <v>37.6887078014308</v>
+        <v>48.93330276857188</v>
       </c>
       <c r="K95" t="n">
-        <v>9324.188529242318</v>
+        <v>12106.10198621184</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09677632768648858</v>
+        <v>0.1256499789927446</v>
       </c>
       <c r="M95" t="n">
-        <v>4.590229749697834e-05</v>
+        <v>5.959745377917754e-05</v>
       </c>
       <c r="N95" t="n">
-        <v>2.530326126713188</v>
+        <v>3.285260272494236</v>
       </c>
       <c r="O95" t="n">
-        <v>321.3301953056446</v>
+        <v>417.2004999061949</v>
       </c>
       <c r="P95" t="n">
-        <v>6327.630927093486</v>
+        <v>8215.507987023368</v>
       </c>
       <c r="Q95" t="n">
-        <v>4.38169238469082e-05</v>
+        <v>5.688989954988103e-05</v>
       </c>
     </row>
     <row r="96">
@@ -12186,52 +12186,52 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.4703868190524039</v>
+        <v>0.4672861243916239</v>
       </c>
       <c r="C99" t="n">
-        <v>38.67867599999999</v>
+        <v>38.42371399999998</v>
       </c>
       <c r="D99" t="n">
-        <v>5072.268386808689</v>
+        <v>5038.833020705734</v>
       </c>
       <c r="E99" t="n">
-        <v>0.02768482875894259</v>
+        <v>0.02750233597376976</v>
       </c>
       <c r="F99" t="n">
-        <v>0.06517984689166474</v>
+        <v>0.06475019453946962</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6848261484719185</v>
+        <v>0.6803119131742392</v>
       </c>
       <c r="H99" t="n">
-        <v>1.672839997483654e-07</v>
+        <v>1.661812974959966e-07</v>
       </c>
       <c r="I99" t="n">
-        <v>3.011640144049301e-06</v>
+        <v>2.991788022058178e-06</v>
       </c>
       <c r="J99" t="n">
-        <v>3.206502369324374</v>
+        <v>3.18536575500263</v>
       </c>
       <c r="K99" t="n">
-        <v>799.4821410224877</v>
+        <v>794.2121166390424</v>
       </c>
       <c r="L99" t="n">
-        <v>0.008583851881703844</v>
+        <v>0.008527268868276417</v>
       </c>
       <c r="M99" t="n">
-        <v>3.912882971106705e-06</v>
+        <v>3.887090038895703e-06</v>
       </c>
       <c r="N99" t="n">
-        <v>0.2161486932243978</v>
+        <v>0.2147238848074323</v>
       </c>
       <c r="O99" t="n">
-        <v>27.2266276007637</v>
+        <v>27.04715518484268</v>
       </c>
       <c r="P99" t="n">
-        <v>540.6239104137296</v>
+        <v>537.0602270692711</v>
       </c>
       <c r="Q99" t="n">
-        <v>3.741343128775007e-06</v>
+        <v>3.716680952468901e-06</v>
       </c>
     </row>
     <row r="100">
@@ -12241,52 +12241,52 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3.212430888296173e-07</v>
+        <v>1.873918018172767e-07</v>
       </c>
       <c r="C100" t="n">
-        <v>4.800000000000001e-05</v>
+        <v>2.8e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>0.002437561966152763</v>
+        <v>0.001421911146922445</v>
       </c>
       <c r="E100" t="n">
-        <v>2.280483986416542e-08</v>
+        <v>1.330282325409649e-08</v>
       </c>
       <c r="F100" t="n">
-        <v>8.282467062864703e-08</v>
+        <v>4.831439120004408e-08</v>
       </c>
       <c r="G100" t="n">
-        <v>7.427816977789297e-07</v>
+        <v>4.332893237043755e-07</v>
       </c>
       <c r="H100" t="n">
-        <v>9.463508854724248e-13</v>
+        <v>5.52038016525581e-13</v>
       </c>
       <c r="I100" t="n">
-        <v>3.098205260264977e-12</v>
+        <v>1.807286401821236e-12</v>
       </c>
       <c r="J100" t="n">
-        <v>4.949698418967478e-06</v>
+        <v>2.887324077731028e-06</v>
       </c>
       <c r="K100" t="n">
-        <v>0.00141168054919401</v>
+        <v>0.0008234803203631723</v>
       </c>
       <c r="L100" t="n">
-        <v>1.449029870336138e-09</v>
+        <v>8.452674243627472e-10</v>
       </c>
       <c r="M100" t="n">
-        <v>7.346833636801048e-12</v>
+        <v>4.285652954800609e-12</v>
       </c>
       <c r="N100" t="n">
-        <v>2.765695877288728e-07</v>
+        <v>1.61332259508509e-07</v>
       </c>
       <c r="O100" t="n">
-        <v>4.834824995405853e-05</v>
+        <v>2.820314580653413e-05</v>
       </c>
       <c r="P100" t="n">
-        <v>0.0006661395749099547</v>
+        <v>0.0003885814186974734</v>
       </c>
       <c r="Q100" t="n">
-        <v>4.104723351646727e-12</v>
+        <v>2.394421955127257e-12</v>
       </c>
     </row>
     <row r="101">
@@ -12296,52 +12296,52 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3.212430888296173e-07</v>
+        <v>1.873918018172767e-07</v>
       </c>
       <c r="C101" t="n">
-        <v>4.800000000000001e-05</v>
+        <v>2.8e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>0.002437561966152763</v>
+        <v>0.001421911146922445</v>
       </c>
       <c r="E101" t="n">
-        <v>2.280483986416542e-08</v>
+        <v>1.330282325409649e-08</v>
       </c>
       <c r="F101" t="n">
-        <v>8.282467062864703e-08</v>
+        <v>4.831439120004408e-08</v>
       </c>
       <c r="G101" t="n">
-        <v>7.427816977789297e-07</v>
+        <v>4.332893237043755e-07</v>
       </c>
       <c r="H101" t="n">
-        <v>9.463508854724248e-13</v>
+        <v>5.52038016525581e-13</v>
       </c>
       <c r="I101" t="n">
-        <v>3.098205260264977e-12</v>
+        <v>1.807286401821236e-12</v>
       </c>
       <c r="J101" t="n">
-        <v>4.949698418967478e-06</v>
+        <v>2.887324077731028e-06</v>
       </c>
       <c r="K101" t="n">
-        <v>0.00141168054919401</v>
+        <v>0.0008234803203631723</v>
       </c>
       <c r="L101" t="n">
-        <v>1.449029870336138e-09</v>
+        <v>8.452674243627472e-10</v>
       </c>
       <c r="M101" t="n">
-        <v>7.346833636801048e-12</v>
+        <v>4.285652954800609e-12</v>
       </c>
       <c r="N101" t="n">
-        <v>2.765695877288728e-07</v>
+        <v>1.61332259508509e-07</v>
       </c>
       <c r="O101" t="n">
-        <v>4.834824995405853e-05</v>
+        <v>2.820314580653413e-05</v>
       </c>
       <c r="P101" t="n">
-        <v>0.0006661395749099547</v>
+        <v>0.0003885814186974734</v>
       </c>
       <c r="Q101" t="n">
-        <v>4.104723351646727e-12</v>
+        <v>2.394421955127257e-12</v>
       </c>
     </row>
     <row r="102">
@@ -12351,52 +12351,52 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.05269213188503024</v>
+        <v>0.05268379964241374</v>
       </c>
       <c r="C102" t="n">
-        <v>7.873235</v>
+        <v>7.871990000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>399.8228788871405</v>
+        <v>399.7596546236435</v>
       </c>
       <c r="E102" t="n">
-        <v>0.003740580487248799</v>
+        <v>0.003739988986714823</v>
       </c>
       <c r="F102" t="n">
-        <v>0.01358537699285282</v>
+        <v>0.0135832287279584</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1218353095898436</v>
+        <v>0.1218160436895574</v>
       </c>
       <c r="H102" t="n">
-        <v>1.552258940371351e-07</v>
+        <v>1.552013480610432e-07</v>
       </c>
       <c r="I102" t="n">
-        <v>5.08185376922965e-07</v>
+        <v>5.081050172240269e-07</v>
       </c>
       <c r="J102" t="n">
-        <v>0.8118778923262374</v>
+        <v>0.8117495095234957</v>
       </c>
       <c r="K102" t="n">
-        <v>231.5519314319479</v>
+        <v>231.5153159677032</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0002376781810661655</v>
+        <v>0.0002376405968539037</v>
       </c>
       <c r="M102" t="n">
-        <v>1.205069744342485e-06</v>
+        <v>1.204879185845031e-06</v>
       </c>
       <c r="N102" t="n">
-        <v>0.04536452829255273</v>
+        <v>0.04535735476887102</v>
       </c>
       <c r="O102" t="n">
-        <v>7.930356952646707</v>
+        <v>7.929102919913525</v>
       </c>
       <c r="P102" t="n">
-        <v>109.2640295013787</v>
+        <v>109.2467515061545</v>
       </c>
       <c r="Q102" t="n">
-        <v>6.732802407812981e-07</v>
+        <v>6.731737745193649e-07</v>
       </c>
     </row>
     <row r="103">
@@ -12406,52 +12406,52 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.07045417759387479</v>
+        <v>0.0704549472387751</v>
       </c>
       <c r="C103" t="n">
-        <v>10.527232</v>
+        <v>10.527347</v>
       </c>
       <c r="D103" t="n">
-        <v>534.5995902513808</v>
+        <v>534.6054302435914</v>
       </c>
       <c r="E103" t="n">
-        <v>0.005001496666102454</v>
+        <v>0.005001551302697962</v>
       </c>
       <c r="F103" t="n">
-        <v>0.01816488589648652</v>
+        <v>0.01816508433059323</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1629049012056808</v>
+        <v>0.1629066807868317</v>
       </c>
       <c r="H103" t="n">
-        <v>2.075511525994509e-07</v>
+        <v>2.075534198984474e-07</v>
       </c>
       <c r="I103" t="n">
-        <v>6.794901158006206e-07</v>
+        <v>6.794975385840566e-07</v>
       </c>
       <c r="J103" t="n">
-        <v>1.085554658052163</v>
+        <v>1.085566516704625</v>
       </c>
       <c r="K103" t="n">
-        <v>309.6060135677658</v>
+        <v>309.6093957190815</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0003177973670824676</v>
+        <v>0.000317800838716532</v>
       </c>
       <c r="M103" t="n">
-        <v>1.611287961666841e-06</v>
+        <v>1.611305563455762e-06</v>
       </c>
       <c r="N103" t="n">
-        <v>0.06065650446179575</v>
+        <v>0.06065716707643302</v>
       </c>
       <c r="O103" t="n">
-        <v>10.60360925125757</v>
+        <v>10.60372508560642</v>
       </c>
       <c r="P103" t="n">
-        <v>146.0959551970515</v>
+        <v>146.0975511564497</v>
       </c>
       <c r="Q103" t="n">
-        <v>9.002369795542223e-07</v>
+        <v>9.002468137872523e-07</v>
       </c>
     </row>
     <row r="104">
@@ -12461,52 +12461,52 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.01538041637390526</v>
+        <v>0.01538049668467747</v>
       </c>
       <c r="C104" t="n">
-        <v>2.298135</v>
+        <v>2.298147</v>
       </c>
       <c r="D104" t="n">
-        <v>116.7051347725933</v>
+        <v>116.7057441630848</v>
       </c>
       <c r="E104" t="n">
-        <v>0.001091845847109037</v>
+        <v>0.001091851548319003</v>
       </c>
       <c r="F104" t="n">
-        <v>0.003965464050732618</v>
+        <v>0.003965484756900276</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03556276285469125</v>
+        <v>0.0355629485501157</v>
       </c>
       <c r="H104" t="n">
-        <v>4.530921025385772e-08</v>
+        <v>4.530944684157909e-08</v>
       </c>
       <c r="I104" t="n">
-        <v>1.483352905374802e-07</v>
+        <v>1.483360650887953e-07</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2369807328348713</v>
+        <v>0.236981970259476</v>
       </c>
       <c r="K104" t="n">
-        <v>67.58817664420782</v>
+        <v>67.58852956434514</v>
       </c>
       <c r="L104" t="n">
-        <v>6.937638043885293e-05</v>
+        <v>6.937674269632052e-05</v>
       </c>
       <c r="M104" t="n">
-        <v>3.517503233314535e-07</v>
+        <v>3.517521600398628e-07</v>
       </c>
       <c r="N104" t="n">
-        <v>0.01324154686448527</v>
+        <v>0.0132416160068822</v>
       </c>
       <c r="O104" t="n">
-        <v>2.314808446003547</v>
+        <v>2.314820533066036</v>
       </c>
       <c r="P104" t="n">
-        <v>31.89330566636851</v>
+        <v>31.89347220126223</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.965251749945135e-07</v>
+        <v>1.965262011753514e-07</v>
       </c>
     </row>
     <row r="105">
@@ -12516,52 +12516,52 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.003506261233545663</v>
+        <v>0.003506241155852609</v>
       </c>
       <c r="C105" t="n">
-        <v>0.523904</v>
+        <v>0.5239009999999998</v>
       </c>
       <c r="D105" t="n">
-        <v>26.60517633990202</v>
+        <v>26.60502399227912</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0002489072255040774</v>
+        <v>0.0002489058002015858</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0009040036716881393</v>
+        <v>0.0009039984951462245</v>
       </c>
       <c r="G105" t="n">
-        <v>0.008107214637357757</v>
+        <v>0.008107168213501641</v>
       </c>
       <c r="H105" t="n">
-        <v>1.032910446463636e-08</v>
+        <v>1.032904531770601e-08</v>
       </c>
       <c r="I105" t="n">
-        <v>3.381587768070546e-08</v>
+        <v>3.381568404287668e-08</v>
       </c>
       <c r="J105" t="n">
-        <v>0.05402430834355702</v>
+        <v>0.05402399898740581</v>
       </c>
       <c r="K105" t="n">
-        <v>15.40802263426955</v>
+        <v>15.40793440423522</v>
       </c>
       <c r="L105" t="n">
-        <v>1.581567802476217e-05</v>
+        <v>1.581558746039527e-05</v>
       </c>
       <c r="M105" t="n">
-        <v>8.018824020113781e-08</v>
+        <v>8.018778102403548e-08</v>
       </c>
       <c r="N105" t="n">
-        <v>0.003018664860198069</v>
+        <v>0.003018647574598835</v>
       </c>
       <c r="O105" t="n">
-        <v>0.5277050321652308</v>
+        <v>0.5277020103996084</v>
       </c>
       <c r="P105" t="n">
-        <v>7.270691413617183</v>
+        <v>7.270649779893748</v>
       </c>
       <c r="Q105" t="n">
-        <v>4.48016871421068e-08</v>
+        <v>4.48014305968973e-08</v>
       </c>
     </row>
     <row r="106">
@@ -12571,52 +12571,52 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3.212430888296173e-07</v>
+        <v>1.873918018172767e-07</v>
       </c>
       <c r="C106" t="n">
-        <v>4.800000000000001e-05</v>
+        <v>2.8e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>0.002437561966152763</v>
+        <v>0.001421911146922445</v>
       </c>
       <c r="E106" t="n">
-        <v>2.280483986416542e-08</v>
+        <v>1.330282325409649e-08</v>
       </c>
       <c r="F106" t="n">
-        <v>8.282467062864703e-08</v>
+        <v>4.831439120004408e-08</v>
       </c>
       <c r="G106" t="n">
-        <v>7.427816977789297e-07</v>
+        <v>4.332893237043755e-07</v>
       </c>
       <c r="H106" t="n">
-        <v>9.463508854724248e-13</v>
+        <v>5.52038016525581e-13</v>
       </c>
       <c r="I106" t="n">
-        <v>3.098205260264977e-12</v>
+        <v>1.807286401821236e-12</v>
       </c>
       <c r="J106" t="n">
-        <v>4.949698418967478e-06</v>
+        <v>2.887324077731028e-06</v>
       </c>
       <c r="K106" t="n">
-        <v>0.00141168054919401</v>
+        <v>0.0008234803203631723</v>
       </c>
       <c r="L106" t="n">
-        <v>1.449029870336138e-09</v>
+        <v>8.452674243627472e-10</v>
       </c>
       <c r="M106" t="n">
-        <v>7.346833636801048e-12</v>
+        <v>4.285652954800609e-12</v>
       </c>
       <c r="N106" t="n">
-        <v>2.765695877288728e-07</v>
+        <v>1.61332259508509e-07</v>
       </c>
       <c r="O106" t="n">
-        <v>4.834824995405853e-05</v>
+        <v>2.820314580653413e-05</v>
       </c>
       <c r="P106" t="n">
-        <v>0.0006661395749099547</v>
+        <v>0.0003885814186974734</v>
       </c>
       <c r="Q106" t="n">
-        <v>4.104723351646727e-12</v>
+        <v>2.394421955127257e-12</v>
       </c>
     </row>
     <row r="107">
@@ -12626,52 +12626,52 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3.212430888296173e-07</v>
+        <v>1.873918018172767e-07</v>
       </c>
       <c r="C107" t="n">
-        <v>4.800000000000001e-05</v>
+        <v>2.8e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>0.002437561966152763</v>
+        <v>0.001421911146922445</v>
       </c>
       <c r="E107" t="n">
-        <v>2.280483986416542e-08</v>
+        <v>1.330282325409649e-08</v>
       </c>
       <c r="F107" t="n">
-        <v>8.282467062864703e-08</v>
+        <v>4.831439120004408e-08</v>
       </c>
       <c r="G107" t="n">
-        <v>7.427816977789297e-07</v>
+        <v>4.332893237043755e-07</v>
       </c>
       <c r="H107" t="n">
-        <v>9.463508854724248e-13</v>
+        <v>5.52038016525581e-13</v>
       </c>
       <c r="I107" t="n">
-        <v>3.098205260264977e-12</v>
+        <v>1.807286401821236e-12</v>
       </c>
       <c r="J107" t="n">
-        <v>4.949698418967478e-06</v>
+        <v>2.887324077731028e-06</v>
       </c>
       <c r="K107" t="n">
-        <v>0.00141168054919401</v>
+        <v>0.0008234803203631723</v>
       </c>
       <c r="L107" t="n">
-        <v>1.449029870336138e-09</v>
+        <v>8.452674243627472e-10</v>
       </c>
       <c r="M107" t="n">
-        <v>7.346833636801048e-12</v>
+        <v>4.285652954800609e-12</v>
       </c>
       <c r="N107" t="n">
-        <v>2.765695877288728e-07</v>
+        <v>1.61332259508509e-07</v>
       </c>
       <c r="O107" t="n">
-        <v>4.834824995405853e-05</v>
+        <v>2.820314580653413e-05</v>
       </c>
       <c r="P107" t="n">
-        <v>0.0006661395749099547</v>
+        <v>0.0003885814186974734</v>
       </c>
       <c r="Q107" t="n">
-        <v>4.104723351646727e-12</v>
+        <v>2.394421955127257e-12</v>
       </c>
     </row>
     <row r="108">
@@ -12681,52 +12681,52 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.002646152940897413</v>
+        <v>0.002646179711154814</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3953869999999998</v>
+        <v>0.3953909999999995</v>
       </c>
       <c r="D108" t="n">
-        <v>20.07875652315087</v>
+        <v>20.0789596533147</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0001878486920702659</v>
+        <v>0.0001878505924735878</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0006822457926218507</v>
+        <v>0.0006822526946777361</v>
       </c>
       <c r="G108" t="n">
-        <v>0.006118463065410779</v>
+        <v>0.006118524963885591</v>
       </c>
       <c r="H108" t="n">
-        <v>7.795309115714277e-09</v>
+        <v>7.795387978288063e-09</v>
       </c>
       <c r="I108" t="n">
-        <v>2.552062673417473e-08</v>
+        <v>2.552088491794641e-08</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04077180018292276</v>
+        <v>0.04077221265779098</v>
       </c>
       <c r="K108" t="n">
-        <v>11.62833619383691</v>
+        <v>11.62845383388267</v>
       </c>
       <c r="L108" t="n">
-        <v>1.193599111130405e-05</v>
+        <v>1.193611186379324e-05</v>
       </c>
       <c r="M108" t="n">
-        <v>6.051755231570526e-08</v>
+        <v>6.051816455184163e-08</v>
       </c>
       <c r="N108" t="n">
-        <v>0.002278167074653244</v>
+        <v>0.002278190122118887</v>
       </c>
       <c r="O108" t="n">
-        <v>0.3982556146788609</v>
+        <v>0.3982596436996902</v>
       </c>
       <c r="P108" t="n">
-        <v>5.487144335519209</v>
+        <v>5.487199847150448</v>
       </c>
       <c r="Q108" t="n">
-        <v>3.381154691328215e-08</v>
+        <v>3.381188897356143e-08</v>
       </c>
     </row>
     <row r="109">
@@ -12736,52 +12736,52 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3.212430888296173e-07</v>
+        <v>1.873918018172767e-07</v>
       </c>
       <c r="C109" t="n">
-        <v>4.800000000000001e-05</v>
+        <v>2.8e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>0.002437561966152763</v>
+        <v>0.001421911146922445</v>
       </c>
       <c r="E109" t="n">
-        <v>2.280483986416542e-08</v>
+        <v>1.330282325409649e-08</v>
       </c>
       <c r="F109" t="n">
-        <v>8.282467062864703e-08</v>
+        <v>4.831439120004408e-08</v>
       </c>
       <c r="G109" t="n">
-        <v>7.427816977789297e-07</v>
+        <v>4.332893237043755e-07</v>
       </c>
       <c r="H109" t="n">
-        <v>9.463508854724248e-13</v>
+        <v>5.52038016525581e-13</v>
       </c>
       <c r="I109" t="n">
-        <v>3.098205260264977e-12</v>
+        <v>1.807286401821236e-12</v>
       </c>
       <c r="J109" t="n">
-        <v>4.949698418967478e-06</v>
+        <v>2.887324077731028e-06</v>
       </c>
       <c r="K109" t="n">
-        <v>0.00141168054919401</v>
+        <v>0.0008234803203631723</v>
       </c>
       <c r="L109" t="n">
-        <v>1.449029870336138e-09</v>
+        <v>8.452674243627472e-10</v>
       </c>
       <c r="M109" t="n">
-        <v>7.346833636801048e-12</v>
+        <v>4.285652954800609e-12</v>
       </c>
       <c r="N109" t="n">
-        <v>2.765695877288728e-07</v>
+        <v>1.61332259508509e-07</v>
       </c>
       <c r="O109" t="n">
-        <v>4.834824995405853e-05</v>
+        <v>2.820314580653413e-05</v>
       </c>
       <c r="P109" t="n">
-        <v>0.0006661395749099547</v>
+        <v>0.0003885814186974734</v>
       </c>
       <c r="Q109" t="n">
-        <v>4.104723351646727e-12</v>
+        <v>2.394421955127257e-12</v>
       </c>
     </row>
     <row r="110">
@@ -12791,52 +12791,52 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2.188468542651768e-06</v>
+        <v>1.291664919669086e-06</v>
       </c>
       <c r="C110" t="n">
-        <v>0.000327</v>
+        <v>0.000193</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0166058908944157</v>
+        <v>0.009801030405572566</v>
       </c>
       <c r="E110" t="n">
-        <v>1.553579715746269e-07</v>
+        <v>9.169446028716509e-08</v>
       </c>
       <c r="F110" t="n">
-        <v>5.642430686576578e-07</v>
+        <v>3.330241964860182e-07</v>
       </c>
       <c r="G110" t="n">
-        <v>5.060200316118957e-06</v>
+        <v>2.986601409819446e-06</v>
       </c>
       <c r="H110" t="n">
-        <v>6.447015407280893e-12</v>
+        <v>3.80511918533704e-12</v>
       </c>
       <c r="I110" t="n">
-        <v>2.110652333555515e-11</v>
+        <v>1.245736698398209e-11</v>
       </c>
       <c r="J110" t="n">
-        <v>3.371982047921593e-05</v>
+        <v>1.990191239293173e-05</v>
       </c>
       <c r="K110" t="n">
-        <v>0.009617073741384192</v>
+        <v>0.005676132208217582</v>
       </c>
       <c r="L110" t="n">
-        <v>9.871515991664941e-09</v>
+        <v>5.826307603643223e-09</v>
       </c>
       <c r="M110" t="n">
-        <v>5.005030415070712e-11</v>
+        <v>2.95403935813042e-11</v>
       </c>
       <c r="N110" t="n">
-        <v>1.884130316402945e-06</v>
+        <v>1.112040217326509e-06</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0003293724528120237</v>
+        <v>0.0001944002550236103</v>
       </c>
       <c r="P110" t="n">
-        <v>0.004538075854074065</v>
+        <v>0.002678436207450442</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.796342783309332e-11</v>
+        <v>1.650440847641288e-11</v>
       </c>
     </row>
     <row r="111">
@@ -12846,52 +12846,52 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1.878109564532995</v>
+        <v>1.877951894409458</v>
       </c>
       <c r="C111" t="n">
-        <v>280.626299</v>
+        <v>280.60274</v>
       </c>
       <c r="D111" t="n">
-        <v>14250.9165238461</v>
+        <v>14249.72013796359</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1333257877160084</v>
+        <v>0.1333145948155425</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4842245996752336</v>
+        <v>0.4841839482915806</v>
       </c>
       <c r="G111" t="n">
-        <v>4.342584975263282</v>
+        <v>4.34222040872124</v>
       </c>
       <c r="H111" t="n">
-        <v>5.532728053031237e-06</v>
+        <v>5.532263572187261e-06</v>
       </c>
       <c r="I111" t="n">
-        <v>1.811328907771858e-05</v>
+        <v>1.811176843984928e-05</v>
       </c>
       <c r="J111" t="n">
-        <v>28.93782392668738</v>
+        <v>28.93539455283212</v>
       </c>
       <c r="K111" t="n">
-        <v>8253.222664387551</v>
+        <v>8252.529793927999</v>
       </c>
       <c r="L111" t="n">
-        <v>0.008471581034435008</v>
+        <v>0.008470869832461772</v>
       </c>
       <c r="M111" t="n">
-        <v>4.295239026800391e-05</v>
+        <v>4.294878435021954e-05</v>
       </c>
       <c r="N111" t="n">
-        <v>1.616931246256445</v>
+        <v>1.616795502445668</v>
       </c>
       <c r="O111" t="n">
-        <v>282.6623009944659</v>
+        <v>282.6385710690353</v>
       </c>
       <c r="P111" t="n">
-        <v>3894.505906758621</v>
+        <v>3894.17895712851</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.399777755398951e-05</v>
+        <v>2.399576290445947e-05</v>
       </c>
     </row>
     <row r="112">
@@ -12901,52 +12901,52 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4.617869401925748e-07</v>
+        <v>3.145505244790002e-07</v>
       </c>
       <c r="C112" t="n">
-        <v>6.9e-05</v>
+        <v>4.7e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>0.003503995326344596</v>
+        <v>0.002386779425191246</v>
       </c>
       <c r="E112" t="n">
-        <v>3.278195730473778e-08</v>
+        <v>2.232973903366196e-08</v>
       </c>
       <c r="F112" t="n">
-        <v>1.190604640286801e-07</v>
+        <v>8.109915665721685e-08</v>
       </c>
       <c r="G112" t="n">
-        <v>1.067748690557211e-06</v>
+        <v>7.273070790752018e-07</v>
       </c>
       <c r="H112" t="n">
-        <v>1.36037939786661e-12</v>
+        <v>9.266352420250823e-13</v>
       </c>
       <c r="I112" t="n">
-        <v>4.453670061630903e-12</v>
+        <v>3.033659317342789e-12</v>
       </c>
       <c r="J112" t="n">
-        <v>7.115191477265747e-06</v>
+        <v>4.846579701905654e-06</v>
       </c>
       <c r="K112" t="n">
-        <v>0.002029290789466389</v>
+        <v>0.001382270537752468</v>
       </c>
       <c r="L112" t="n">
-        <v>2.082980438608198e-09</v>
+        <v>1.418841748037468e-09</v>
       </c>
       <c r="M112" t="n">
-        <v>1.05610733529015e-11</v>
+        <v>7.193774602701023e-12</v>
       </c>
       <c r="N112" t="n">
-        <v>3.975687823602544e-07</v>
+        <v>2.708077213178545e-07</v>
       </c>
       <c r="O112" t="n">
-        <v>6.950060930895912e-05</v>
+        <v>4.73409947466823e-05</v>
       </c>
       <c r="P112" t="n">
-        <v>0.0009575756389330596</v>
+        <v>0.0006522616670993304</v>
       </c>
       <c r="Q112" t="n">
-        <v>5.900539817992168e-12</v>
+        <v>4.019208281820752e-12</v>
       </c>
     </row>
     <row r="113">
@@ -12956,52 +12956,52 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2.377914173829749e-08</v>
+        <v>1.585276115886499e-08</v>
       </c>
       <c r="C113" t="n">
-        <v>3e-06</v>
+        <v>2e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0001609315248206454</v>
+        <v>0.0001072876832137636</v>
       </c>
       <c r="E113" t="n">
-        <v>1.318224401137722e-09</v>
+        <v>8.788162674251478e-10</v>
       </c>
       <c r="F113" t="n">
-        <v>4.857760933153671e-09</v>
+        <v>3.238507288769113e-09</v>
       </c>
       <c r="G113" t="n">
-        <v>4.084291177070966e-08</v>
+        <v>2.722860784713977e-08</v>
       </c>
       <c r="H113" t="n">
-        <v>3.059535057224625e-14</v>
+        <v>2.03969003814975e-14</v>
       </c>
       <c r="I113" t="n">
-        <v>2.399695405632752e-13</v>
+        <v>1.599796937088501e-13</v>
       </c>
       <c r="J113" t="n">
-        <v>1.774560553999869e-07</v>
+        <v>1.183040369333246e-07</v>
       </c>
       <c r="K113" t="n">
-        <v>3.040128993850101e-05</v>
+        <v>2.026752662566734e-05</v>
       </c>
       <c r="L113" t="n">
-        <v>2.876745281179835e-10</v>
+        <v>1.917830187453223e-10</v>
       </c>
       <c r="M113" t="n">
-        <v>3.458665045335459e-13</v>
+        <v>2.305776696890306e-13</v>
       </c>
       <c r="N113" t="n">
-        <v>1.393468305600048e-08</v>
+        <v>9.289788704000316e-09</v>
       </c>
       <c r="O113" t="n">
-        <v>2.552479606248884e-06</v>
+        <v>1.701653070832589e-06</v>
       </c>
       <c r="P113" t="n">
-        <v>3.591848875495346e-05</v>
+        <v>2.394565916996897e-05</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.947216156236598e-13</v>
+        <v>1.298144104157731e-13</v>
       </c>
     </row>
     <row r="114">
@@ -13011,52 +13011,52 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1.266425219681816</v>
+        <v>1.266463979929592</v>
       </c>
       <c r="C114" t="n">
-        <v>166.078386</v>
+        <v>166.083469</v>
       </c>
       <c r="D114" t="n">
-        <v>9549.166609485967</v>
+        <v>9549.458871561996</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07858253938375259</v>
+        <v>0.07858494448328003</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2918898739864568</v>
+        <v>0.2918988075765838</v>
       </c>
       <c r="G114" t="n">
-        <v>2.505998397444414</v>
+        <v>2.506075096105576</v>
       </c>
       <c r="H114" t="n">
-        <v>1.535107056760666e-06</v>
+        <v>1.535154040292704e-06</v>
       </c>
       <c r="I114" t="n">
-        <v>1.300147029301227e-05</v>
+        <v>1.300186821639707e-05</v>
       </c>
       <c r="J114" t="n">
-        <v>13.64824350671449</v>
+        <v>13.64866122525942</v>
       </c>
       <c r="K114" t="n">
-        <v>4666.727617064749</v>
+        <v>4666.870447068392</v>
       </c>
       <c r="L114" t="n">
-        <v>0.01334174408489665</v>
+        <v>0.0133421524227112</v>
       </c>
       <c r="M114" t="n">
-        <v>2.563159943157763e-05</v>
+        <v>2.563238391306886e-05</v>
       </c>
       <c r="N114" t="n">
-        <v>0.951227011184261</v>
+        <v>0.9512561244663339</v>
       </c>
       <c r="O114" t="n">
-        <v>135.2875752007529</v>
+        <v>135.2917158162858</v>
       </c>
       <c r="P114" t="n">
-        <v>2327.459455169421</v>
+        <v>2327.530689462429</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.79864409901582e-05</v>
+        <v>1.798699148370378e-05</v>
       </c>
     </row>
   </sheetData>
@@ -13172,52 +13172,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.557759841743336e-06</v>
+        <v>-1.233610604457529e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.001013999999999959</v>
+        <v>-0.0008029999999999904</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.007802197058246647</v>
+        <v>-0.006178662956382876</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.739383661801766e-08</v>
+        <v>-2.169354122708955e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.953873746951568e-07</v>
+        <v>-3.131124870613609e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.622066073960004e-06</v>
+        <v>-2.868361989536456e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.76877806523257e-13</v>
+        <v>-2.192631939232561e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.735417802714524e-12</v>
+        <v>-3.750039936469301e-12</v>
       </c>
       <c r="J2" t="n">
-        <v>-8.312851837632636e-05</v>
+        <v>-6.583057224476526e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.001442000378852566</v>
+        <v>-0.001141939156034166</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.222289672598052e-09</v>
+        <v>-4.927513419227198e-09</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.029644242194385e-11</v>
+        <v>-8.153888821322627e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.034164272844583e-06</v>
+        <v>-1.610881569126476e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0009822606519618521</v>
+        <v>-0.0007778651908534416</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01847994909082361</v>
+        <v>-0.01463451589736862</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.393737486497205e-10</v>
+        <v>-1.103719133784307e-10</v>
       </c>
     </row>
     <row r="3">
@@ -13337,52 +13337,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.796756341627676e-07</v>
+        <v>5.51067544216497e-07</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.199999999999064e-05</v>
+        <v>-1.799999999999278e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005401775622781262</v>
+        <v>0.00303849878781413</v>
       </c>
       <c r="E5" t="n">
-        <v>1.013191276053459e-08</v>
+        <v>5.699200927800088e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>8.370132698046159e-07</v>
+        <v>4.708199642650454e-07</v>
       </c>
       <c r="G5" t="n">
-        <v>4.017432892456456e-06</v>
+        <v>2.259806002006511e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>5.692613122475134e-14</v>
+        <v>3.202094881391915e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7708303816883e-12</v>
+        <v>1.5585920896995e-12</v>
       </c>
       <c r="J5" t="n">
-        <v>2.763835222481891e-06</v>
+        <v>1.554657312645895e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01035334204526409</v>
+        <v>0.005823754900460419</v>
       </c>
       <c r="L5" t="n">
-        <v>6.634281203683785e-10</v>
+        <v>3.731783177071724e-10</v>
       </c>
       <c r="M5" t="n">
-        <v>7.535150141133678e-12</v>
+        <v>4.238521954387235e-12</v>
       </c>
       <c r="N5" t="n">
-        <v>1.579493145047966e-07</v>
+        <v>8.884648940893844e-08</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0004694259728927576</v>
+        <v>0.0002640521097521474</v>
       </c>
       <c r="P5" t="n">
-        <v>0.000511322086777398</v>
+        <v>0.0002876186738122552</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.594791349055607e-12</v>
+        <v>4.272070133843316e-12</v>
       </c>
     </row>
     <row r="6">
@@ -13447,52 +13447,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.844015466759688e-07</v>
+        <v>4.422007733379844e-07</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.199999999999365e-05</v>
+        <v>-1.099999999999683e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003502422268889824</v>
+        <v>0.001751211134444912</v>
       </c>
       <c r="E7" t="n">
-        <v>1.035805863830011e-08</v>
+        <v>5.179029319150054e-09</v>
       </c>
       <c r="F7" t="n">
-        <v>8.173533329374825e-07</v>
+        <v>4.086766664687413e-07</v>
       </c>
       <c r="G7" t="n">
-        <v>3.546734630311559e-06</v>
+        <v>1.773367315155779e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>4.674691617878637e-14</v>
+        <v>2.337345808939319e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>2.821326446195079e-12</v>
+        <v>1.410663223097539e-12</v>
       </c>
       <c r="J7" t="n">
-        <v>3.788900853265972e-06</v>
+        <v>1.894450426632986e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.009254125779829798</v>
+        <v>0.004627062889914899</v>
       </c>
       <c r="L7" t="n">
-        <v>6.277945720327524e-10</v>
+        <v>3.138972860163762e-10</v>
       </c>
       <c r="M7" t="n">
-        <v>7.432696304129169e-12</v>
+        <v>3.716348152064584e-12</v>
       </c>
       <c r="N7" t="n">
-        <v>1.708874723483865e-07</v>
+        <v>8.544373617419327e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0004624878297044521</v>
+        <v>0.0002312439148522261</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0006625912240206397</v>
+        <v>0.0003312956120103199</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.230538831809183e-12</v>
+        <v>3.615269415904592e-12</v>
       </c>
     </row>
     <row r="8">
@@ -13722,52 +13722,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.50959591535633</v>
+        <v>13.51201434668031</v>
       </c>
       <c r="C12" t="n">
-        <v>1281.640954</v>
+        <v>1281.870388</v>
       </c>
       <c r="D12" t="n">
-        <v>237631.8108429429</v>
+        <v>237674.3506952461</v>
       </c>
       <c r="E12" t="n">
-        <v>6.484725517832085</v>
+        <v>6.485886386256127</v>
       </c>
       <c r="F12" t="n">
-        <v>5.37281291767539</v>
+        <v>5.373774736159035</v>
       </c>
       <c r="G12" t="n">
-        <v>47.68691729373544</v>
+        <v>47.69545400610269</v>
       </c>
       <c r="H12" t="n">
-        <v>1.686013721949526e-06</v>
+        <v>1.686315545070171e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>8.810630273106289e-05</v>
+        <v>8.812207515265859e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>62.66718129999512</v>
+        <v>62.67839971653333</v>
       </c>
       <c r="K12" t="n">
-        <v>25161.60861903735</v>
+        <v>25166.11294491262</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004928405451872659</v>
+        <v>0.004929287714391594</v>
       </c>
       <c r="M12" t="n">
-        <v>8.14183072582466e-05</v>
+        <v>8.143288242288158e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>11.247170941766</v>
+        <v>11.24918436323931</v>
       </c>
       <c r="O12" t="n">
-        <v>365.092082601268</v>
+        <v>365.1574398580083</v>
       </c>
       <c r="P12" t="n">
-        <v>135358.2093753826</v>
+        <v>135382.4406355596</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0001048023599528248</v>
+        <v>0.0001048211212327124</v>
       </c>
     </row>
     <row r="13">
@@ -13777,52 +13777,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.39506090996023</v>
+        <v>24.05639018977737</v>
       </c>
       <c r="C13" t="n">
-        <v>1590.176971</v>
+        <v>1787.97891</v>
       </c>
       <c r="D13" t="n">
-        <v>98670.50454685751</v>
+        <v>110944.1177845106</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05232899076982808</v>
+        <v>0.05883818819184575</v>
       </c>
       <c r="F13" t="n">
-        <v>2.800839118141389</v>
+        <v>3.149235188829685</v>
       </c>
       <c r="G13" t="n">
-        <v>28.94121799323913</v>
+        <v>32.5412129249255</v>
       </c>
       <c r="H13" t="n">
-        <v>7.660399872502022e-07</v>
+        <v>8.613276172391696e-07</v>
       </c>
       <c r="I13" t="n">
-        <v>2.210340386081694e-05</v>
+        <v>2.485284384259471e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>827.7890662035004</v>
+        <v>930.7576573503607</v>
       </c>
       <c r="K13" t="n">
-        <v>27703.75410534616</v>
+        <v>31149.82103975197</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003507413763859392</v>
+        <v>0.003943700577226076</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0001153683527984861</v>
+        <v>0.0001297190095486125</v>
       </c>
       <c r="N13" t="n">
-        <v>11.87576477573124</v>
+        <v>13.35298985356035</v>
       </c>
       <c r="O13" t="n">
-        <v>384.0927626604493</v>
+        <v>431.8700192775706</v>
       </c>
       <c r="P13" t="n">
-        <v>179809.8116491415</v>
+        <v>202176.3343972721</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.003051574991701388</v>
+        <v>0.003431160070199196</v>
       </c>
     </row>
     <row r="14">
@@ -13832,52 +13832,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.2590011695583</v>
+        <v>11.25885246952628</v>
       </c>
       <c r="C14" t="n">
-        <v>1549.834871</v>
+        <v>1549.814402</v>
       </c>
       <c r="D14" t="n">
-        <v>96278.26056778537</v>
+        <v>96276.98900024456</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4056099562479013</v>
+        <v>0.4056045992706195</v>
       </c>
       <c r="F14" t="n">
-        <v>3.308719287039965</v>
+        <v>3.308675588077996</v>
       </c>
       <c r="G14" t="n">
-        <v>33.53706550681266</v>
+        <v>33.53662257562902</v>
       </c>
       <c r="H14" t="n">
-        <v>4.227610969571979e-06</v>
+        <v>4.227555134611393e-06</v>
       </c>
       <c r="I14" t="n">
-        <v>7.422445398309902e-05</v>
+        <v>7.422347368488984e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>3172.064713332812</v>
+        <v>3172.022819196971</v>
       </c>
       <c r="K14" t="n">
-        <v>90324.27395457363</v>
+        <v>90323.08102260508</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08286819062372737</v>
+        <v>0.0828670961658431</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0001629693475630844</v>
+        <v>0.0001629671951921204</v>
       </c>
       <c r="N14" t="n">
-        <v>8.45142094973467</v>
+        <v>8.451309330013977</v>
       </c>
       <c r="O14" t="n">
-        <v>3560.681498661223</v>
+        <v>3560.634471980535</v>
       </c>
       <c r="P14" t="n">
-        <v>75206.22590349292</v>
+        <v>75205.23263881239</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0001913945602601766</v>
+        <v>0.0001913920324713603</v>
       </c>
     </row>
     <row r="15">
@@ -13942,52 +13942,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.88448930776067</v>
+        <v>13.88322235824559</v>
       </c>
       <c r="C16" t="n">
-        <v>7116.659664999999</v>
+        <v>7116.010274999999</v>
       </c>
       <c r="D16" t="n">
-        <v>116802.1840826714</v>
+        <v>116791.5259686275</v>
       </c>
       <c r="E16" t="n">
-        <v>0.206276202630715</v>
+        <v>0.2062573800777854</v>
       </c>
       <c r="F16" t="n">
-        <v>5.246514244825861</v>
+        <v>5.246035504230438</v>
       </c>
       <c r="G16" t="n">
-        <v>55.0664666261394</v>
+        <v>55.06144185125263</v>
       </c>
       <c r="H16" t="n">
-        <v>3.255938051733697e-06</v>
+        <v>3.255640949762977e-06</v>
       </c>
       <c r="I16" t="n">
-        <v>3.767994112172389e-05</v>
+        <v>3.767650285459901e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>3287.158872615667</v>
+        <v>3286.85892176783</v>
       </c>
       <c r="K16" t="n">
-        <v>11728.79647560756</v>
+        <v>11727.72623148998</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01059504965821462</v>
+        <v>0.01059408286766661</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0001230570469843452</v>
+        <v>0.0001230458181186268</v>
       </c>
       <c r="N16" t="n">
-        <v>41.96824444800628</v>
+        <v>41.96441487633291</v>
       </c>
       <c r="O16" t="n">
-        <v>744.3388128876155</v>
+        <v>744.2708925142304</v>
       </c>
       <c r="P16" t="n">
-        <v>529176.941852251</v>
+        <v>529128.6548425517</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.006566643983976306</v>
+        <v>0.006566044782505744</v>
       </c>
     </row>
     <row r="17">
@@ -13997,52 +13997,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.95949287540389</v>
+        <v>11.95949281202259</v>
       </c>
       <c r="C17" t="n">
-        <v>943.455926</v>
+        <v>943.4559209999998</v>
       </c>
       <c r="D17" t="n">
-        <v>46356.52474204742</v>
+        <v>46356.52449637337</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03315079468583205</v>
+        <v>0.03315079451014395</v>
       </c>
       <c r="F17" t="n">
-        <v>1.392612443416295</v>
+        <v>1.392612436035915</v>
       </c>
       <c r="G17" t="n">
-        <v>14.49238299810624</v>
+        <v>14.49238292130147</v>
       </c>
       <c r="H17" t="n">
-        <v>4.554923513069831e-07</v>
+        <v>4.554923488930263e-07</v>
       </c>
       <c r="I17" t="n">
-        <v>1.154070437567151e-05</v>
+        <v>1.154070431450965e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>367.7400237537877</v>
+        <v>367.7400218048888</v>
       </c>
       <c r="K17" t="n">
-        <v>12422.19899191471</v>
+        <v>12422.19892608122</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001881161472477271</v>
+        <v>0.001881161462507745</v>
       </c>
       <c r="M17" t="n">
-        <v>7.778222493887063e-05</v>
+        <v>7.778222452665089e-05</v>
       </c>
       <c r="N17" t="n">
-        <v>5.898092252282131</v>
+        <v>5.898092221024219</v>
       </c>
       <c r="O17" t="n">
-        <v>184.2276545698779</v>
+        <v>184.227653593533</v>
       </c>
       <c r="P17" t="n">
-        <v>79981.2396217347</v>
+        <v>79981.23919786092</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.001353091405371125</v>
+        <v>0.001353091398200194</v>
       </c>
     </row>
     <row r="18">
@@ -14162,52 +14162,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.468541842239432e-05</v>
+        <v>1.487181785171823e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06259099999999999</v>
+        <v>0.02083099999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4359793241965957</v>
+        <v>0.1450989008378086</v>
       </c>
       <c r="E20" t="n">
-        <v>1.195376365990688e-06</v>
+        <v>3.978349136449651e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>1.095317179370858e-05</v>
+        <v>3.645340730052937e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001149244810589662</v>
+        <v>3.824818048823831e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>1.281604602812345e-11</v>
+        <v>4.265326561515863e-12</v>
       </c>
       <c r="I20" t="n">
-        <v>2.312993876313972e-10</v>
+        <v>7.69790791607361e-11</v>
       </c>
       <c r="J20" t="n">
-        <v>0.006641134552240278</v>
+        <v>0.002210245464327414</v>
       </c>
       <c r="K20" t="n">
-        <v>0.07378902179028873</v>
+        <v>0.02455782960670869</v>
       </c>
       <c r="L20" t="n">
-        <v>2.577014424759938e-07</v>
+        <v>8.576598469775887e-08</v>
       </c>
       <c r="M20" t="n">
-        <v>3.750843107881147e-10</v>
+        <v>1.248323445547637e-10</v>
       </c>
       <c r="N20" t="n">
-        <v>9.042434865825136e-05</v>
+        <v>3.009425647297588e-05</v>
       </c>
       <c r="O20" t="n">
-        <v>0.005317982818588461</v>
+        <v>0.001769885448291546</v>
       </c>
       <c r="P20" t="n">
-        <v>1.017428698395579</v>
+        <v>0.3386118965390919</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.867728112454219e-09</v>
+        <v>1.952846963789264e-09</v>
       </c>
     </row>
     <row r="21">
@@ -14327,52 +14327,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.67757542780252</v>
+        <v>82.67780000276512</v>
       </c>
       <c r="C23" t="n">
-        <v>6063.084566</v>
+        <v>6063.101035000001</v>
       </c>
       <c r="D23" t="n">
-        <v>375639.6247885181</v>
+        <v>375640.6451287283</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2068071182156708</v>
+        <v>0.2068076799605043</v>
       </c>
       <c r="F23" t="n">
-        <v>10.98724687939475</v>
+        <v>10.98727672376965</v>
       </c>
       <c r="G23" t="n">
-        <v>113.8690508310641</v>
+        <v>113.8693601306257</v>
       </c>
       <c r="H23" t="n">
-        <v>2.950611411871497e-06</v>
+        <v>2.950619426541062e-06</v>
       </c>
       <c r="I23" t="n">
-        <v>8.607401371809787e-05</v>
+        <v>8.607424751871808e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>3135.263848177707</v>
+        <v>3135.272364413915</v>
       </c>
       <c r="K23" t="n">
-        <v>102703.3609114251</v>
+        <v>102703.6398819116</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01648757532220121</v>
+        <v>0.01648762010697619</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0004575005171571016</v>
+        <v>0.0004575017598539393</v>
       </c>
       <c r="N23" t="n">
-        <v>46.15398147597984</v>
+        <v>46.15410684284759</v>
       </c>
       <c r="O23" t="n">
-        <v>1443.141274630088</v>
+        <v>1443.145194597457</v>
       </c>
       <c r="P23" t="n">
-        <v>680805.3684299196</v>
+        <v>680807.217683957</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01155589356583546</v>
+        <v>0.01155592495481067</v>
       </c>
     </row>
     <row r="24">
@@ -14437,52 +14437,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.111706143607363</v>
+        <v>0.5544615656426107</v>
       </c>
       <c r="C25" t="n">
-        <v>277.0377020000001</v>
+        <v>138.172087</v>
       </c>
       <c r="D25" t="n">
-        <v>7871.091603992857</v>
+        <v>3925.693672884531</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0203380767725867</v>
+        <v>0.01014358151597189</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2395390609431499</v>
+        <v>0.1194697029667652</v>
       </c>
       <c r="G25" t="n">
-        <v>2.442786263128582</v>
+        <v>1.218335532076451</v>
       </c>
       <c r="H25" t="n">
-        <v>1.207681013050716e-07</v>
+        <v>6.023288700376659e-08</v>
       </c>
       <c r="I25" t="n">
-        <v>2.985331636349899e-06</v>
+        <v>1.488929122656347e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>50.8503638281232</v>
+        <v>25.36153326467128</v>
       </c>
       <c r="K25" t="n">
-        <v>1191.364475509101</v>
+        <v>594.1910244359188</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002074040391610675</v>
+        <v>0.001034424150078838</v>
       </c>
       <c r="M25" t="n">
-        <v>7.94141290142124e-06</v>
+        <v>3.960766301469313e-06</v>
       </c>
       <c r="N25" t="n">
-        <v>1.510560070007618</v>
+        <v>0.7533892892737705</v>
       </c>
       <c r="O25" t="n">
-        <v>115.4389971545885</v>
+        <v>57.57500528948421</v>
       </c>
       <c r="P25" t="n">
-        <v>17754.2844082026</v>
+        <v>8854.919428522089</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0001139919192792165</v>
+        <v>5.68532776378028e-05</v>
       </c>
     </row>
     <row r="26">
@@ -14822,52 +14822,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.704844216006275</v>
+        <v>1.704746192102573</v>
       </c>
       <c r="C32" t="n">
-        <v>131.658404</v>
+        <v>131.650834</v>
       </c>
       <c r="D32" t="n">
-        <v>107955.3706290455</v>
+        <v>107949.1634889707</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08516689319569459</v>
+        <v>0.08516199633106686</v>
       </c>
       <c r="F32" t="n">
-        <v>2.610720201669514</v>
+        <v>2.610570092361439</v>
       </c>
       <c r="G32" t="n">
-        <v>5.643485486551522</v>
+        <v>5.643161001491434</v>
       </c>
       <c r="H32" t="n">
-        <v>3.376614207739996e-07</v>
+        <v>3.376420061610498e-07</v>
       </c>
       <c r="I32" t="n">
-        <v>1.312011583545764e-05</v>
+        <v>1.311936146449569e-05</v>
       </c>
       <c r="J32" t="n">
-        <v>29587.34160284605</v>
+        <v>29585.64041120823</v>
       </c>
       <c r="K32" t="n">
-        <v>1705.379218744117</v>
+        <v>1705.281164079214</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00354383304843371</v>
+        <v>0.003543629287675858</v>
       </c>
       <c r="M32" t="n">
-        <v>0.000168250771895619</v>
+        <v>0.0001682410979340294</v>
       </c>
       <c r="N32" t="n">
-        <v>1.56273728957413</v>
+        <v>1.562647436432039</v>
       </c>
       <c r="O32" t="n">
-        <v>280.2961531518334</v>
+        <v>280.2800368856864</v>
       </c>
       <c r="P32" t="n">
-        <v>698861.173456886</v>
+        <v>698820.990840947</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.028112451178801e-05</v>
+        <v>2.02799584023116e-05</v>
       </c>
     </row>
     <row r="33">
@@ -14932,52 +14932,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.003908086303752e-06</v>
+        <v>3.870017583988608e-06</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.008322999999999983</v>
+        <v>-0.006436999999999973</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01680937334141957</v>
+        <v>0.0130003527812949</v>
       </c>
       <c r="E34" t="n">
-        <v>6.958308078674651e-08</v>
+        <v>5.381548612571024e-08</v>
       </c>
       <c r="F34" t="n">
-        <v>5.050064687268078e-06</v>
+        <v>3.905715053699933e-06</v>
       </c>
       <c r="G34" t="n">
-        <v>2.130837102736341e-05</v>
+        <v>1.647987315909383e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>-7.593979402719956e-14</v>
+        <v>-5.873176188310494e-14</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.506403467075943e-11</v>
+        <v>-1.938449972073508e-11</v>
       </c>
       <c r="J34" t="n">
-        <v>1.685378240900137e-05</v>
+        <v>1.30346987104099e-05</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0463921953784833</v>
+        <v>0.03587967819912247</v>
       </c>
       <c r="L34" t="n">
-        <v>4.229667783210089e-09</v>
+        <v>3.271220896374298e-09</v>
       </c>
       <c r="M34" t="n">
-        <v>4.523915848724425e-11</v>
+        <v>3.498792060343513e-11</v>
       </c>
       <c r="N34" t="n">
-        <v>1.446117823029771e-06</v>
+        <v>1.118426099584599e-06</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0008241599794456204</v>
+        <v>0.000637404516122966</v>
       </c>
       <c r="P34" t="n">
-        <v>0.002665147748005336</v>
+        <v>0.002061222642545994</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.954764618152444e-11</v>
+        <v>2.285212044580949e-11</v>
       </c>
     </row>
     <row r="35">
@@ -14987,52 +14987,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.491065694962867</v>
+        <v>2.49106233563259</v>
       </c>
       <c r="C35" t="n">
-        <v>-4831.109675999999</v>
+        <v>-4831.103160999999</v>
       </c>
       <c r="D35" t="n">
-        <v>30099.31335212626</v>
+        <v>30099.27276165333</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05536859165881276</v>
+        <v>0.05536851699141772</v>
       </c>
       <c r="F35" t="n">
-        <v>3.149939251009163</v>
+        <v>3.149935003153991</v>
       </c>
       <c r="G35" t="n">
-        <v>10.01096345809199</v>
+        <v>10.01094995779261</v>
       </c>
       <c r="H35" t="n">
-        <v>2.824198523653289e-07</v>
+        <v>2.82419471507625e-07</v>
       </c>
       <c r="I35" t="n">
-        <v>1.238597055080751e-05</v>
+        <v>1.238595384768886e-05</v>
       </c>
       <c r="J35" t="n">
-        <v>10.17754550837918</v>
+        <v>10.17753178343534</v>
       </c>
       <c r="K35" t="n">
-        <v>61383.94780893862</v>
+        <v>61383.86502952627</v>
       </c>
       <c r="L35" t="n">
-        <v>0.003033328416798135</v>
+        <v>0.003033324326198674</v>
       </c>
       <c r="M35" t="n">
-        <v>2.266633995728133e-05</v>
+        <v>2.266630939055552e-05</v>
       </c>
       <c r="N35" t="n">
-        <v>0.8170201866725907</v>
+        <v>0.8170190848788264</v>
       </c>
       <c r="O35" t="n">
-        <v>842.4958785311371</v>
+        <v>842.4947423820913</v>
       </c>
       <c r="P35" t="n">
-        <v>1729.203220190827</v>
+        <v>1729.200888271302</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.999695386009688e-05</v>
+        <v>1.999692689317559e-05</v>
       </c>
     </row>
     <row r="36">
@@ -15198,52 +15198,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>144.8468030666625</v>
+        <v>143.8269899658549</v>
       </c>
       <c r="C2" t="n">
-        <v>99727.780371</v>
+        <v>100752.617985</v>
       </c>
       <c r="D2" t="n">
-        <v>301689.2460770804</v>
+        <v>306099.1871199557</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1730918317540719</v>
+        <v>0.1730865331713431</v>
       </c>
       <c r="F2" t="n">
-        <v>31.9171203598641</v>
+        <v>31.35835074274675</v>
       </c>
       <c r="G2" t="n">
-        <v>357.0613435411923</v>
+        <v>351.1593411865893</v>
       </c>
       <c r="H2" t="n">
-        <v>1.090954617921511e-05</v>
+        <v>1.100185832527458e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003465537643633643</v>
+        <v>0.0003757588898266864</v>
       </c>
       <c r="J2" t="n">
-        <v>6145.143007107418</v>
+        <v>6144.745060824132</v>
       </c>
       <c r="K2" t="n">
-        <v>6722.68075995357</v>
+        <v>6720.631031470733</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03376679924893943</v>
+        <v>0.03376681420698679</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002000272050572984</v>
+        <v>0.002177307900488566</v>
       </c>
       <c r="N2" t="n">
-        <v>91.10388640826245</v>
+        <v>89.63320059578481</v>
       </c>
       <c r="O2" t="n">
-        <v>11354.52416564959</v>
+        <v>11354.29838712565</v>
       </c>
       <c r="P2" t="n">
-        <v>9451.561871164147</v>
+        <v>9441.312836515523</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0004937744128944258</v>
+        <v>0.0004978399684560814</v>
       </c>
     </row>
     <row r="3">
@@ -15253,52 +15253,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.6185837043281</v>
+        <v>118.8838321684907</v>
       </c>
       <c r="C3" t="n">
-        <v>13799.171493</v>
+        <v>13885.862587</v>
       </c>
       <c r="D3" t="n">
-        <v>831860.4595649089</v>
+        <v>848099.4555674735</v>
       </c>
       <c r="E3" t="n">
-        <v>5.688315867085072</v>
+        <v>5.776377621111795</v>
       </c>
       <c r="F3" t="n">
-        <v>24.99656603335469</v>
+        <v>25.12547905858725</v>
       </c>
       <c r="G3" t="n">
-        <v>275.5793933821435</v>
+        <v>276.8277357008805</v>
       </c>
       <c r="H3" t="n">
-        <v>4.966056103366206e-05</v>
+        <v>5.013843872179648e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0006868064945890819</v>
+        <v>0.0006962915192447975</v>
       </c>
       <c r="J3" t="n">
-        <v>1366.00268090736</v>
+        <v>1372.485011487993</v>
       </c>
       <c r="K3" t="n">
-        <v>138569.0579727399</v>
+        <v>141084.9743252272</v>
       </c>
       <c r="L3" t="n">
-        <v>1.385500148586356</v>
+        <v>1.413296294641472</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001310333603493186</v>
+        <v>0.001320712734466624</v>
       </c>
       <c r="N3" t="n">
-        <v>68.11911053489921</v>
+        <v>68.51377849951095</v>
       </c>
       <c r="O3" t="n">
-        <v>8555.163383306613</v>
+        <v>8624.711454465985</v>
       </c>
       <c r="P3" t="n">
-        <v>201329.2376612019</v>
+        <v>202399.6110492377</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001305099761376767</v>
+        <v>0.001313589814966409</v>
       </c>
     </row>
     <row r="4">
@@ -15308,52 +15308,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.9928816560623</v>
+        <v>162.0980607738882</v>
       </c>
       <c r="C4" t="n">
-        <v>14122.492583</v>
+        <v>14180.964253</v>
       </c>
       <c r="D4" t="n">
-        <v>1117305.139046686</v>
+        <v>1125658.43970754</v>
       </c>
       <c r="E4" t="n">
-        <v>7.549773400064709</v>
+        <v>7.547219563940572</v>
       </c>
       <c r="F4" t="n">
-        <v>35.10896066633119</v>
+        <v>35.33759309302484</v>
       </c>
       <c r="G4" t="n">
-        <v>311.6904766318225</v>
+        <v>314.0689767940625</v>
       </c>
       <c r="H4" t="n">
-        <v>1.408256843502976e-05</v>
+        <v>1.411724942951625e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003482204449051792</v>
+        <v>0.0003494841486166056</v>
       </c>
       <c r="J4" t="n">
-        <v>40501.05979897857</v>
+        <v>40576.51182140553</v>
       </c>
       <c r="K4" t="n">
-        <v>334324.822907781</v>
+        <v>337175.9870111804</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1289192551492383</v>
+        <v>0.1283144114553325</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001216954746449329</v>
+        <v>0.001227317222910132</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4850825548935</v>
+        <v>130.2031830736942</v>
       </c>
       <c r="O4" t="n">
-        <v>7919.81120664403</v>
+        <v>7909.657581099395</v>
       </c>
       <c r="P4" t="n">
-        <v>2398683.460705012</v>
+        <v>2412086.557211271</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02297767663747572</v>
+        <v>0.02329956639556768</v>
       </c>
     </row>
     <row r="5">
@@ -15363,52 +15363,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.458268427053</v>
+        <v>424.8088829082338</v>
       </c>
       <c r="C5" t="n">
-        <v>127649.444447</v>
+        <v>128819.444825</v>
       </c>
       <c r="D5" t="n">
-        <v>2250854.844688675</v>
+        <v>2279857.082394969</v>
       </c>
       <c r="E5" t="n">
-        <v>13.41118109890385</v>
+        <v>13.49668371822371</v>
       </c>
       <c r="F5" t="n">
-        <v>92.02264705954998</v>
+        <v>91.82142289435885</v>
       </c>
       <c r="G5" t="n">
-        <v>944.3312135551585</v>
+        <v>942.0560536815324</v>
       </c>
       <c r="H5" t="n">
-        <v>7.465267564790693e-05</v>
+        <v>7.525754647658732e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001381580703857625</v>
+        <v>0.00142153455768809</v>
       </c>
       <c r="J5" t="n">
-        <v>48012.20548699336</v>
+        <v>48093.74189371766</v>
       </c>
       <c r="K5" t="n">
-        <v>479616.5616404745</v>
+        <v>484981.5923678783</v>
       </c>
       <c r="L5" t="n">
-        <v>1.548186202984533</v>
+        <v>1.575377520303791</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0045275604005155</v>
+        <v>0.004725337857865321</v>
       </c>
       <c r="N5" t="n">
-        <v>288.7080794980552</v>
+        <v>288.35016216899</v>
       </c>
       <c r="O5" t="n">
-        <v>27829.49875560023</v>
+        <v>27888.66742269103</v>
       </c>
       <c r="P5" t="n">
-        <v>2609464.260237378</v>
+        <v>2623927.481097025</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02477655081174691</v>
+        <v>0.02511099617899017</v>
       </c>
     </row>
   </sheetData>
